--- a/Lab1/Cp_Data.xlsx
+++ b/Lab1/Cp_Data.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_9261A2622138B145574FDEBD2D0A0911C9F61C88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NACA0012" sheetId="1" r:id="rId1"/>
     <sheet name="NACA4412" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -35,1336 +41,1336 @@
     <t>2.505</t>
   </si>
   <si>
+    <t>1.390</t>
+  </si>
+  <si>
+    <t>2.567</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>2.586</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>2.609</t>
+  </si>
+  <si>
+    <t>-0.561</t>
+  </si>
+  <si>
+    <t>2.562</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>2.553</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>2.545</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>2.451</t>
+  </si>
+  <si>
+    <t>0.833</t>
+  </si>
+  <si>
+    <t>2.417</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>2.397</t>
+  </si>
+  <si>
+    <t>-0.467</t>
+  </si>
+  <si>
+    <t>2.375</t>
+  </si>
+  <si>
+    <t>-1.143</t>
+  </si>
+  <si>
+    <t>2.378</t>
+  </si>
+  <si>
+    <t>-0.197</t>
+  </si>
+  <si>
+    <t>2.393</t>
+  </si>
+  <si>
+    <t>-0.034</t>
+  </si>
+  <si>
+    <t>-1.056</t>
+  </si>
+  <si>
+    <t>2.570</t>
+  </si>
+  <si>
+    <t>-1.825</t>
+  </si>
+  <si>
+    <t>2.589</t>
+  </si>
+  <si>
+    <t>-2.591</t>
+  </si>
+  <si>
+    <t>-3.401</t>
+  </si>
+  <si>
+    <t>-0.867</t>
+  </si>
+  <si>
+    <t>2.547</t>
+  </si>
+  <si>
+    <t>-0.688</t>
+  </si>
+  <si>
+    <t>2.552</t>
+  </si>
+  <si>
+    <t>-0.669</t>
+  </si>
+  <si>
+    <t>2.454</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>2.422</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>2.394</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>2.386</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
     <t>2.510</t>
   </si>
   <si>
+    <t>-0.967</t>
+  </si>
+  <si>
+    <t>2.564</t>
+  </si>
+  <si>
+    <t>-1.661</t>
+  </si>
+  <si>
+    <t>2.588</t>
+  </si>
+  <si>
+    <t>-1.377</t>
+  </si>
+  <si>
+    <t>2.608</t>
+  </si>
+  <si>
+    <t>-1.794</t>
+  </si>
+  <si>
+    <t>2.560</t>
+  </si>
+  <si>
+    <t>2.555</t>
+  </si>
+  <si>
+    <t>-0.754</t>
+  </si>
+  <si>
+    <t>-0.745</t>
+  </si>
+  <si>
+    <t>2.448</t>
+  </si>
+  <si>
+    <t>-0.125</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>2.390</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>2.370</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
     <t>2.509</t>
   </si>
   <si>
+    <t>-0.878</t>
+  </si>
+  <si>
+    <t>2.566</t>
+  </si>
+  <si>
+    <t>-0.981</t>
+  </si>
+  <si>
+    <t>2.592</t>
+  </si>
+  <si>
+    <t>-1.263</t>
+  </si>
+  <si>
+    <t>2.607</t>
+  </si>
+  <si>
+    <t>-1.473</t>
+  </si>
+  <si>
+    <t>-0.993</t>
+  </si>
+  <si>
+    <t>-0.792</t>
+  </si>
+  <si>
+    <t>2.557</t>
+  </si>
+  <si>
+    <t>-0.770</t>
+  </si>
+  <si>
+    <t>2.452</t>
+  </si>
+  <si>
+    <t>-0.196</t>
+  </si>
+  <si>
+    <t>2.419</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>2.395</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>2.379</t>
+  </si>
+  <si>
+    <t>0.334</t>
+  </si>
+  <si>
+    <t>2.377</t>
+  </si>
+  <si>
+    <t>0.263</t>
+  </si>
+  <si>
+    <t>2.387</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
     <t>2.507</t>
   </si>
   <si>
+    <t>-0.822</t>
+  </si>
+  <si>
+    <t>-0.916</t>
+  </si>
+  <si>
+    <t>2.590</t>
+  </si>
+  <si>
+    <t>-1.106</t>
+  </si>
+  <si>
+    <t>2.606</t>
+  </si>
+  <si>
+    <t>-1.250</t>
+  </si>
+  <si>
+    <t>2.563</t>
+  </si>
+  <si>
+    <t>-0.998</t>
+  </si>
+  <si>
+    <t>2.554</t>
+  </si>
+  <si>
+    <t>-0.775</t>
+  </si>
+  <si>
+    <t>2.450</t>
+  </si>
+  <si>
+    <t>-0.248</t>
+  </si>
+  <si>
+    <t>2.418</t>
+  </si>
+  <si>
+    <t>-0.062</t>
+  </si>
+  <si>
+    <t>0.090</t>
+  </si>
+  <si>
+    <t>0.201</t>
+  </si>
+  <si>
+    <t>0.134</t>
+  </si>
+  <si>
+    <t>0.117</t>
+  </si>
+  <si>
     <t>2.506</t>
   </si>
   <si>
+    <t>-0.771</t>
+  </si>
+  <si>
+    <t>-1.018</t>
+  </si>
+  <si>
+    <t>-1.133</t>
+  </si>
+  <si>
+    <t>-1.066</t>
+  </si>
+  <si>
+    <t>2.546</t>
+  </si>
+  <si>
+    <t>-0.805</t>
+  </si>
+  <si>
+    <t>2.551</t>
+  </si>
+  <si>
+    <t>-0.817</t>
+  </si>
+  <si>
+    <t>2.453</t>
+  </si>
+  <si>
+    <t>-0.280</t>
+  </si>
+  <si>
+    <t>-0.114</t>
+  </si>
+  <si>
+    <t>2.396</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>2.380</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.020</t>
+  </si>
+  <si>
     <t>2.512</t>
   </si>
   <si>
+    <t>-0.713</t>
+  </si>
+  <si>
+    <t>-0.774</t>
+  </si>
+  <si>
+    <t>2.585</t>
+  </si>
+  <si>
+    <t>-0.890</t>
+  </si>
+  <si>
+    <t>2.603</t>
+  </si>
+  <si>
+    <t>-0.976</t>
+  </si>
+  <si>
+    <t>2.559</t>
+  </si>
+  <si>
+    <t>-1.024</t>
+  </si>
+  <si>
+    <t>-0.803</t>
+  </si>
+  <si>
+    <t>2.548</t>
+  </si>
+  <si>
+    <t>-0.798</t>
+  </si>
+  <si>
+    <t>2.456</t>
+  </si>
+  <si>
+    <t>-0.282</t>
+  </si>
+  <si>
+    <t>2.421</t>
+  </si>
+  <si>
+    <t>-0.136</t>
+  </si>
+  <si>
+    <t>2.392</t>
+  </si>
+  <si>
+    <t>-0.021</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>2.376</t>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t>2.388</t>
+  </si>
+  <si>
+    <t>-0.050</t>
+  </si>
+  <si>
     <t>2.511</t>
   </si>
   <si>
+    <t>-0.638</t>
+  </si>
+  <si>
+    <t>-0.673</t>
+  </si>
+  <si>
+    <t>-0.760</t>
+  </si>
+  <si>
+    <t>2.614</t>
+  </si>
+  <si>
+    <t>-0.827</t>
+  </si>
+  <si>
+    <t>-1.004</t>
+  </si>
+  <si>
+    <t>2.550</t>
+  </si>
+  <si>
+    <t>-0.795</t>
+  </si>
+  <si>
+    <t>-0.793</t>
+  </si>
+  <si>
+    <t>-0.269</t>
+  </si>
+  <si>
+    <t>2.424</t>
+  </si>
+  <si>
+    <t>-0.146</t>
+  </si>
+  <si>
+    <t>-0.051</t>
+  </si>
+  <si>
+    <t>2.372</t>
+  </si>
+  <si>
+    <t>-0.061</t>
+  </si>
+  <si>
+    <t>2.391</t>
+  </si>
+  <si>
+    <t>-0.110</t>
+  </si>
+  <si>
+    <t>-0.573</t>
+  </si>
+  <si>
+    <t>-0.590</t>
+  </si>
+  <si>
+    <t>2.584</t>
+  </si>
+  <si>
+    <t>-0.656</t>
+  </si>
+  <si>
+    <t>2.612</t>
+  </si>
+  <si>
+    <t>-0.699</t>
+  </si>
+  <si>
+    <t>2.561</t>
+  </si>
+  <si>
+    <t>-0.991</t>
+  </si>
+  <si>
+    <t>-0.796</t>
+  </si>
+  <si>
+    <t>-0.808</t>
+  </si>
+  <si>
+    <t>-0.254</t>
+  </si>
+  <si>
+    <t>-0.066</t>
+  </si>
+  <si>
+    <t>2.373</t>
+  </si>
+  <si>
+    <t>-0.003</t>
+  </si>
+  <si>
+    <t>-0.092</t>
+  </si>
+  <si>
+    <t>-0.147</t>
+  </si>
+  <si>
     <t>2.508</t>
   </si>
   <si>
+    <t>-0.510</t>
+  </si>
+  <si>
+    <t>-0.502</t>
+  </si>
+  <si>
+    <t>-0.550</t>
+  </si>
+  <si>
+    <t>2.604</t>
+  </si>
+  <si>
+    <t>-0.578</t>
+  </si>
+  <si>
+    <t>-0.956</t>
+  </si>
+  <si>
+    <t>-0.788</t>
+  </si>
+  <si>
+    <t>-0.801</t>
+  </si>
+  <si>
+    <t>-0.228</t>
+  </si>
+  <si>
+    <t>-0.134</t>
+  </si>
+  <si>
+    <t>-0.067</t>
+  </si>
+  <si>
+    <t>-0.014</t>
+  </si>
+  <si>
+    <t>-0.177</t>
+  </si>
+  <si>
+    <t>-0.451</t>
+  </si>
+  <si>
+    <t>-0.422</t>
+  </si>
+  <si>
+    <t>-0.457</t>
+  </si>
+  <si>
+    <t>-0.468</t>
+  </si>
+  <si>
+    <t>-1.022</t>
+  </si>
+  <si>
+    <t>-0.791</t>
+  </si>
+  <si>
+    <t>-0.810</t>
+  </si>
+  <si>
+    <t>-0.203</t>
+  </si>
+  <si>
+    <t>2.415</t>
+  </si>
+  <si>
+    <t>-0.123</t>
+  </si>
+  <si>
+    <t>-0.070</t>
+  </si>
+  <si>
+    <t>-0.027</t>
+  </si>
+  <si>
+    <t>2.381</t>
+  </si>
+  <si>
+    <t>-0.129</t>
+  </si>
+  <si>
+    <t>-0.207</t>
+  </si>
+  <si>
     <t>2.504</t>
   </si>
   <si>
+    <t>-0.401</t>
+  </si>
+  <si>
+    <t>2.565</t>
+  </si>
+  <si>
+    <t>-0.352</t>
+  </si>
+  <si>
+    <t>2.587</t>
+  </si>
+  <si>
+    <t>-0.374</t>
+  </si>
+  <si>
+    <t>-0.373</t>
+  </si>
+  <si>
+    <t>-0.961</t>
+  </si>
+  <si>
+    <t>-0.814</t>
+  </si>
+  <si>
+    <t>2.459</t>
+  </si>
+  <si>
+    <t>-0.179</t>
+  </si>
+  <si>
+    <t>2.420</t>
+  </si>
+  <si>
+    <t>-0.069</t>
+  </si>
+  <si>
+    <t>-0.037</t>
+  </si>
+  <si>
+    <t>2.383</t>
+  </si>
+  <si>
+    <t>-0.155</t>
+  </si>
+  <si>
+    <t>2.398</t>
+  </si>
+  <si>
+    <t>-0.240</t>
+  </si>
+  <si>
+    <t>-0.319</t>
+  </si>
+  <si>
+    <t>-0.285</t>
+  </si>
+  <si>
+    <t>-0.295</t>
+  </si>
+  <si>
+    <t>-0.982</t>
+  </si>
+  <si>
+    <t>2.558</t>
+  </si>
+  <si>
+    <t>-0.829</t>
+  </si>
+  <si>
+    <t>2.455</t>
+  </si>
+  <si>
+    <t>-0.153</t>
+  </si>
+  <si>
+    <t>2.414</t>
+  </si>
+  <si>
+    <t>-0.094</t>
+  </si>
+  <si>
+    <t>2.389</t>
+  </si>
+  <si>
+    <t>-0.064</t>
+  </si>
+  <si>
+    <t>-0.040</t>
+  </si>
+  <si>
+    <t>2.382</t>
+  </si>
+  <si>
+    <t>-0.267</t>
+  </si>
+  <si>
+    <t>-0.214</t>
+  </si>
+  <si>
+    <t>-0.213</t>
+  </si>
+  <si>
+    <t>2.605</t>
+  </si>
+  <si>
+    <t>-0.195</t>
+  </si>
+  <si>
+    <t>-0.928</t>
+  </si>
+  <si>
+    <t>-0.818</t>
+  </si>
+  <si>
+    <t>-0.836</t>
+  </si>
+  <si>
+    <t>-0.122</t>
+  </si>
+  <si>
+    <t>-0.072</t>
+  </si>
+  <si>
+    <t>-0.055</t>
+  </si>
+  <si>
+    <t>-0.178</t>
+  </si>
+  <si>
+    <t>-0.296</t>
+  </si>
+  <si>
+    <t>-0.126</t>
+  </si>
+  <si>
+    <t>-0.148</t>
+  </si>
+  <si>
+    <t>-0.116</t>
+  </si>
+  <si>
+    <t>-0.923</t>
+  </si>
+  <si>
+    <t>-0.820</t>
+  </si>
+  <si>
+    <t>-0.842</t>
+  </si>
+  <si>
+    <t>-0.049</t>
+  </si>
+  <si>
+    <t>-0.045</t>
+  </si>
+  <si>
+    <t>2.371</t>
+  </si>
+  <si>
+    <t>-0.198</t>
+  </si>
+  <si>
+    <t>-0.329</t>
+  </si>
+  <si>
     <t>2.502</t>
   </si>
   <si>
-    <t>1.390</t>
-  </si>
-  <si>
-    <t>-1.056</t>
-  </si>
-  <si>
-    <t>-0.967</t>
-  </si>
-  <si>
-    <t>-0.878</t>
-  </si>
-  <si>
-    <t>-0.822</t>
-  </si>
-  <si>
-    <t>-0.771</t>
-  </si>
-  <si>
-    <t>-0.713</t>
-  </si>
-  <si>
-    <t>-0.638</t>
-  </si>
-  <si>
-    <t>-0.573</t>
-  </si>
-  <si>
-    <t>-0.510</t>
-  </si>
-  <si>
-    <t>-0.451</t>
-  </si>
-  <si>
-    <t>-0.401</t>
-  </si>
-  <si>
-    <t>-0.319</t>
-  </si>
-  <si>
-    <t>-0.203</t>
-  </si>
-  <si>
-    <t>-0.126</t>
-  </si>
-  <si>
     <t>-0.065</t>
   </si>
   <si>
+    <t>2.569</t>
+  </si>
+  <si>
+    <t>-0.086</t>
+  </si>
+  <si>
+    <t>-0.047</t>
+  </si>
+  <si>
+    <t>-0.862</t>
+  </si>
+  <si>
+    <t>-0.839</t>
+  </si>
+  <si>
+    <t>-0.869</t>
+  </si>
+  <si>
+    <t>-0.063</t>
+  </si>
+  <si>
+    <t>2.416</t>
+  </si>
+  <si>
+    <t>-0.031</t>
+  </si>
+  <si>
+    <t>-0.036</t>
+  </si>
+  <si>
+    <t>-0.359</t>
+  </si>
+  <si>
     <t>0.007</t>
   </si>
   <si>
+    <t>-0.012</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>-0.879</t>
+  </si>
+  <si>
+    <t>-0.838</t>
+  </si>
+  <si>
+    <t>-0.860</t>
+  </si>
+  <si>
+    <t>-0.033</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>-0.010</t>
+  </si>
+  <si>
+    <t>-0.025</t>
+  </si>
+  <si>
+    <t>-0.227</t>
+  </si>
+  <si>
+    <t>-0.391</t>
+  </si>
+  <si>
     <t>0.099</t>
   </si>
   <si>
-    <t>2.567</t>
-  </si>
-  <si>
-    <t>2.570</t>
-  </si>
-  <si>
-    <t>2.564</t>
-  </si>
-  <si>
-    <t>2.566</t>
-  </si>
-  <si>
-    <t>2.562</t>
-  </si>
-  <si>
-    <t>2.565</t>
-  </si>
-  <si>
-    <t>2.560</t>
-  </si>
-  <si>
-    <t>2.569</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>-1.825</t>
-  </si>
-  <si>
-    <t>-1.661</t>
-  </si>
-  <si>
-    <t>-0.981</t>
-  </si>
-  <si>
-    <t>-0.916</t>
-  </si>
-  <si>
-    <t>-0.867</t>
-  </si>
-  <si>
-    <t>-0.774</t>
-  </si>
-  <si>
-    <t>-0.673</t>
-  </si>
-  <si>
-    <t>-0.590</t>
-  </si>
-  <si>
-    <t>-0.502</t>
-  </si>
-  <si>
-    <t>-0.422</t>
-  </si>
-  <si>
-    <t>-0.352</t>
-  </si>
-  <si>
-    <t>-0.285</t>
-  </si>
-  <si>
-    <t>-0.214</t>
-  </si>
-  <si>
-    <t>-0.148</t>
-  </si>
-  <si>
-    <t>-0.086</t>
-  </si>
-  <si>
-    <t>-0.012</t>
-  </si>
-  <si>
     <t>0.066</t>
   </si>
   <si>
-    <t>2.586</t>
-  </si>
-  <si>
-    <t>2.589</t>
-  </si>
-  <si>
-    <t>2.588</t>
-  </si>
-  <si>
-    <t>2.592</t>
-  </si>
-  <si>
-    <t>2.590</t>
-  </si>
-  <si>
-    <t>2.585</t>
-  </si>
-  <si>
-    <t>2.584</t>
-  </si>
-  <si>
-    <t>2.587</t>
-  </si>
-  <si>
-    <t>0.104</t>
-  </si>
-  <si>
-    <t>-2.591</t>
-  </si>
-  <si>
-    <t>-1.377</t>
-  </si>
-  <si>
-    <t>-1.263</t>
-  </si>
-  <si>
-    <t>-1.106</t>
-  </si>
-  <si>
-    <t>-1.018</t>
-  </si>
-  <si>
-    <t>-0.890</t>
-  </si>
-  <si>
-    <t>-0.760</t>
-  </si>
-  <si>
-    <t>-0.656</t>
-  </si>
-  <si>
-    <t>-0.550</t>
-  </si>
-  <si>
-    <t>-0.457</t>
-  </si>
-  <si>
-    <t>-0.374</t>
-  </si>
-  <si>
-    <t>-0.295</t>
-  </si>
-  <si>
-    <t>-0.213</t>
-  </si>
-  <si>
-    <t>-0.136</t>
-  </si>
-  <si>
-    <t>-0.067</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
     <t>0.094</t>
   </si>
   <si>
-    <t>2.609</t>
-  </si>
-  <si>
-    <t>2.608</t>
-  </si>
-  <si>
-    <t>2.607</t>
-  </si>
-  <si>
-    <t>2.606</t>
-  </si>
-  <si>
-    <t>2.603</t>
-  </si>
-  <si>
-    <t>2.614</t>
-  </si>
-  <si>
-    <t>2.612</t>
-  </si>
-  <si>
-    <t>2.604</t>
-  </si>
-  <si>
-    <t>2.605</t>
-  </si>
-  <si>
-    <t>-0.561</t>
-  </si>
-  <si>
-    <t>-3.401</t>
-  </si>
-  <si>
-    <t>-1.794</t>
-  </si>
-  <si>
-    <t>-1.473</t>
-  </si>
-  <si>
-    <t>-1.250</t>
-  </si>
-  <si>
-    <t>-1.133</t>
-  </si>
-  <si>
-    <t>-0.976</t>
-  </si>
-  <si>
-    <t>-0.827</t>
-  </si>
-  <si>
-    <t>-0.699</t>
-  </si>
-  <si>
-    <t>-0.578</t>
-  </si>
-  <si>
-    <t>-0.468</t>
-  </si>
-  <si>
-    <t>-0.373</t>
-  </si>
-  <si>
-    <t>-0.282</t>
-  </si>
-  <si>
-    <t>-0.195</t>
-  </si>
-  <si>
-    <t>-0.116</t>
-  </si>
-  <si>
-    <t>-0.047</t>
-  </si>
-  <si>
-    <t>0.022</t>
-  </si>
-  <si>
     <t>0.080</t>
   </si>
   <si>
-    <t>2.553</t>
-  </si>
-  <si>
-    <t>2.563</t>
-  </si>
-  <si>
-    <t>2.559</t>
-  </si>
-  <si>
-    <t>2.561</t>
-  </si>
-  <si>
-    <t>2.557</t>
-  </si>
-  <si>
-    <t>2.558</t>
-  </si>
-  <si>
-    <t>0.866</t>
-  </si>
-  <si>
-    <t>-0.993</t>
-  </si>
-  <si>
-    <t>-0.998</t>
-  </si>
-  <si>
-    <t>-1.066</t>
-  </si>
-  <si>
-    <t>-1.024</t>
-  </si>
-  <si>
-    <t>-1.004</t>
-  </si>
-  <si>
-    <t>-0.991</t>
-  </si>
-  <si>
-    <t>-0.956</t>
-  </si>
-  <si>
-    <t>-1.022</t>
-  </si>
-  <si>
-    <t>-0.961</t>
-  </si>
-  <si>
-    <t>-0.982</t>
-  </si>
-  <si>
-    <t>-0.928</t>
-  </si>
-  <si>
-    <t>-0.923</t>
-  </si>
-  <si>
-    <t>-0.862</t>
-  </si>
-  <si>
-    <t>-0.879</t>
-  </si>
-  <si>
-    <t>-0.817</t>
-  </si>
-  <si>
-    <t>2.547</t>
-  </si>
-  <si>
-    <t>2.555</t>
-  </si>
-  <si>
-    <t>2.552</t>
-  </si>
-  <si>
-    <t>2.554</t>
-  </si>
-  <si>
-    <t>2.546</t>
-  </si>
-  <si>
-    <t>2.550</t>
-  </si>
-  <si>
-    <t>2.551</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>-0.688</t>
-  </si>
-  <si>
-    <t>-0.754</t>
-  </si>
-  <si>
-    <t>-0.792</t>
-  </si>
-  <si>
-    <t>-0.805</t>
-  </si>
-  <si>
-    <t>-0.803</t>
-  </si>
-  <si>
-    <t>-0.795</t>
-  </si>
-  <si>
-    <t>-0.796</t>
-  </si>
-  <si>
-    <t>-0.788</t>
-  </si>
-  <si>
-    <t>-0.791</t>
-  </si>
-  <si>
-    <t>-0.810</t>
-  </si>
-  <si>
-    <t>-0.818</t>
-  </si>
-  <si>
-    <t>-0.820</t>
-  </si>
-  <si>
-    <t>-0.839</t>
-  </si>
-  <si>
-    <t>-0.838</t>
-  </si>
-  <si>
-    <t>2.545</t>
-  </si>
-  <si>
-    <t>2.548</t>
-  </si>
-  <si>
-    <t>0.529</t>
-  </si>
-  <si>
-    <t>-0.669</t>
-  </si>
-  <si>
-    <t>-0.745</t>
-  </si>
-  <si>
-    <t>-0.770</t>
-  </si>
-  <si>
-    <t>-0.775</t>
-  </si>
-  <si>
-    <t>-0.798</t>
-  </si>
-  <si>
-    <t>-0.793</t>
-  </si>
-  <si>
-    <t>-0.808</t>
-  </si>
-  <si>
-    <t>-0.801</t>
-  </si>
-  <si>
-    <t>-0.814</t>
-  </si>
-  <si>
-    <t>-0.829</t>
-  </si>
-  <si>
-    <t>-0.836</t>
-  </si>
-  <si>
-    <t>-0.842</t>
-  </si>
-  <si>
-    <t>-0.869</t>
-  </si>
-  <si>
-    <t>-0.860</t>
-  </si>
-  <si>
-    <t>2.451</t>
-  </si>
-  <si>
-    <t>2.454</t>
-  </si>
-  <si>
-    <t>2.448</t>
-  </si>
-  <si>
-    <t>2.452</t>
-  </si>
-  <si>
-    <t>2.450</t>
-  </si>
-  <si>
-    <t>2.453</t>
-  </si>
-  <si>
-    <t>2.456</t>
-  </si>
-  <si>
-    <t>2.459</t>
-  </si>
-  <si>
-    <t>2.455</t>
-  </si>
-  <si>
-    <t>0.833</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>-0.125</t>
-  </si>
-  <si>
-    <t>-0.196</t>
-  </si>
-  <si>
-    <t>-0.248</t>
-  </si>
-  <si>
-    <t>-0.280</t>
-  </si>
-  <si>
-    <t>-0.269</t>
-  </si>
-  <si>
-    <t>-0.254</t>
-  </si>
-  <si>
-    <t>-0.228</t>
-  </si>
-  <si>
-    <t>-0.179</t>
-  </si>
-  <si>
-    <t>-0.153</t>
-  </si>
-  <si>
-    <t>-0.122</t>
-  </si>
-  <si>
-    <t>-0.092</t>
-  </si>
-  <si>
-    <t>-0.063</t>
-  </si>
-  <si>
-    <t>-0.033</t>
-  </si>
-  <si>
-    <t>-0.014</t>
-  </si>
-  <si>
-    <t>2.417</t>
-  </si>
-  <si>
-    <t>2.422</t>
-  </si>
-  <si>
-    <t>2.419</t>
-  </si>
-  <si>
-    <t>2.418</t>
-  </si>
-  <si>
-    <t>2.421</t>
-  </si>
-  <si>
-    <t>2.424</t>
-  </si>
-  <si>
-    <t>2.415</t>
-  </si>
-  <si>
-    <t>2.420</t>
-  </si>
-  <si>
-    <t>2.414</t>
-  </si>
-  <si>
-    <t>2.416</t>
-  </si>
-  <si>
-    <t>0.259</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.143</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t>-0.062</t>
-  </si>
-  <si>
-    <t>-0.114</t>
-  </si>
-  <si>
-    <t>-0.146</t>
-  </si>
-  <si>
-    <t>-0.134</t>
-  </si>
-  <si>
-    <t>-0.123</t>
-  </si>
-  <si>
-    <t>-0.110</t>
-  </si>
-  <si>
-    <t>-0.094</t>
-  </si>
-  <si>
-    <t>-0.072</t>
-  </si>
-  <si>
-    <t>-0.049</t>
-  </si>
-  <si>
-    <t>-0.021</t>
-  </si>
-  <si>
-    <t>0.014</t>
-  </si>
-  <si>
-    <t>0.043</t>
-  </si>
-  <si>
-    <t>2.397</t>
-  </si>
-  <si>
-    <t>2.394</t>
-  </si>
-  <si>
-    <t>2.390</t>
-  </si>
-  <si>
-    <t>2.395</t>
-  </si>
-  <si>
-    <t>2.396</t>
-  </si>
-  <si>
-    <t>2.392</t>
-  </si>
-  <si>
-    <t>2.393</t>
-  </si>
-  <si>
-    <t>2.389</t>
-  </si>
-  <si>
-    <t>-0.467</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.207</t>
-  </si>
-  <si>
-    <t>0.090</t>
-  </si>
-  <si>
-    <t>-0.051</t>
-  </si>
-  <si>
-    <t>-0.066</t>
-  </si>
-  <si>
-    <t>-0.070</t>
-  </si>
-  <si>
-    <t>-0.069</t>
-  </si>
-  <si>
-    <t>-0.064</t>
-  </si>
-  <si>
-    <t>-0.055</t>
-  </si>
-  <si>
-    <t>-0.045</t>
-  </si>
-  <si>
-    <t>-0.031</t>
-  </si>
-  <si>
-    <t>-0.010</t>
-  </si>
-  <si>
-    <t>0.020</t>
-  </si>
-  <si>
-    <t>2.375</t>
-  </si>
-  <si>
-    <t>2.378</t>
-  </si>
-  <si>
-    <t>2.370</t>
-  </si>
-  <si>
-    <t>2.379</t>
-  </si>
-  <si>
-    <t>2.380</t>
-  </si>
-  <si>
-    <t>2.377</t>
-  </si>
-  <si>
-    <t>2.372</t>
-  </si>
-  <si>
-    <t>2.373</t>
-  </si>
-  <si>
-    <t>2.376</t>
-  </si>
-  <si>
-    <t>2.371</t>
-  </si>
-  <si>
-    <t>-1.143</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.334</t>
-  </si>
-  <si>
-    <t>0.201</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>0.068</t>
-  </si>
-  <si>
-    <t>-0.003</t>
-  </si>
-  <si>
-    <t>-0.027</t>
-  </si>
-  <si>
-    <t>-0.037</t>
-  </si>
-  <si>
-    <t>-0.040</t>
-  </si>
-  <si>
-    <t>-0.036</t>
-  </si>
-  <si>
-    <t>-0.025</t>
-  </si>
-  <si>
-    <t>2.381</t>
-  </si>
-  <si>
-    <t>2.383</t>
-  </si>
-  <si>
-    <t>2.382</t>
-  </si>
-  <si>
-    <t>-0.197</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>0.134</t>
-  </si>
-  <si>
-    <t>-0.009</t>
-  </si>
-  <si>
-    <t>-0.061</t>
-  </si>
-  <si>
-    <t>-0.129</t>
-  </si>
-  <si>
-    <t>-0.155</t>
-  </si>
-  <si>
-    <t>-0.178</t>
-  </si>
-  <si>
-    <t>-0.198</t>
-  </si>
-  <si>
-    <t>-0.227</t>
-  </si>
-  <si>
     <t>-0.237</t>
   </si>
   <si>
-    <t>2.386</t>
-  </si>
-  <si>
-    <t>2.387</t>
-  </si>
-  <si>
-    <t>2.388</t>
-  </si>
-  <si>
-    <t>2.391</t>
-  </si>
-  <si>
-    <t>2.398</t>
-  </si>
-  <si>
-    <t>-0.034</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.117</t>
-  </si>
-  <si>
-    <t>-0.050</t>
-  </si>
-  <si>
-    <t>-0.147</t>
-  </si>
-  <si>
-    <t>-0.177</t>
-  </si>
-  <si>
-    <t>-0.207</t>
-  </si>
-  <si>
-    <t>-0.240</t>
-  </si>
-  <si>
-    <t>-0.267</t>
-  </si>
-  <si>
-    <t>-0.296</t>
-  </si>
-  <si>
-    <t>-0.329</t>
-  </si>
-  <si>
-    <t>-0.359</t>
-  </si>
-  <si>
-    <t>-0.391</t>
-  </si>
-  <si>
     <t>-0.418</t>
   </si>
   <si>
+    <t>1.772</t>
+  </si>
+  <si>
+    <t>2.619</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>2.636</t>
+  </si>
+  <si>
+    <t>-0.381</t>
+  </si>
+  <si>
+    <t>2.648</t>
+  </si>
+  <si>
+    <t>-1.828</t>
+  </si>
+  <si>
+    <t>2.658</t>
+  </si>
+  <si>
+    <t>-2.978</t>
+  </si>
+  <si>
+    <t>2.651</t>
+  </si>
+  <si>
+    <t>-3.755</t>
+  </si>
+  <si>
+    <t>-4.862</t>
+  </si>
+  <si>
+    <t>-0.589</t>
+  </si>
+  <si>
+    <t>2.620</t>
+  </si>
+  <si>
+    <t>-2.833</t>
+  </si>
+  <si>
+    <t>2.627</t>
+  </si>
+  <si>
+    <t>-3.463</t>
+  </si>
+  <si>
+    <t>2.649</t>
+  </si>
+  <si>
+    <t>-4.462</t>
+  </si>
+  <si>
+    <t>2.652</t>
+  </si>
+  <si>
+    <t>-5.097</t>
+  </si>
+  <si>
+    <t>2.656</t>
+  </si>
+  <si>
+    <t>-5.552</t>
+  </si>
+  <si>
+    <t>2.654</t>
+  </si>
+  <si>
+    <t>-6.235</t>
+  </si>
+  <si>
+    <t>-0.969</t>
+  </si>
+  <si>
+    <t>-2.630</t>
+  </si>
+  <si>
+    <t>2.632</t>
+  </si>
+  <si>
+    <t>-3.077</t>
+  </si>
+  <si>
+    <t>2.646</t>
+  </si>
+  <si>
+    <t>2.663</t>
+  </si>
+  <si>
+    <t>-4.344</t>
+  </si>
+  <si>
+    <t>-5.025</t>
+  </si>
+  <si>
+    <t>-5.344</t>
+  </si>
+  <si>
+    <t>-1.185</t>
+  </si>
+  <si>
+    <t>2.617</t>
+  </si>
+  <si>
+    <t>-2.346</t>
+  </si>
+  <si>
+    <t>-2.647</t>
+  </si>
+  <si>
+    <t>2.643</t>
+  </si>
+  <si>
+    <t>-3.110</t>
+  </si>
+  <si>
+    <t>2.653</t>
+  </si>
+  <si>
+    <t>-2.942</t>
+  </si>
+  <si>
+    <t>2.655</t>
+  </si>
+  <si>
+    <t>-3.167</t>
+  </si>
+  <si>
+    <t>-3.334</t>
+  </si>
+  <si>
+    <t>-1.334</t>
+  </si>
+  <si>
+    <t>-2.077</t>
+  </si>
+  <si>
+    <t>-2.256</t>
+  </si>
+  <si>
+    <t>-2.505</t>
+  </si>
+  <si>
+    <t>-2.555</t>
+  </si>
+  <si>
+    <t>2.657</t>
+  </si>
+  <si>
+    <t>-2.545</t>
+  </si>
+  <si>
+    <t>-2.454</t>
+  </si>
+  <si>
+    <t>-1.304</t>
+  </si>
+  <si>
+    <t>2.618</t>
+  </si>
+  <si>
+    <t>-1.820</t>
+  </si>
+  <si>
+    <t>2.634</t>
+  </si>
+  <si>
+    <t>-1.968</t>
+  </si>
+  <si>
+    <t>2.650</t>
+  </si>
+  <si>
+    <t>-2.023</t>
+  </si>
+  <si>
+    <t>-2.044</t>
+  </si>
+  <si>
+    <t>-1.953</t>
+  </si>
+  <si>
+    <t>-1.753</t>
+  </si>
+  <si>
+    <t>-1.140</t>
+  </si>
+  <si>
+    <t>2.611</t>
+  </si>
+  <si>
+    <t>-1.575</t>
+  </si>
+  <si>
+    <t>2.635</t>
+  </si>
+  <si>
+    <t>-1.629</t>
+  </si>
+  <si>
+    <t>-1.618</t>
+  </si>
+  <si>
+    <t>-1.540</t>
+  </si>
+  <si>
+    <t>-1.370</t>
+  </si>
+  <si>
+    <t>-1.134</t>
+  </si>
+  <si>
+    <t>-0.954</t>
+  </si>
+  <si>
+    <t>2.615</t>
+  </si>
+  <si>
+    <t>-1.064</t>
+  </si>
+  <si>
+    <t>-1.154</t>
+  </si>
+  <si>
+    <t>2.647</t>
+  </si>
+  <si>
+    <t>-1.197</t>
+  </si>
+  <si>
+    <t>-1.062</t>
+  </si>
+  <si>
+    <t>-0.622</t>
+  </si>
+  <si>
+    <t>-0.710</t>
+  </si>
+  <si>
+    <t>-0.599</t>
+  </si>
+  <si>
+    <t>2.631</t>
+  </si>
+  <si>
+    <t>-0.598</t>
+  </si>
+  <si>
+    <t>-0.520</t>
+  </si>
+  <si>
+    <t>-0.303</t>
+  </si>
+  <si>
+    <t>2.645</t>
+  </si>
+  <si>
+    <t>-0.226</t>
+  </si>
+  <si>
+    <t>-0.390</t>
+  </si>
+  <si>
+    <t>2.633</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>-0.029</t>
+  </si>
+  <si>
+    <t>-0.187</t>
+  </si>
+  <si>
+    <t>-0.410</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>2.621</t>
+  </si>
+  <si>
+    <t>0.457</t>
+  </si>
+  <si>
+    <t>2.630</t>
+  </si>
+  <si>
+    <t>0.480</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.546</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>0.711</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>2.622</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
+    <t>0.895</t>
+  </si>
+  <si>
+    <t>0.934</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>0.908</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>1.035</t>
+  </si>
+  <si>
+    <t>1.093</t>
+  </si>
+  <si>
     <t>2.549</t>
   </si>
   <si>
-    <t>1.772</t>
-  </si>
-  <si>
-    <t>-0.589</t>
-  </si>
-  <si>
-    <t>-0.969</t>
-  </si>
-  <si>
-    <t>-1.185</t>
-  </si>
-  <si>
-    <t>-1.334</t>
-  </si>
-  <si>
-    <t>-1.304</t>
-  </si>
-  <si>
-    <t>-1.140</t>
-  </si>
-  <si>
-    <t>-0.954</t>
-  </si>
-  <si>
-    <t>-0.710</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.115</t>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>1.128</t>
+  </si>
+  <si>
+    <t>1.246</t>
+  </si>
+  <si>
+    <t>1.315</t>
+  </si>
+  <si>
+    <t>1.395</t>
   </si>
   <si>
     <t>-0.017</t>
   </si>
   <si>
-    <t>2.619</t>
-  </si>
-  <si>
-    <t>2.620</t>
-  </si>
-  <si>
-    <t>2.617</t>
-  </si>
-  <si>
-    <t>2.618</t>
-  </si>
-  <si>
-    <t>2.611</t>
-  </si>
-  <si>
-    <t>2.615</t>
-  </si>
-  <si>
-    <t>2.621</t>
-  </si>
-  <si>
-    <t>2.622</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>-2.833</t>
-  </si>
-  <si>
-    <t>-2.630</t>
-  </si>
-  <si>
-    <t>-2.346</t>
-  </si>
-  <si>
-    <t>-2.077</t>
-  </si>
-  <si>
-    <t>-1.820</t>
-  </si>
-  <si>
-    <t>-1.575</t>
-  </si>
-  <si>
-    <t>-1.064</t>
-  </si>
-  <si>
-    <t>-0.599</t>
-  </si>
-  <si>
-    <t>0.457</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.749</t>
-  </si>
-  <si>
     <t>1.164</t>
   </si>
   <si>
-    <t>2.636</t>
-  </si>
-  <si>
-    <t>2.627</t>
-  </si>
-  <si>
-    <t>2.632</t>
-  </si>
-  <si>
-    <t>2.634</t>
-  </si>
-  <si>
-    <t>2.635</t>
-  </si>
-  <si>
-    <t>2.631</t>
-  </si>
-  <si>
-    <t>2.633</t>
-  </si>
-  <si>
-    <t>2.630</t>
-  </si>
-  <si>
-    <t>-0.381</t>
-  </si>
-  <si>
-    <t>-3.463</t>
-  </si>
-  <si>
-    <t>-3.077</t>
-  </si>
-  <si>
-    <t>-2.647</t>
-  </si>
-  <si>
-    <t>-2.256</t>
-  </si>
-  <si>
-    <t>-1.968</t>
-  </si>
-  <si>
-    <t>-1.629</t>
-  </si>
-  <si>
-    <t>-1.154</t>
-  </si>
-  <si>
-    <t>-0.598</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>0.480</t>
-  </si>
-  <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.759</t>
-  </si>
-  <si>
-    <t>0.917</t>
-  </si>
-  <si>
     <t>1.365</t>
   </si>
   <si>
-    <t>2.648</t>
-  </si>
-  <si>
-    <t>2.649</t>
-  </si>
-  <si>
-    <t>2.646</t>
-  </si>
-  <si>
-    <t>2.643</t>
-  </si>
-  <si>
-    <t>2.650</t>
-  </si>
-  <si>
-    <t>2.647</t>
-  </si>
-  <si>
-    <t>2.651</t>
-  </si>
-  <si>
-    <t>2.652</t>
-  </si>
-  <si>
-    <t>2.645</t>
-  </si>
-  <si>
-    <t>-1.828</t>
-  </si>
-  <si>
-    <t>-4.462</t>
-  </si>
-  <si>
-    <t>-3.755</t>
-  </si>
-  <si>
-    <t>-3.110</t>
-  </si>
-  <si>
-    <t>-2.505</t>
-  </si>
-  <si>
-    <t>-2.023</t>
-  </si>
-  <si>
-    <t>-1.618</t>
-  </si>
-  <si>
-    <t>-1.197</t>
-  </si>
-  <si>
-    <t>-0.520</t>
-  </si>
-  <si>
-    <t>0.091</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>0.582</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.808</t>
-  </si>
-  <si>
-    <t>0.908</t>
-  </si>
-  <si>
-    <t>1.128</t>
-  </si>
-  <si>
     <t>1.596</t>
   </si>
   <si>
-    <t>2.658</t>
-  </si>
-  <si>
-    <t>2.663</t>
-  </si>
-  <si>
-    <t>2.653</t>
-  </si>
-  <si>
-    <t>2.655</t>
-  </si>
-  <si>
-    <t>2.654</t>
-  </si>
-  <si>
-    <t>-2.978</t>
-  </si>
-  <si>
-    <t>-5.097</t>
-  </si>
-  <si>
-    <t>-4.344</t>
-  </si>
-  <si>
-    <t>-2.942</t>
-  </si>
-  <si>
-    <t>-2.555</t>
-  </si>
-  <si>
-    <t>-2.044</t>
-  </si>
-  <si>
-    <t>-1.540</t>
-  </si>
-  <si>
-    <t>-1.062</t>
-  </si>
-  <si>
-    <t>-0.303</t>
-  </si>
-  <si>
-    <t>-0.029</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.706</t>
-  </si>
-  <si>
-    <t>0.990</t>
-  </si>
-  <si>
-    <t>1.246</t>
-  </si>
-  <si>
     <t>1.713</t>
   </si>
   <si>
-    <t>2.656</t>
-  </si>
-  <si>
-    <t>2.657</t>
-  </si>
-  <si>
-    <t>-5.552</t>
-  </si>
-  <si>
-    <t>-5.025</t>
-  </si>
-  <si>
-    <t>-3.167</t>
-  </si>
-  <si>
-    <t>-2.545</t>
-  </si>
-  <si>
-    <t>-1.953</t>
-  </si>
-  <si>
-    <t>-1.370</t>
-  </si>
-  <si>
-    <t>-0.226</t>
-  </si>
-  <si>
-    <t>-0.187</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.546</t>
-  </si>
-  <si>
-    <t>0.711</t>
-  </si>
-  <si>
-    <t>0.895</t>
-  </si>
-  <si>
-    <t>1.035</t>
-  </si>
-  <si>
-    <t>1.315</t>
-  </si>
-  <si>
     <t>1.758</t>
-  </si>
-  <si>
-    <t>-4.862</t>
-  </si>
-  <si>
-    <t>-6.235</t>
-  </si>
-  <si>
-    <t>-5.344</t>
-  </si>
-  <si>
-    <t>-3.334</t>
-  </si>
-  <si>
-    <t>-2.454</t>
-  </si>
-  <si>
-    <t>-1.753</t>
-  </si>
-  <si>
-    <t>-1.134</t>
-  </si>
-  <si>
-    <t>-0.622</t>
-  </si>
-  <si>
-    <t>-0.390</t>
-  </si>
-  <si>
-    <t>-0.410</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>0.508</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.934</t>
-  </si>
-  <si>
-    <t>1.093</t>
-  </si>
-  <si>
-    <t>1.395</t>
   </si>
   <si>
     <t>1.802</t>
@@ -1373,7 +1379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1437,13 +1443,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1481,7 +1495,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1515,6 +1529,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1549,9 +1564,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1724,7 +1740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1933,25 +1949,25 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0.5548902195608783</v>
+        <v>0.55489021956087825</v>
       </c>
       <c r="D2">
-        <v>33.01506073147499</v>
+        <v>33.015060731474989</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>0.2255551227113362</v>
+        <v>0.22555512271133621</v>
       </c>
       <c r="J2">
         <v>33.42113307970093</v>
@@ -1960,163 +1976,163 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>0.04021655065738593</v>
+        <v>4.0216550657385927E-2</v>
       </c>
       <c r="P2">
-        <v>33.54459058738345</v>
+        <v>33.544590587383453</v>
       </c>
       <c r="Q2">
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="U2">
-        <v>-0.2150249137600614</v>
+        <v>-0.21502491376006139</v>
       </c>
       <c r="V2">
-        <v>33.69343391190515</v>
+        <v>33.693433911905153</v>
       </c>
       <c r="W2">
         <v>8</v>
       </c>
       <c r="Y2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="AA2">
         <v>0.3380171740827479</v>
       </c>
       <c r="AB2">
-        <v>33.38856839002334</v>
+        <v>33.388568390023337</v>
       </c>
       <c r="AC2">
         <v>10</v>
       </c>
       <c r="AE2" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="AG2">
         <v>0.2847630238934587</v>
       </c>
       <c r="AH2">
-        <v>33.32987176967232</v>
+        <v>33.329871769672323</v>
       </c>
       <c r="AI2">
         <v>12</v>
       </c>
       <c r="AK2" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="AM2">
         <v>0.2078585461689588</v>
       </c>
       <c r="AN2">
-        <v>33.27761008049551</v>
+        <v>33.277610080495514</v>
       </c>
       <c r="AO2">
         <v>14</v>
       </c>
       <c r="AQ2" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="AS2">
-        <v>0.3398612811097511</v>
+        <v>0.33986128110975111</v>
       </c>
       <c r="AT2">
-        <v>32.65727106462185</v>
+        <v>32.657271064621852</v>
       </c>
       <c r="AU2">
         <v>-4</v>
       </c>
       <c r="AW2" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="AX2" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="AY2">
-        <v>0.1071576334298718</v>
+        <v>0.10715763342987179</v>
       </c>
       <c r="AZ2">
-        <v>32.42997102152035</v>
+        <v>32.429971021520352</v>
       </c>
       <c r="BA2">
         <v>-6</v>
       </c>
       <c r="BC2" t="s">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="BD2" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="BE2">
-        <v>-0.1948268669169796</v>
+        <v>-0.19482686691697959</v>
       </c>
       <c r="BF2">
-        <v>32.29551782637015</v>
+        <v>32.295517826370151</v>
       </c>
       <c r="BG2">
         <v>-8</v>
       </c>
       <c r="BI2" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="BJ2" t="s">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="BK2">
-        <v>-0.4812631578947368</v>
+        <v>-0.48126315789473678</v>
       </c>
       <c r="BL2">
-        <v>32.14696981072725</v>
+        <v>32.146969810727249</v>
       </c>
       <c r="BM2">
         <v>-10</v>
       </c>
       <c r="BO2" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="BP2" t="s">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c r="BQ2">
-        <v>-0.08284272497897392</v>
+        <v>-8.2842724978973922E-2</v>
       </c>
       <c r="BR2">
-        <v>32.16726675254362</v>
+        <v>32.167266752543618</v>
       </c>
       <c r="BS2">
         <v>-12</v>
       </c>
       <c r="BU2" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="BV2" t="s">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="BW2">
-        <v>-0.01420810697868784</v>
+        <v>-1.4208106978687841E-2</v>
       </c>
       <c r="BX2">
         <v>32.26855996038158</v>
@@ -2130,193 +2146,193 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>-0.4215568862275449</v>
+        <v>-0.42155688622754489</v>
       </c>
       <c r="D3">
-        <v>33.01506073147499</v>
+        <v>33.015060731474989</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>-0.7101167315175098</v>
+        <v>-0.71011673151750976</v>
       </c>
       <c r="J3">
-        <v>33.44065667191014</v>
+        <v>33.440656671910141</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="O3">
         <v>-1.000772499034376</v>
       </c>
       <c r="P3">
-        <v>33.56404236668556</v>
+        <v>33.564042366685563</v>
       </c>
       <c r="Q3">
         <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="U3">
-        <v>-1.303564584131851</v>
+        <v>-1.3035645841318511</v>
       </c>
       <c r="V3">
-        <v>33.69343391190515</v>
+        <v>33.693433911905153</v>
       </c>
       <c r="W3">
         <v>8</v>
       </c>
       <c r="Y3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" t="s">
-        <v>46</v>
-      </c>
       <c r="AA3">
-        <v>-0.3384074941451991</v>
+        <v>-0.33840749414519911</v>
       </c>
       <c r="AB3">
-        <v>33.38856839002334</v>
+        <v>33.388568390023337</v>
       </c>
       <c r="AC3">
         <v>10</v>
       </c>
       <c r="AE3" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="AG3">
-        <v>-0.2701217118178248</v>
+        <v>-0.27012171181782479</v>
       </c>
       <c r="AH3">
-        <v>33.2906831943687</v>
+        <v>33.290683194368697</v>
       </c>
       <c r="AI3">
         <v>12</v>
       </c>
       <c r="AK3" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="AM3">
-        <v>-0.2621473354231975</v>
+        <v>-0.26214733542319751</v>
       </c>
       <c r="AN3">
-        <v>33.32334354088192</v>
+        <v>33.323343540881922</v>
       </c>
       <c r="AO3">
         <v>14</v>
       </c>
       <c r="AQ3" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="AR3" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="AS3">
-        <v>0.02118989405052974</v>
+        <v>2.1189894050529741E-2</v>
       </c>
       <c r="AT3">
-        <v>32.67725104266997</v>
+        <v>32.677251042669972</v>
       </c>
       <c r="AU3">
         <v>-4</v>
       </c>
       <c r="AW3" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="AX3" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="AY3">
-        <v>0.161849710982659</v>
+        <v>0.16184971098265899</v>
       </c>
       <c r="AZ3">
-        <v>32.46349731086384</v>
+        <v>32.463497310863843</v>
       </c>
       <c r="BA3">
         <v>-6</v>
       </c>
       <c r="BC3" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="BD3" t="s">
-        <v>233</v>
+        <v>47</v>
       </c>
       <c r="BE3">
-        <v>0.2639933166248956</v>
+        <v>0.26399331662489561</v>
       </c>
       <c r="BF3">
-        <v>32.27530153779983</v>
+        <v>32.275301537799827</v>
       </c>
       <c r="BG3">
         <v>-8</v>
       </c>
       <c r="BI3" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="BJ3" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="BK3">
         <v>0.3208578637510513</v>
       </c>
       <c r="BL3">
-        <v>32.16726675254362</v>
+        <v>32.167266752543618</v>
       </c>
       <c r="BM3">
         <v>-10</v>
       </c>
       <c r="BO3" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="BP3" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="BQ3">
-        <v>0.2930526315789473</v>
+        <v>0.29305263157894729</v>
       </c>
       <c r="BR3">
-        <v>32.14696981072725</v>
+        <v>32.146969810727249</v>
       </c>
       <c r="BS3">
         <v>-12</v>
       </c>
       <c r="BU3" t="s">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="BV3" t="s">
-        <v>292</v>
+        <v>51</v>
       </c>
       <c r="BW3">
         <v>0.2896060352053646</v>
       </c>
       <c r="BX3">
-        <v>32.2213294238863</v>
+        <v>32.221329423886303</v>
       </c>
       <c r="BY3">
         <v>-14</v>
@@ -2324,13 +2340,13 @@
     </row>
     <row r="4" spans="1:77">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C4">
-        <v>-0.3852589641434263</v>
+        <v>-0.38525896414342631</v>
       </c>
       <c r="D4">
         <v>33.04799346857228</v>
@@ -2339,73 +2355,73 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I4">
-        <v>-0.6478159126365055</v>
+        <v>-0.64781591263650551</v>
       </c>
       <c r="J4">
-        <v>33.40159807574469</v>
+        <v>33.401598075744687</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="O4">
-        <v>-0.5320710973724884</v>
+        <v>-0.53207109737248837</v>
       </c>
       <c r="P4">
-        <v>33.5575596930632</v>
+        <v>33.557559693063197</v>
       </c>
       <c r="Q4">
         <v>6</v>
       </c>
       <c r="S4" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="U4">
-        <v>-0.6878834355828221</v>
+        <v>-0.68788343558282206</v>
       </c>
       <c r="V4">
-        <v>33.68697613821634</v>
+        <v>33.686976138216338</v>
       </c>
       <c r="W4">
         <v>8</v>
       </c>
       <c r="Y4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="Z4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="AA4">
-        <v>-0.377734375</v>
+        <v>-0.37773437500000001</v>
       </c>
       <c r="AB4">
-        <v>33.37553361756093</v>
+        <v>33.375533617560933</v>
       </c>
       <c r="AC4">
         <v>10</v>
       </c>
       <c r="AE4" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="AG4">
-        <v>-0.2951076320939334</v>
+        <v>-0.29510763209393343</v>
       </c>
       <c r="AH4">
         <v>33.34292439275724</v>
@@ -2414,103 +2430,103 @@
         <v>12</v>
       </c>
       <c r="AK4" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="AM4">
-        <v>-0.2919278996865204</v>
+        <v>-0.29192789968652039</v>
       </c>
       <c r="AN4">
-        <v>33.32334354088192</v>
+        <v>33.323343540881922</v>
       </c>
       <c r="AO4">
         <v>14</v>
       </c>
       <c r="AQ4" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="AR4" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="AS4">
-        <v>-0.05106209150326797</v>
+        <v>-5.1062091503267973E-2</v>
       </c>
       <c r="AT4">
-        <v>32.63727885517876</v>
+        <v>32.637278855178756</v>
       </c>
       <c r="AU4">
         <v>-4</v>
       </c>
       <c r="AW4" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="AX4" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="AY4">
-        <v>0.05904211395540875</v>
+        <v>5.9042113955408752E-2</v>
       </c>
       <c r="AZ4">
-        <v>32.46349731086384</v>
+        <v>32.463497310863843</v>
       </c>
       <c r="BA4">
         <v>-6</v>
       </c>
       <c r="BC4" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="BD4" t="s">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="BE4">
-        <v>0.1456066945606694</v>
+        <v>0.14560669456066941</v>
       </c>
       <c r="BF4">
-        <v>32.24832677208622</v>
+        <v>32.248326772086223</v>
       </c>
       <c r="BG4">
         <v>-8</v>
       </c>
       <c r="BI4" t="s">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="BJ4" t="s">
-        <v>259</v>
+        <v>70</v>
       </c>
       <c r="BK4">
         <v>0.2029535864978903</v>
       </c>
       <c r="BL4">
-        <v>32.11311306640942</v>
+        <v>32.113113066409419</v>
       </c>
       <c r="BM4">
         <v>-10</v>
       </c>
       <c r="BO4" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="BP4" t="s">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="BQ4">
-        <v>0.1781052631578947</v>
+        <v>0.17810526315789471</v>
       </c>
       <c r="BR4">
-        <v>32.14696981072725</v>
+        <v>32.146969810727249</v>
       </c>
       <c r="BS4">
         <v>-12</v>
       </c>
       <c r="BU4" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="BV4" t="s">
-        <v>293</v>
+        <v>72</v>
       </c>
       <c r="BW4">
-        <v>0.1763476807354785</v>
+        <v>0.17634768073547849</v>
       </c>
       <c r="BX4">
         <v>32.26855996038158</v>
@@ -2521,55 +2537,55 @@
     </row>
     <row r="5" spans="1:77">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C5">
-        <v>-0.3499402152251893</v>
+        <v>-0.34994021522518931</v>
       </c>
       <c r="D5">
-        <v>33.0414095471067</v>
+        <v>33.041409547106703</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="I5">
-        <v>-0.382307092751364</v>
+        <v>-0.38230709275136399</v>
       </c>
       <c r="J5">
-        <v>33.41462268067555</v>
+        <v>33.414622680675549</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="O5">
-        <v>-0.4872685185185185</v>
+        <v>-0.48726851851851849</v>
       </c>
       <c r="P5">
-        <v>33.58348287938807</v>
+        <v>33.583482879388072</v>
       </c>
       <c r="Q5">
         <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="U5">
         <v>-0.5650172612197929</v>
@@ -2581,88 +2597,88 @@
         <v>8</v>
       </c>
       <c r="Y5" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AA5">
-        <v>-0.3889541715628672</v>
+        <v>-0.38895417156286721</v>
       </c>
       <c r="AB5">
-        <v>33.32987176967232</v>
+        <v>33.329871769672323</v>
       </c>
       <c r="AC5">
         <v>10</v>
       </c>
       <c r="AE5" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AG5">
-        <v>-0.3103448275862069</v>
+        <v>-0.31034482758620691</v>
       </c>
       <c r="AH5">
-        <v>33.32334354088192</v>
+        <v>33.323343540881922</v>
       </c>
       <c r="AI5">
         <v>12</v>
       </c>
       <c r="AK5" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="AL5" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="AM5">
         <v>-0.3011341415721549</v>
       </c>
       <c r="AN5">
-        <v>33.35597190818236</v>
+        <v>33.355971908182362</v>
       </c>
       <c r="AO5">
         <v>14</v>
       </c>
       <c r="AQ5" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="AR5" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="AS5">
-        <v>-0.07993474714518761</v>
+        <v>-7.9934747145187612E-2</v>
       </c>
       <c r="AT5">
-        <v>32.66393241523975</v>
+        <v>32.663932415239749</v>
       </c>
       <c r="AU5">
         <v>-4</v>
       </c>
       <c r="AW5" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="AX5" t="s">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="AY5">
-        <v>0.01116163704009921</v>
+        <v>1.1161637040099211E-2</v>
       </c>
       <c r="AZ5">
-        <v>32.44338569469863</v>
+        <v>32.443385694698627</v>
       </c>
       <c r="BA5">
         <v>-6</v>
       </c>
       <c r="BC5" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="BD5" t="s">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="BE5">
-        <v>0.08643006263048016</v>
+        <v>8.6430062630480156E-2</v>
       </c>
       <c r="BF5">
         <v>32.28204170734972</v>
@@ -2671,46 +2687,46 @@
         <v>-8</v>
       </c>
       <c r="BI5" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="BJ5" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="BK5">
-        <v>0.1403951240016814</v>
+        <v>0.14039512400168139</v>
       </c>
       <c r="BL5">
-        <v>32.17402955441641</v>
+        <v>32.174029554416407</v>
       </c>
       <c r="BM5">
         <v>-10</v>
       </c>
       <c r="BO5" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="BP5" t="s">
-        <v>276</v>
+        <v>94</v>
       </c>
       <c r="BQ5">
         <v>0.1106436684896929</v>
       </c>
       <c r="BR5">
-        <v>32.16050252856965</v>
+        <v>32.160502528569651</v>
       </c>
       <c r="BS5">
         <v>-12</v>
       </c>
       <c r="BU5" t="s">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="BV5" t="s">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="BW5">
-        <v>0.1059907834101382</v>
+        <v>0.10599078341013821</v>
       </c>
       <c r="BX5">
-        <v>32.22808088114717</v>
+        <v>32.228080881147172</v>
       </c>
       <c r="BY5">
         <v>-14</v>
@@ -2718,13 +2734,13 @@
     </row>
     <row r="6" spans="1:77">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C6">
-        <v>-0.3278819305943358</v>
+        <v>-0.32788193059433579</v>
       </c>
       <c r="D6">
         <v>33.02823776681565</v>
@@ -2733,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="I6">
-        <v>-0.3568367744448773</v>
+        <v>-0.35683677444487732</v>
       </c>
       <c r="J6">
         <v>33.42113307970093</v>
@@ -2748,13 +2764,13 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="O6">
-        <v>-0.4270270270270271</v>
+        <v>-0.42702702702702711</v>
       </c>
       <c r="P6">
         <v>33.57052378846398</v>
@@ -2763,58 +2779,58 @@
         <v>6</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="T6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="U6">
         <v>-0.4796623177283193</v>
       </c>
       <c r="V6">
-        <v>33.67405687555974</v>
+        <v>33.674056875559742</v>
       </c>
       <c r="W6">
         <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="Z6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="AA6">
         <v>-0.389387436597737</v>
       </c>
       <c r="AB6">
-        <v>33.39508386835446</v>
+        <v>33.395083868354462</v>
       </c>
       <c r="AC6">
         <v>10</v>
       </c>
       <c r="AE6" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="AF6" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AG6">
-        <v>-0.3101018010963195</v>
+        <v>-0.31010180109631952</v>
       </c>
       <c r="AH6">
-        <v>33.33639872004716</v>
+        <v>33.336398720047157</v>
       </c>
       <c r="AI6">
         <v>12</v>
       </c>
       <c r="AK6" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="AL6" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="AM6">
-        <v>-0.3033268101761252</v>
+        <v>-0.30332681017612517</v>
       </c>
       <c r="AN6">
         <v>33.34292439275724</v>
@@ -2823,43 +2839,43 @@
         <v>14</v>
       </c>
       <c r="AQ6" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="AR6" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="AS6">
         <v>-0.1012244897959184</v>
       </c>
       <c r="AT6">
-        <v>32.65060835496062</v>
+        <v>32.650608354960617</v>
       </c>
       <c r="AU6">
         <v>-4</v>
       </c>
       <c r="AW6" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="AX6" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="AY6">
-        <v>-0.02564102564102564</v>
+        <v>-2.564102564102564E-2</v>
       </c>
       <c r="AZ6">
-        <v>32.43667905158931</v>
+        <v>32.436679051589309</v>
       </c>
       <c r="BA6">
         <v>-6</v>
       </c>
       <c r="BC6" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="BD6" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="BE6">
-        <v>0.03757828810020877</v>
+        <v>3.7578288100208773E-2</v>
       </c>
       <c r="BF6">
         <v>32.28204170734972</v>
@@ -2868,46 +2884,46 @@
         <v>-8</v>
       </c>
       <c r="BI6" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="BJ6" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="BK6">
-        <v>0.08452481076534904</v>
+        <v>8.452481076534904E-2</v>
       </c>
       <c r="BL6">
-        <v>32.16726675254362</v>
+        <v>32.167266752543618</v>
       </c>
       <c r="BM6">
         <v>-10</v>
       </c>
       <c r="BO6" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="BP6" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="BQ6">
-        <v>0.05632618747372846</v>
+        <v>5.6326187473728459E-2</v>
       </c>
       <c r="BR6">
-        <v>32.17402955441641</v>
+        <v>32.174029554416407</v>
       </c>
       <c r="BS6">
         <v>-12</v>
       </c>
       <c r="BU6" t="s">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="BV6" t="s">
-        <v>295</v>
+        <v>115</v>
       </c>
       <c r="BW6">
-        <v>0.04901550062840386</v>
+        <v>4.901550062840386E-2</v>
       </c>
       <c r="BX6">
-        <v>32.22808088114717</v>
+        <v>32.228080881147172</v>
       </c>
       <c r="BY6">
         <v>-14</v>
@@ -2915,70 +2931,70 @@
     </row>
     <row r="7" spans="1:77">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C7">
-        <v>-0.3076616121308859</v>
+        <v>-0.30766161213088589</v>
       </c>
       <c r="D7">
-        <v>33.02164990641965</v>
+        <v>33.021649906419647</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
       <c r="I7">
-        <v>-0.3384074941451991</v>
+        <v>-0.33840749414519911</v>
       </c>
       <c r="J7">
-        <v>33.38856839002334</v>
+        <v>33.388568390023337</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="O7">
-        <v>-0.3936581593194122</v>
+        <v>-0.39365815931941223</v>
       </c>
       <c r="P7">
-        <v>33.54459058738345</v>
+        <v>33.544590587383453</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="U7">
-        <v>-0.4344325153374233</v>
+        <v>-0.43443251533742328</v>
       </c>
       <c r="V7">
-        <v>33.68697613821634</v>
+        <v>33.686976138216338</v>
       </c>
       <c r="W7">
         <v>8</v>
       </c>
       <c r="Y7" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA7">
         <v>-0.4152707440592131</v>
@@ -2990,13 +3006,13 @@
         <v>10</v>
       </c>
       <c r="AE7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="AF7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="AG7">
-        <v>-0.3161822466614297</v>
+        <v>-0.31618224666142969</v>
       </c>
       <c r="AH7">
         <v>33.28414727927786</v>
@@ -3005,106 +3021,106 @@
         <v>12</v>
       </c>
       <c r="AK7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="AL7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AM7">
-        <v>-0.320266562132497</v>
+        <v>-0.32026656213249699</v>
       </c>
       <c r="AN7">
-        <v>33.31681403292448</v>
+        <v>33.316814032924484</v>
       </c>
       <c r="AO7">
         <v>14</v>
       </c>
       <c r="AQ7" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="AR7" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="AS7">
         <v>-0.1141459437423563</v>
       </c>
       <c r="AT7">
-        <v>32.67059240764564</v>
+        <v>32.670592407645643</v>
       </c>
       <c r="AU7">
         <v>-4</v>
       </c>
       <c r="AW7" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="AX7" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="AY7">
-        <v>-0.04706853839801817</v>
+        <v>-4.7068538398018167E-2</v>
       </c>
       <c r="AZ7">
-        <v>32.46349731086384</v>
+        <v>32.463497310863843</v>
       </c>
       <c r="BA7">
         <v>-6</v>
       </c>
       <c r="BC7" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="BD7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="BE7">
-        <v>0.009181969949916527</v>
+        <v>9.1819699499165273E-3</v>
       </c>
       <c r="BF7">
-        <v>32.28878046991291</v>
+        <v>32.288780469912908</v>
       </c>
       <c r="BG7">
         <v>-8</v>
       </c>
       <c r="BI7" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="BJ7" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="BK7">
-        <v>0.05168067226890757</v>
+        <v>5.1680672268907567E-2</v>
       </c>
       <c r="BL7">
-        <v>32.18079093508461</v>
+        <v>32.180790935084609</v>
       </c>
       <c r="BM7">
         <v>-10</v>
       </c>
       <c r="BO7" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="BP7" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="BQ7">
-        <v>0.01807482135350988</v>
+        <v>1.8074821353509879E-2</v>
       </c>
       <c r="BR7">
-        <v>32.17402955441641</v>
+        <v>32.174029554416407</v>
       </c>
       <c r="BS7">
         <v>-12</v>
       </c>
       <c r="BU7" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="BV7" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="BW7">
-        <v>0.008368200836820083</v>
+        <v>8.368200836820083E-3</v>
       </c>
       <c r="BX7">
-        <v>32.24832677208622</v>
+        <v>32.248326772086223</v>
       </c>
       <c r="BY7">
         <v>-14</v>
@@ -3112,58 +3128,58 @@
     </row>
     <row r="8" spans="1:77">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <v>-0.2838375796178344</v>
       </c>
       <c r="D8">
-        <v>33.0611573780641</v>
+        <v>33.061157378064102</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="I8">
-        <v>-0.3018720748829953</v>
+        <v>-0.30187207488299528</v>
       </c>
       <c r="J8">
-        <v>33.40159807574469</v>
+        <v>33.401598075744687</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="O8">
-        <v>-0.344294003868472</v>
+        <v>-0.34429400386847198</v>
       </c>
       <c r="P8">
-        <v>33.53810415387267</v>
+        <v>33.538104153872673</v>
       </c>
       <c r="Q8">
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="T8" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="U8">
-        <v>-0.3749519784863619</v>
+        <v>-0.37495197848636191</v>
       </c>
       <c r="V8">
         <v>33.65466868267972</v>
@@ -3172,88 +3188,88 @@
         <v>8</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="Z8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA8">
         <v>-0.4001563110590074</v>
       </c>
       <c r="AB8">
-        <v>33.3690143219391</v>
+        <v>33.369014321939098</v>
       </c>
       <c r="AC8">
         <v>10</v>
       </c>
       <c r="AE8" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG8">
-        <v>-0.315272870043188</v>
+        <v>-0.31527287004318799</v>
       </c>
       <c r="AH8">
-        <v>33.2906831943687</v>
+        <v>33.290683194368697</v>
       </c>
       <c r="AI8">
         <v>12</v>
       </c>
       <c r="AK8" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AL8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="AM8">
-        <v>-0.3131868131868132</v>
+        <v>-0.31318681318681318</v>
       </c>
       <c r="AN8">
-        <v>33.29721782652397</v>
+        <v>33.297217826523969</v>
       </c>
       <c r="AO8">
         <v>14</v>
       </c>
       <c r="AQ8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="AR8" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="AS8">
         <v>-0.1148208469055375</v>
       </c>
       <c r="AT8">
-        <v>32.69056424389156</v>
+        <v>32.690564243891558</v>
       </c>
       <c r="AU8">
         <v>-4</v>
       </c>
       <c r="AW8" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="AX8" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AY8">
-        <v>-0.05617513424204875</v>
+        <v>-5.6175134242048751E-2</v>
       </c>
       <c r="AZ8">
-        <v>32.45679482347727</v>
+        <v>32.456794823477267</v>
       </c>
       <c r="BA8">
         <v>-6</v>
       </c>
       <c r="BC8" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="BD8" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="BE8">
-        <v>-0.008779264214046824</v>
+        <v>-8.7792642140468238E-3</v>
       </c>
       <c r="BF8">
         <v>32.26181697421238</v>
@@ -3262,28 +3278,28 @@
         <v>-8</v>
       </c>
       <c r="BI8" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="BJ8" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="BK8">
-        <v>0.02860748843079513</v>
+        <v>2.8607488430795129E-2</v>
       </c>
       <c r="BL8">
-        <v>32.16050252856965</v>
+        <v>32.160502528569651</v>
       </c>
       <c r="BM8">
         <v>-10</v>
       </c>
       <c r="BO8" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="BP8" t="s">
-        <v>278</v>
+        <v>154</v>
       </c>
       <c r="BQ8">
-        <v>-0.003787878787878788</v>
+        <v>-3.787878787878788E-3</v>
       </c>
       <c r="BR8">
         <v>32.15373688159702</v>
@@ -3292,16 +3308,16 @@
         <v>-12</v>
       </c>
       <c r="BU8" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="BV8" t="s">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="BW8">
-        <v>-0.02093802345058627</v>
+        <v>-2.093802345058627E-2</v>
       </c>
       <c r="BX8">
-        <v>32.23483092434218</v>
+        <v>32.234830924342177</v>
       </c>
       <c r="BY8">
         <v>-14</v>
@@ -3309,43 +3325,43 @@
     </row>
     <row r="9" spans="1:77">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="C9">
-        <v>-0.2540820390282756</v>
+        <v>-0.25408203902827559</v>
       </c>
       <c r="D9">
-        <v>33.05457607863031</v>
+        <v>33.054576078630312</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="I9">
-        <v>-0.2622759158222915</v>
+        <v>-0.26227591582229148</v>
       </c>
       <c r="J9">
-        <v>33.41462268067555</v>
+        <v>33.414622680675549</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="O9">
-        <v>-0.2934362934362935</v>
+        <v>-0.29343629343629352</v>
       </c>
       <c r="P9">
         <v>33.57052378846398</v>
@@ -3354,103 +3370,103 @@
         <v>6</v>
       </c>
       <c r="S9" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="T9" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="U9">
-        <v>-0.3163733741392502</v>
+        <v>-0.31637337413925021</v>
       </c>
       <c r="V9">
-        <v>33.72570423240609</v>
+        <v>33.725704232406088</v>
       </c>
       <c r="W9">
         <v>8</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="Z9" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="AA9">
-        <v>-0.3917284432305891</v>
+        <v>-0.39172844323058909</v>
       </c>
       <c r="AB9">
-        <v>33.39508386835446</v>
+        <v>33.395083868354462</v>
       </c>
       <c r="AC9">
         <v>10</v>
       </c>
       <c r="AE9" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AF9" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="AG9">
         <v>-0.311764705882353</v>
       </c>
       <c r="AH9">
-        <v>33.31028324504778</v>
+        <v>33.310283245047778</v>
       </c>
       <c r="AI9">
         <v>12</v>
       </c>
       <c r="AK9" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AL9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AM9">
-        <v>-0.3109803921568628</v>
+        <v>-0.31098039215686279</v>
       </c>
       <c r="AN9">
-        <v>33.31028324504778</v>
+        <v>33.310283245047778</v>
       </c>
       <c r="AO9">
         <v>14</v>
       </c>
       <c r="AQ9" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="AR9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="AS9">
         <v>-0.1096616388096209</v>
       </c>
       <c r="AT9">
-        <v>32.67059240764564</v>
+        <v>32.670592407645643</v>
       </c>
       <c r="AU9">
         <v>-4</v>
       </c>
       <c r="AW9" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="AX9" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="AY9">
-        <v>-0.06023102310231023</v>
+        <v>-6.0231023102310231E-2</v>
       </c>
       <c r="AZ9">
-        <v>32.47689813591793</v>
+        <v>32.476898135917928</v>
       </c>
       <c r="BA9">
         <v>-6</v>
       </c>
       <c r="BC9" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="BD9" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="BE9">
-        <v>-0.02129436325678497</v>
+        <v>-2.1294363256784968E-2</v>
       </c>
       <c r="BF9">
         <v>32.28204170734972</v>
@@ -3459,46 +3475,46 @@
         <v>-8</v>
       </c>
       <c r="BI9" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="BJ9" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="BK9">
-        <v>0.00927487352445194</v>
+        <v>9.2748735244519397E-3</v>
       </c>
       <c r="BL9">
-        <v>32.12666004573648</v>
+        <v>32.126660045736479</v>
       </c>
       <c r="BM9">
         <v>-10</v>
       </c>
       <c r="BO9" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="BP9" t="s">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="BQ9">
-        <v>-0.02568421052631579</v>
+        <v>-2.5684210526315789E-2</v>
       </c>
       <c r="BR9">
-        <v>32.14696981072725</v>
+        <v>32.146969810727249</v>
       </c>
       <c r="BS9">
         <v>-12</v>
       </c>
       <c r="BU9" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="BV9" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="BW9">
-        <v>-0.04600585529067336</v>
+        <v>-4.6005855290673359E-2</v>
       </c>
       <c r="BX9">
-        <v>32.25507257840874</v>
+        <v>32.255072578408743</v>
       </c>
       <c r="BY9">
         <v>-14</v>
@@ -3506,148 +3522,148 @@
     </row>
     <row r="10" spans="1:77">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="C10">
-        <v>-0.2283778397768035</v>
+        <v>-0.22837783977680351</v>
       </c>
       <c r="D10">
-        <v>33.0414095471067</v>
+        <v>33.041409547106703</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="I10">
         <v>-0.2299298519095869</v>
       </c>
       <c r="J10">
-        <v>33.41462268067555</v>
+        <v>33.414622680675549</v>
       </c>
       <c r="K10">
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="O10">
-        <v>-0.2538699690402477</v>
+        <v>-0.25386996904024772</v>
       </c>
       <c r="P10">
-        <v>33.53161646561121</v>
+        <v>33.531616465611208</v>
       </c>
       <c r="Q10">
         <v>6</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="T10" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="U10">
-        <v>-0.2676110260336906</v>
+        <v>-0.26761102603369058</v>
       </c>
       <c r="V10">
-        <v>33.71279981095324</v>
+        <v>33.712799810953243</v>
       </c>
       <c r="W10">
         <v>8</v>
       </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="Z10" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="AA10">
-        <v>-0.3869582194455291</v>
+        <v>-0.38695821944552911</v>
       </c>
       <c r="AB10">
-        <v>33.38205164000713</v>
+        <v>33.382051640007127</v>
       </c>
       <c r="AC10">
         <v>10</v>
       </c>
       <c r="AE10" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AF10" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="AG10">
-        <v>-0.3121568627450981</v>
+        <v>-0.31215686274509807</v>
       </c>
       <c r="AH10">
-        <v>33.31028324504778</v>
+        <v>33.310283245047778</v>
       </c>
       <c r="AI10">
         <v>12</v>
       </c>
       <c r="AK10" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="AM10">
-        <v>-0.3164904034469252</v>
+        <v>-0.31649040344692519</v>
       </c>
       <c r="AN10">
-        <v>33.32987176967232</v>
+        <v>33.329871769672323</v>
       </c>
       <c r="AO10">
         <v>14</v>
       </c>
       <c r="AQ10" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="AR10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AS10">
         <v>-0.1035889070146819</v>
       </c>
       <c r="AT10">
-        <v>32.66393241523975</v>
+        <v>32.663932415239749</v>
       </c>
       <c r="AU10">
         <v>-4</v>
       </c>
       <c r="AW10" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="AX10" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="AY10">
-        <v>-0.06035551880942538</v>
+        <v>-6.0355518809425378E-2</v>
       </c>
       <c r="AZ10">
-        <v>32.44338569469863</v>
+        <v>32.443385694698627</v>
       </c>
       <c r="BA10">
         <v>-6</v>
       </c>
       <c r="BC10" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="BD10" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="BE10">
-        <v>-0.02755741127348643</v>
+        <v>-2.7557411273486428E-2</v>
       </c>
       <c r="BF10">
         <v>32.28204170734972</v>
@@ -3656,43 +3672,43 @@
         <v>-8</v>
       </c>
       <c r="BI10" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="BJ10" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="BK10">
-        <v>-0.001264222503160556</v>
+        <v>-1.2642225031605559E-3</v>
       </c>
       <c r="BL10">
-        <v>32.1334313936978</v>
+        <v>32.133431393697798</v>
       </c>
       <c r="BM10">
         <v>-10</v>
       </c>
       <c r="BO10" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="BP10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="BQ10">
-        <v>-0.03868797308662741</v>
+        <v>-3.8687973086627407E-2</v>
       </c>
       <c r="BR10">
-        <v>32.16726675254362</v>
+        <v>32.167266752543618</v>
       </c>
       <c r="BS10">
         <v>-12</v>
       </c>
       <c r="BU10" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="BV10" t="s">
-        <v>297</v>
+        <v>190</v>
       </c>
       <c r="BW10">
-        <v>-0.06142916840785625</v>
+        <v>-6.1429168407856248E-2</v>
       </c>
       <c r="BX10">
         <v>32.26855996038158</v>
@@ -3703,148 +3719,148 @@
     </row>
     <row r="11" spans="1:77">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C11">
         <v>-0.2033492822966507</v>
       </c>
       <c r="D11">
-        <v>33.03482431344945</v>
+        <v>33.034824313449448</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="I11">
-        <v>-0.1956352299298519</v>
+        <v>-0.19563522992985191</v>
       </c>
       <c r="J11">
-        <v>33.41462268067555</v>
+        <v>33.414622680675549</v>
       </c>
       <c r="K11">
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="O11">
-        <v>-0.2128482972136223</v>
+        <v>-0.21284829721362231</v>
       </c>
       <c r="P11">
-        <v>33.53161646561121</v>
+        <v>33.531616465611208</v>
       </c>
       <c r="Q11">
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="T11" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="U11">
-        <v>-0.2219662058371736</v>
+        <v>-0.22196620583717361</v>
       </c>
       <c r="V11">
-        <v>33.66113265444444</v>
+        <v>33.661132654444437</v>
       </c>
       <c r="W11">
         <v>8</v>
       </c>
       <c r="Y11" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="Z11" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="AA11">
-        <v>-0.3734375</v>
+        <v>-0.37343749999999998</v>
       </c>
       <c r="AB11">
-        <v>33.37553361756093</v>
+        <v>33.375533617560933</v>
       </c>
       <c r="AC11">
         <v>10</v>
       </c>
       <c r="AE11" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="AG11">
-        <v>-0.3079327862446268</v>
+        <v>-0.30793278624462678</v>
       </c>
       <c r="AH11">
-        <v>33.3690143219391</v>
+        <v>33.369014321939098</v>
       </c>
       <c r="AI11">
         <v>12</v>
       </c>
       <c r="AK11" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AL11" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AM11">
-        <v>-0.3141176470588236</v>
+        <v>-0.31411764705882361</v>
       </c>
       <c r="AN11">
-        <v>33.31028324504778</v>
+        <v>33.310283245047778</v>
       </c>
       <c r="AO11">
         <v>14</v>
       </c>
       <c r="AQ11" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="AR11" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AS11">
-        <v>-0.09302325581395349</v>
+        <v>-9.3023255813953487E-2</v>
       </c>
       <c r="AT11">
-        <v>32.65727106462185</v>
+        <v>32.657271064621852</v>
       </c>
       <c r="AU11">
         <v>-4</v>
       </c>
       <c r="AW11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX11" t="s">
         <v>201</v>
       </c>
-      <c r="AX11" t="s">
-        <v>215</v>
-      </c>
       <c r="AY11">
-        <v>-0.0554177005789909</v>
+        <v>-5.5417700578990897E-2</v>
       </c>
       <c r="AZ11">
-        <v>32.43667905158931</v>
+        <v>32.436679051589309</v>
       </c>
       <c r="BA11">
         <v>-6</v>
       </c>
       <c r="BC11" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="BD11" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="BE11">
-        <v>-0.02799832845800251</v>
+        <v>-2.799832845800251E-2</v>
       </c>
       <c r="BF11">
         <v>32.26855996038158</v>
@@ -3853,13 +3869,13 @@
         <v>-8</v>
       </c>
       <c r="BI11" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="BJ11" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="BK11">
-        <v>-0.005892255892255892</v>
+        <v>-5.8922558922558923E-3</v>
       </c>
       <c r="BL11">
         <v>32.15373688159702</v>
@@ -3868,31 +3884,31 @@
         <v>-10</v>
       </c>
       <c r="BO11" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="BP11" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="BQ11">
-        <v>-0.04789915966386555</v>
+        <v>-4.789915966386555E-2</v>
       </c>
       <c r="BR11">
-        <v>32.18079093508461</v>
+        <v>32.180790935084609</v>
       </c>
       <c r="BS11">
         <v>-12</v>
       </c>
       <c r="BU11" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="BV11" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="BW11">
-        <v>-0.07393483709273183</v>
+        <v>-7.3934837092731825E-2</v>
       </c>
       <c r="BX11">
-        <v>32.27530153779983</v>
+        <v>32.275301537799827</v>
       </c>
       <c r="BY11">
         <v>-14</v>
@@ -3900,103 +3916,103 @@
     </row>
     <row r="12" spans="1:77">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="C12">
         <v>-0.1798245614035088</v>
       </c>
       <c r="D12">
-        <v>33.03482431344945</v>
+        <v>33.034824313449448</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="I12">
-        <v>-0.1645865834633385</v>
+        <v>-0.16458658346333849</v>
       </c>
       <c r="J12">
-        <v>33.40159807574469</v>
+        <v>33.401598075744687</v>
       </c>
       <c r="K12">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="O12">
         <v>-0.1765842349304482</v>
       </c>
       <c r="P12">
-        <v>33.5575596930632</v>
+        <v>33.557559693063197</v>
       </c>
       <c r="Q12">
         <v>6</v>
       </c>
       <c r="S12" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="T12" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="U12">
-        <v>-0.1793790724415485</v>
+        <v>-0.17937907244154849</v>
       </c>
       <c r="V12">
-        <v>33.69343391190515</v>
+        <v>33.693433911905153</v>
       </c>
       <c r="W12">
         <v>8</v>
       </c>
       <c r="Y12" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="AA12">
-        <v>-0.3982852689010133</v>
+        <v>-0.39828526890101329</v>
       </c>
       <c r="AB12">
-        <v>33.41462268067555</v>
+        <v>33.414622680675549</v>
       </c>
       <c r="AC12">
         <v>10</v>
       </c>
       <c r="AE12" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AG12">
-        <v>-0.3100744805958447</v>
+        <v>-0.31007448059584469</v>
       </c>
       <c r="AH12">
-        <v>33.31681403292448</v>
+        <v>33.316814032924484</v>
       </c>
       <c r="AI12">
         <v>12</v>
       </c>
       <c r="AK12" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="AL12" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="AM12">
-        <v>-0.3170254403131115</v>
+        <v>-0.31702544031311147</v>
       </c>
       <c r="AN12">
         <v>33.34292439275724</v>
@@ -4005,43 +4021,43 @@
         <v>14</v>
       </c>
       <c r="AQ12" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="AR12" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="AS12">
-        <v>-0.08275580921320833</v>
+        <v>-8.2755809213208326E-2</v>
       </c>
       <c r="AT12">
-        <v>32.67059240764564</v>
+        <v>32.670592407645643</v>
       </c>
       <c r="AU12">
         <v>-4</v>
       </c>
       <c r="AW12" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AX12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AY12">
-        <v>-0.05093167701863354</v>
+        <v>-5.0931677018633541E-2</v>
       </c>
       <c r="AZ12">
-        <v>32.41655079705927</v>
+        <v>32.416550797059273</v>
       </c>
       <c r="BA12">
         <v>-6</v>
       </c>
       <c r="BC12" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="BD12" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="BE12">
-        <v>-0.02922755741127349</v>
+        <v>-2.9227557411273489E-2</v>
       </c>
       <c r="BF12">
         <v>32.28204170734972</v>
@@ -4050,43 +4066,43 @@
         <v>-8</v>
       </c>
       <c r="BI12" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="BJ12" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="BK12">
-        <v>-0.01136842105263158</v>
+        <v>-1.136842105263158E-2</v>
       </c>
       <c r="BL12">
-        <v>32.14696981072725</v>
+        <v>32.146969810727249</v>
       </c>
       <c r="BM12">
         <v>-10</v>
       </c>
       <c r="BO12" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="BP12" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="BQ12">
-        <v>-0.05417891642167157</v>
+        <v>-5.4178916421671573E-2</v>
       </c>
       <c r="BR12">
-        <v>32.18755089544383</v>
+        <v>32.187550895443827</v>
       </c>
       <c r="BS12">
         <v>-12</v>
       </c>
       <c r="BU12" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="BV12" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="BW12">
-        <v>-0.08643006263048016</v>
+        <v>-8.6430062630480156E-2</v>
       </c>
       <c r="BX12">
         <v>32.28204170734972</v>
@@ -4097,55 +4113,55 @@
     </row>
     <row r="13" spans="1:77">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="C13">
         <v>-0.1601437699680511</v>
       </c>
       <c r="D13">
-        <v>33.00847024119444</v>
+        <v>33.008470241194438</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="I13">
-        <v>-0.1372319688109162</v>
+        <v>-0.13723196881091621</v>
       </c>
       <c r="J13">
-        <v>33.40811101293747</v>
+        <v>33.408111012937468</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="O13">
-        <v>-0.1445689988403556</v>
+        <v>-0.14456899884035559</v>
       </c>
       <c r="P13">
-        <v>33.55107576687128</v>
+        <v>33.551075766871278</v>
       </c>
       <c r="Q13">
         <v>6</v>
       </c>
       <c r="S13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="U13">
         <v>-0.1430763329497507</v>
@@ -4157,136 +4173,136 @@
         <v>8</v>
       </c>
       <c r="Y13" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="Z13" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="AA13">
-        <v>-0.375831052014079</v>
+        <v>-0.37583105201407901</v>
       </c>
       <c r="AB13">
-        <v>33.35597190818236</v>
+        <v>33.355971908182362</v>
       </c>
       <c r="AC13">
         <v>10</v>
       </c>
       <c r="AE13" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="AG13">
-        <v>-0.315562524500196</v>
+        <v>-0.31556252450019601</v>
       </c>
       <c r="AH13">
-        <v>33.31681403292448</v>
+        <v>33.316814032924484</v>
       </c>
       <c r="AI13">
         <v>12</v>
       </c>
       <c r="AK13" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="AM13">
         <v>-0.3192156862745098</v>
       </c>
       <c r="AN13">
-        <v>33.31028324504778</v>
+        <v>33.310283245047778</v>
       </c>
       <c r="AO13">
         <v>14</v>
       </c>
       <c r="AQ13" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="AR13" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AS13">
-        <v>-0.0727938186254575</v>
+        <v>-7.2793818625457501E-2</v>
       </c>
       <c r="AT13">
-        <v>32.71052388607511</v>
+        <v>32.710523886075109</v>
       </c>
       <c r="AU13">
         <v>-4</v>
       </c>
       <c r="AW13" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="AX13" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="AY13">
-        <v>-0.04545454545454546</v>
+        <v>-4.5454545454545463E-2</v>
       </c>
       <c r="AZ13">
-        <v>32.45009095170826</v>
+        <v>32.450090951708262</v>
       </c>
       <c r="BA13">
         <v>-6</v>
       </c>
       <c r="BC13" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="BD13" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="BE13">
-        <v>-0.02879799666110184</v>
+        <v>-2.8797996661101839E-2</v>
       </c>
       <c r="BF13">
-        <v>32.28878046991291</v>
+        <v>32.288780469912908</v>
       </c>
       <c r="BG13">
         <v>-8</v>
       </c>
       <c r="BI13" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="BJ13" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="BK13">
-        <v>-0.01555929352396972</v>
+        <v>-1.555929352396972E-2</v>
       </c>
       <c r="BL13">
-        <v>32.16726675254362</v>
+        <v>32.167266752543618</v>
       </c>
       <c r="BM13">
         <v>-10</v>
       </c>
       <c r="BO13" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="BP13" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="BQ13">
-        <v>-0.06504406210658834</v>
+        <v>-6.5044062106588335E-2</v>
       </c>
       <c r="BR13">
-        <v>32.20106655881312</v>
+        <v>32.201066558813118</v>
       </c>
       <c r="BS13">
         <v>-12</v>
       </c>
       <c r="BU13" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="BV13" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="BW13">
         <v>-0.1000834028356964</v>
       </c>
       <c r="BX13">
-        <v>32.30225377760127</v>
+        <v>32.302253777601273</v>
       </c>
       <c r="BY13">
         <v>-14</v>
@@ -4294,10 +4310,10 @@
     </row>
     <row r="14" spans="1:77">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="C14">
         <v>-0.1270916334661355</v>
@@ -4309,43 +4325,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="I14">
-        <v>-0.1110678098207327</v>
+        <v>-0.11106780982073269</v>
       </c>
       <c r="J14">
-        <v>33.41462268067555</v>
+        <v>33.414622680675549</v>
       </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="O14">
         <v>-0.1139436075704905</v>
       </c>
       <c r="P14">
-        <v>33.56404236668556</v>
+        <v>33.564042366685563</v>
       </c>
       <c r="Q14">
         <v>6</v>
       </c>
       <c r="S14" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="T14" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="U14">
-        <v>-0.1083365347675758</v>
+        <v>-0.10833653476757581</v>
       </c>
       <c r="V14">
         <v>33.65466868267972</v>
@@ -4354,136 +4370,136 @@
         <v>8</v>
       </c>
       <c r="Y14" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="Z14" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="AA14">
-        <v>-0.3840438013296832</v>
+        <v>-0.38404380132968319</v>
       </c>
       <c r="AB14">
-        <v>33.35597190818236</v>
+        <v>33.355971908182362</v>
       </c>
       <c r="AC14">
         <v>10</v>
       </c>
       <c r="AE14" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="AF14" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="AG14">
-        <v>-0.3166536356528538</v>
+        <v>-0.31665363565285382</v>
       </c>
       <c r="AH14">
-        <v>33.36249375239528</v>
+        <v>33.362493752395281</v>
       </c>
       <c r="AI14">
         <v>12</v>
       </c>
       <c r="AK14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AL14" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="AM14">
-        <v>-0.3253532182103611</v>
+        <v>-0.32535321821036112</v>
       </c>
       <c r="AN14">
-        <v>33.29721782652397</v>
+        <v>33.297217826523969</v>
       </c>
       <c r="AO14">
         <v>14</v>
       </c>
       <c r="AQ14" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="AR14" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="AS14">
-        <v>-0.06232179226069246</v>
+        <v>-6.2321792260692462E-2</v>
       </c>
       <c r="AT14">
-        <v>32.68390832114236</v>
+        <v>32.683908321142361</v>
       </c>
       <c r="AU14">
         <v>-4</v>
       </c>
       <c r="AW14" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="AX14" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="AY14">
-        <v>-0.03893951946975973</v>
+        <v>-3.893951946975973E-2</v>
       </c>
       <c r="AZ14">
-        <v>32.40983860094279</v>
+        <v>32.409838600942791</v>
       </c>
       <c r="BA14">
         <v>-6</v>
       </c>
       <c r="BC14" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="BD14" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="BE14">
-        <v>-0.02678945165341147</v>
+        <v>-2.678945165341147E-2</v>
       </c>
       <c r="BF14">
-        <v>32.24157955435945</v>
+        <v>32.241579554359447</v>
       </c>
       <c r="BG14">
         <v>-8</v>
       </c>
       <c r="BI14" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ14" t="s">
         <v>250</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>267</v>
-      </c>
       <c r="BK14">
-        <v>-0.01681378730559058</v>
+        <v>-1.6813787305590581E-2</v>
       </c>
       <c r="BL14">
-        <v>32.17402955441641</v>
+        <v>32.174029554416407</v>
       </c>
       <c r="BM14">
         <v>-10</v>
       </c>
       <c r="BO14" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="BP14" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="BQ14">
-        <v>-0.07514693534844667</v>
+        <v>-7.5146935348446672E-2</v>
       </c>
       <c r="BR14">
-        <v>32.19430943638874</v>
+        <v>32.194309436388743</v>
       </c>
       <c r="BS14">
         <v>-12</v>
       </c>
       <c r="BU14" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="BV14" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="BW14">
         <v>-0.1116687578419072</v>
       </c>
       <c r="BX14">
-        <v>32.25507257840874</v>
+        <v>32.255072578408743</v>
       </c>
       <c r="BY14">
         <v>-14</v>
@@ -4491,13 +4507,13 @@
     </row>
     <row r="15" spans="1:77">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="C15">
-        <v>-0.0808764940239044</v>
+        <v>-8.0876494023904399E-2</v>
       </c>
       <c r="D15">
         <v>33.04799346857228</v>
@@ -4506,163 +4522,163 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="I15">
-        <v>-0.08352849336455895</v>
+        <v>-8.3528493364558948E-2</v>
       </c>
       <c r="J15">
-        <v>33.38856839002334</v>
+        <v>33.388568390023337</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="O15">
-        <v>-0.08233475067645921</v>
+        <v>-8.2334750676459206E-2</v>
       </c>
       <c r="P15">
-        <v>33.55107576687128</v>
+        <v>33.551075766871278</v>
       </c>
       <c r="Q15">
         <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="T15" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="U15">
-        <v>-0.07485604606525913</v>
+        <v>-7.4856046065259127E-2</v>
       </c>
       <c r="V15">
-        <v>33.66759538516627</v>
+        <v>33.667595385166273</v>
       </c>
       <c r="W15">
         <v>8</v>
       </c>
       <c r="Y15" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="Z15" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="AA15">
-        <v>-0.3617933723196881</v>
+        <v>-0.36179337231968811</v>
       </c>
       <c r="AB15">
-        <v>33.40811101293747</v>
+        <v>33.408111012937468</v>
       </c>
       <c r="AC15">
         <v>10</v>
       </c>
       <c r="AE15" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="AF15" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="AG15">
-        <v>-0.3202819107282694</v>
+        <v>-0.32028191072826939</v>
       </c>
       <c r="AH15">
-        <v>33.33639872004716</v>
+        <v>33.336398720047157</v>
       </c>
       <c r="AI15">
         <v>12</v>
       </c>
       <c r="AK15" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="AL15" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="AM15">
-        <v>-0.3277146217169737</v>
+        <v>-0.32771462171697369</v>
       </c>
       <c r="AN15">
-        <v>33.31681403292448</v>
+        <v>33.316814032924484</v>
       </c>
       <c r="AO15">
         <v>14</v>
       </c>
       <c r="AQ15" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="AR15" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="AS15">
-        <v>-0.04973501834488381</v>
+        <v>-4.9735018344883808E-2</v>
       </c>
       <c r="AT15">
-        <v>32.67059240764564</v>
+        <v>32.670592407645643</v>
       </c>
       <c r="AU15">
         <v>-4</v>
       </c>
       <c r="AW15" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AX15" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="AY15">
-        <v>-0.02981366459627329</v>
+        <v>-2.9813664596273291E-2</v>
       </c>
       <c r="AZ15">
-        <v>32.41655079705927</v>
+        <v>32.416550797059273</v>
       </c>
       <c r="BA15">
         <v>-6</v>
       </c>
       <c r="BC15" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="BD15" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="BE15">
-        <v>-0.02297410192147034</v>
+        <v>-2.2974101921470341E-2</v>
       </c>
       <c r="BF15">
-        <v>32.27530153779983</v>
+        <v>32.275301537799827</v>
       </c>
       <c r="BG15">
         <v>-8</v>
       </c>
       <c r="BI15" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="BJ15" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="BK15">
-        <v>-0.01682793437105596</v>
+        <v>-1.682793437105596E-2</v>
       </c>
       <c r="BL15">
-        <v>32.16050252856965</v>
+        <v>32.160502528569651</v>
       </c>
       <c r="BM15">
         <v>-10</v>
       </c>
       <c r="BO15" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="BP15" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="BQ15">
-        <v>-0.07491582491582492</v>
+        <v>-7.4915824915824922E-2</v>
       </c>
       <c r="BR15">
         <v>32.15373688159702</v>
@@ -4671,10 +4687,10 @@
         <v>-12</v>
       </c>
       <c r="BU15" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="BV15" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="BW15">
         <v>-0.1237458193979933</v>
@@ -4688,196 +4704,196 @@
     </row>
     <row r="16" spans="1:77">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="C16">
-        <v>-0.0502192108409725</v>
+        <v>-5.02192108409725E-2</v>
       </c>
       <c r="D16">
-        <v>33.0414095471067</v>
+        <v>33.041409547106703</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="I16">
-        <v>-0.0578125</v>
+        <v>-5.7812500000000003E-2</v>
       </c>
       <c r="J16">
-        <v>33.37553361756093</v>
+        <v>33.375533617560933</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N16" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="O16">
-        <v>-0.05255023183925812</v>
+        <v>-5.2550231839258117E-2</v>
       </c>
       <c r="P16">
-        <v>33.5575596930632</v>
+        <v>33.557559693063197</v>
       </c>
       <c r="Q16">
         <v>6</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="T16" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="U16">
-        <v>-0.0444104134762634</v>
+        <v>-4.44104134762634E-2</v>
       </c>
       <c r="V16">
-        <v>33.71279981095324</v>
+        <v>33.712799810953243</v>
       </c>
       <c r="W16">
         <v>8</v>
       </c>
       <c r="Y16" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="Z16" t="s">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="AA16">
-        <v>-0.3608287724784989</v>
+        <v>-0.36082877247849893</v>
       </c>
       <c r="AB16">
-        <v>33.36249375239528</v>
+        <v>33.362493752395281</v>
       </c>
       <c r="AC16">
         <v>10</v>
       </c>
       <c r="AE16" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="AG16">
-        <v>-0.3213166144200627</v>
+        <v>-0.32131661442006271</v>
       </c>
       <c r="AH16">
-        <v>33.32334354088192</v>
+        <v>33.323343540881922</v>
       </c>
       <c r="AI16">
         <v>12</v>
       </c>
       <c r="AK16" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="AM16">
-        <v>-0.3299373040752351</v>
+        <v>-0.32993730407523508</v>
       </c>
       <c r="AN16">
-        <v>33.32334354088192</v>
+        <v>33.323343540881922</v>
       </c>
       <c r="AO16">
         <v>14</v>
       </c>
       <c r="AQ16" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AS16">
-        <v>-0.03753569971440229</v>
+        <v>-3.7535699714402293E-2</v>
       </c>
       <c r="AT16">
-        <v>32.65727106462185</v>
+        <v>32.657271064621852</v>
       </c>
       <c r="AU16">
         <v>-4</v>
       </c>
       <c r="AW16" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="AX16" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="AY16">
-        <v>-0.02026468155500414</v>
+        <v>-2.026468155500414E-2</v>
       </c>
       <c r="AZ16">
-        <v>32.43667905158931</v>
+        <v>32.436679051589309</v>
       </c>
       <c r="BA16">
         <v>-6</v>
       </c>
       <c r="BC16" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="BD16" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="BE16">
-        <v>-0.01879699248120301</v>
+        <v>-1.879699248120301E-2</v>
       </c>
       <c r="BF16">
-        <v>32.27530153779983</v>
+        <v>32.275301537799827</v>
       </c>
       <c r="BG16">
         <v>-8</v>
       </c>
       <c r="BI16" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="BJ16" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="BK16">
-        <v>-0.01687051876845213</v>
+        <v>-1.6870518768452129E-2</v>
       </c>
       <c r="BL16">
-        <v>32.11988727027475</v>
+        <v>32.119887270274752</v>
       </c>
       <c r="BM16">
         <v>-10</v>
       </c>
       <c r="BO16" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="BP16" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="BQ16">
-        <v>-0.08322824716267339</v>
+        <v>-8.3228247162673394E-2</v>
       </c>
       <c r="BR16">
-        <v>32.17402955441641</v>
+        <v>32.174029554416407</v>
       </c>
       <c r="BS16">
         <v>-12</v>
       </c>
       <c r="BU16" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="BV16" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="BW16">
         <v>-0.1376569037656904</v>
       </c>
       <c r="BX16">
-        <v>32.24832677208622</v>
+        <v>32.248326772086223</v>
       </c>
       <c r="BY16">
         <v>-14</v>
@@ -4885,58 +4901,58 @@
     </row>
     <row r="17" spans="1:77">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="C17">
-        <v>-0.02597921662669864</v>
+        <v>-2.597921662669864E-2</v>
       </c>
       <c r="D17">
-        <v>32.99528531147281</v>
+        <v>32.995285311472813</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
       <c r="I17">
-        <v>-0.03347606072401713</v>
+        <v>-3.3476060724017133E-2</v>
       </c>
       <c r="J17">
-        <v>33.43415007457802</v>
+        <v>33.434150074578021</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="O17">
-        <v>-0.02591876208897486</v>
+        <v>-2.591876208897486E-2</v>
       </c>
       <c r="P17">
-        <v>33.53810415387267</v>
+        <v>33.538104153872673</v>
       </c>
       <c r="Q17">
         <v>6</v>
       </c>
       <c r="S17" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="T17" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c r="U17">
-        <v>-0.01805608912792931</v>
+        <v>-1.805608912792931E-2</v>
       </c>
       <c r="V17">
         <v>33.65466868267972</v>
@@ -4945,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="Y17" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="Z17" t="s">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="AA17">
         <v>-0.3358005453837164</v>
@@ -4960,13 +4976,13 @@
         <v>10</v>
       </c>
       <c r="AE17" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="AF17" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
       <c r="AG17">
-        <v>-0.3283757338551859</v>
+        <v>-0.32837573385518593</v>
       </c>
       <c r="AH17">
         <v>33.34292439275724</v>
@@ -4975,88 +4991,88 @@
         <v>12</v>
       </c>
       <c r="AK17" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="AM17">
-        <v>-0.3403838621229925</v>
+        <v>-0.34038386212299249</v>
       </c>
       <c r="AN17">
-        <v>33.32987176967232</v>
+        <v>33.329871769672323</v>
       </c>
       <c r="AO17">
         <v>14</v>
       </c>
       <c r="AQ17" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="AR17" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="AS17">
-        <v>-0.02569331158238173</v>
+        <v>-2.569331158238173E-2</v>
       </c>
       <c r="AT17">
-        <v>32.66393241523975</v>
+        <v>32.663932415239749</v>
       </c>
       <c r="AU17">
         <v>-4</v>
       </c>
       <c r="AW17" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="AX17" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="AY17">
-        <v>-0.008692052980132451</v>
+        <v>-8.6920529801324514E-3</v>
       </c>
       <c r="AZ17">
-        <v>32.42326160363091</v>
+        <v>32.423261603630912</v>
       </c>
       <c r="BA17">
         <v>-6</v>
       </c>
       <c r="BC17" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="BD17" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="BE17">
-        <v>-0.01293823038397329</v>
+        <v>-1.2938230383973289E-2</v>
       </c>
       <c r="BF17">
-        <v>32.28878046991291</v>
+        <v>32.288780469912908</v>
       </c>
       <c r="BG17">
         <v>-8</v>
       </c>
       <c r="BI17" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="BJ17" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="BK17">
-        <v>-0.0151578947368421</v>
+        <v>-1.5157894736842099E-2</v>
       </c>
       <c r="BL17">
-        <v>32.14696981072725</v>
+        <v>32.146969810727249</v>
       </c>
       <c r="BM17">
         <v>-10</v>
       </c>
       <c r="BO17" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="BP17" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="BQ17">
-        <v>-0.08964646464646465</v>
+        <v>-8.9646464646464655E-2</v>
       </c>
       <c r="BR17">
         <v>32.15373688159702</v>
@@ -5065,10 +5081,10 @@
         <v>-12</v>
       </c>
       <c r="BU17" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="BV17" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="BW17">
         <v>-0.1500208942749687</v>
@@ -5082,28 +5098,28 @@
     </row>
     <row r="18" spans="1:77">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="C18">
-        <v>0.002787733970529669</v>
+        <v>2.7877339705296689E-3</v>
       </c>
       <c r="D18">
-        <v>33.05457607863031</v>
+        <v>33.054576078630312</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="I18">
-        <v>-0.004674717569146863</v>
+        <v>-4.6747175691468634E-3</v>
       </c>
       <c r="J18">
         <v>33.42113307970093</v>
@@ -5112,118 +5128,118 @@
         <v>4</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="O18">
-        <v>0.005802707930367505</v>
+        <v>5.8027079303675051E-3</v>
       </c>
       <c r="P18">
-        <v>33.53810415387267</v>
+        <v>33.538104153872673</v>
       </c>
       <c r="Q18">
         <v>6</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="T18" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="U18">
-        <v>0.008422664624808575</v>
+        <v>8.4226646248085745E-3</v>
       </c>
       <c r="V18">
-        <v>33.71279981095324</v>
+        <v>33.712799810953243</v>
       </c>
       <c r="W18">
         <v>8</v>
       </c>
       <c r="Y18" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="s">
-        <v>132</v>
+        <v>292</v>
       </c>
       <c r="AA18">
-        <v>-0.3430913348946136</v>
+        <v>-0.34309133489461358</v>
       </c>
       <c r="AB18">
-        <v>33.38856839002334</v>
+        <v>33.388568390023337</v>
       </c>
       <c r="AC18">
         <v>10</v>
       </c>
       <c r="AE18" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="AG18">
-        <v>-0.3286274509803921</v>
+        <v>-0.32862745098039209</v>
       </c>
       <c r="AH18">
-        <v>33.31028324504778</v>
+        <v>33.310283245047778</v>
       </c>
       <c r="AI18">
         <v>12</v>
       </c>
       <c r="AK18" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="AM18">
-        <v>-0.3372549019607843</v>
+        <v>-0.33725490196078428</v>
       </c>
       <c r="AN18">
-        <v>33.31028324504778</v>
+        <v>33.310283245047778</v>
       </c>
       <c r="AO18">
         <v>14</v>
       </c>
       <c r="AQ18" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="AS18">
-        <v>-0.01346389228886169</v>
+        <v>-1.346389228886169E-2</v>
       </c>
       <c r="AT18">
-        <v>32.65727106462185</v>
+        <v>32.657271064621852</v>
       </c>
       <c r="AU18">
         <v>-4</v>
       </c>
       <c r="AW18" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="AX18" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="AY18">
-        <v>0.005789909015715467</v>
+        <v>5.7899090157154673E-3</v>
       </c>
       <c r="AZ18">
-        <v>32.43667905158931</v>
+        <v>32.436679051589309</v>
       </c>
       <c r="BA18">
         <v>-6</v>
       </c>
       <c r="BC18" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="BE18">
-        <v>-0.004178854993731718</v>
+        <v>-4.1788549937317176E-3</v>
       </c>
       <c r="BF18">
         <v>32.26855996038158</v>
@@ -5232,13 +5248,13 @@
         <v>-8</v>
       </c>
       <c r="BI18" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="BJ18" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="BK18">
-        <v>-0.01052188552188552</v>
+        <v>-1.0521885521885521E-2</v>
       </c>
       <c r="BL18">
         <v>32.15373688159702</v>
@@ -5247,31 +5263,31 @@
         <v>-10</v>
       </c>
       <c r="BO18" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="BP18" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="BQ18">
-        <v>-0.09541824295922657</v>
+        <v>-9.5418242959226574E-2</v>
       </c>
       <c r="BR18">
-        <v>32.17402955441641</v>
+        <v>32.174029554416407</v>
       </c>
       <c r="BS18">
         <v>-12</v>
       </c>
       <c r="BU18" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="BV18" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="BW18">
         <v>-0.1635299038059389</v>
       </c>
       <c r="BX18">
-        <v>32.25507257840874</v>
+        <v>32.255072578408743</v>
       </c>
       <c r="BY18">
         <v>-14</v>
@@ -5279,43 +5295,43 @@
     </row>
     <row r="19" spans="1:77">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>301</v>
       </c>
       <c r="C19">
-        <v>0.03947368421052632</v>
+        <v>3.9473684210526321E-2</v>
       </c>
       <c r="D19">
-        <v>33.03482431344945</v>
+        <v>33.034824313449448</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>302</v>
       </c>
       <c r="I19">
-        <v>0.02572096648480125</v>
+        <v>2.5720966484801249E-2</v>
       </c>
       <c r="J19">
-        <v>33.41462268067555</v>
+        <v>33.414622680675549</v>
       </c>
       <c r="K19">
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="O19">
-        <v>0.03629343629343629</v>
+        <v>3.6293436293436288E-2</v>
       </c>
       <c r="P19">
         <v>33.57052378846398</v>
@@ -5324,103 +5340,103 @@
         <v>6</v>
       </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="T19" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="U19">
-        <v>0.03062787136294028</v>
+        <v>3.0627871362940279E-2</v>
       </c>
       <c r="V19">
-        <v>33.71279981095324</v>
+        <v>33.712799810953243</v>
       </c>
       <c r="W19">
         <v>8</v>
       </c>
       <c r="Y19" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="Z19" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AA19">
-        <v>-0.3193901485535575</v>
+        <v>-0.31939014855355752</v>
       </c>
       <c r="AB19">
-        <v>33.36249375239528</v>
+        <v>33.362493752395281</v>
       </c>
       <c r="AC19">
         <v>10</v>
       </c>
       <c r="AE19" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="AG19">
-        <v>-0.3286274509803921</v>
+        <v>-0.32862745098039209</v>
       </c>
       <c r="AH19">
-        <v>33.31028324504778</v>
+        <v>33.310283245047778</v>
       </c>
       <c r="AI19">
         <v>12</v>
       </c>
       <c r="AK19" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AM19">
-        <v>-0.3397335423197492</v>
+        <v>-0.33973354231974923</v>
       </c>
       <c r="AN19">
-        <v>33.32334354088192</v>
+        <v>33.323343540881922</v>
       </c>
       <c r="AO19">
         <v>14</v>
       </c>
       <c r="AQ19" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="AR19" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AS19">
-        <v>-0.005711954304365565</v>
+        <v>-5.7119543043655649E-3</v>
       </c>
       <c r="AT19">
-        <v>32.65727106462185</v>
+        <v>32.657271064621852</v>
       </c>
       <c r="AU19">
         <v>-4</v>
       </c>
       <c r="AW19" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="AX19" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="AY19">
-        <v>0.01775392237819983</v>
+        <v>1.7753922378199831E-2</v>
       </c>
       <c r="AZ19">
-        <v>32.46349731086384</v>
+        <v>32.463497310863843</v>
       </c>
       <c r="BA19">
         <v>-6</v>
       </c>
       <c r="BC19" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="BD19" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="BE19">
-        <v>0.008361204013377928</v>
+        <v>8.3612040133779278E-3</v>
       </c>
       <c r="BF19">
         <v>32.26181697421238</v>
@@ -5429,43 +5445,43 @@
         <v>-8</v>
       </c>
       <c r="BI19" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="BJ19" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="BK19">
-        <v>-0.001261564339781329</v>
+        <v>-1.2615643397813289E-3</v>
       </c>
       <c r="BL19">
-        <v>32.16726675254362</v>
+        <v>32.167266752543618</v>
       </c>
       <c r="BM19">
         <v>-10</v>
       </c>
       <c r="BO19" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="BP19" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="BQ19">
-        <v>-0.09966358284272497</v>
+        <v>-9.9663582842724974E-2</v>
       </c>
       <c r="BR19">
-        <v>32.16726675254362</v>
+        <v>32.167266752543618</v>
       </c>
       <c r="BS19">
         <v>-12</v>
       </c>
       <c r="BU19" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="BV19" t="s">
         <v>306</v>
       </c>
       <c r="BW19">
-        <v>-0.1747491638795987</v>
+        <v>-0.17474916387959871</v>
       </c>
       <c r="BX19">
         <v>32.26181697421238</v>
@@ -5480,7 +5496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5596,106 +5612,106 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C2">
-        <v>0.6921875</v>
+        <v>0.69218749999999996</v>
       </c>
       <c r="D2">
-        <v>33.37553361756093</v>
+        <v>33.375533617560933</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H2" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="I2">
         <v>0.1554028255059183</v>
       </c>
       <c r="J2">
-        <v>33.75794370466823</v>
+        <v>33.757943704668229</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="N2" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="O2">
         <v>-0.1445371775417299</v>
       </c>
       <c r="P2">
-        <v>33.86732835098331</v>
+        <v>33.867328350983307</v>
       </c>
       <c r="Q2">
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="T2" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="U2">
-        <v>-0.6903323262839879</v>
+        <v>-0.69033232628398788</v>
       </c>
       <c r="V2">
-        <v>33.94432881798183</v>
+        <v>33.944328817981827</v>
       </c>
       <c r="W2">
         <v>8</v>
       </c>
       <c r="Y2" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="Z2" t="s">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="AA2">
-        <v>-1.120391271632807</v>
+        <v>-1.1203912716328071</v>
       </c>
       <c r="AB2">
-        <v>34.00836269647365</v>
+        <v>34.008362696473647</v>
       </c>
       <c r="AC2">
         <v>10</v>
       </c>
       <c r="AE2" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="AF2" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="AG2">
         <v>-1.416446623915504</v>
       </c>
       <c r="AH2">
-        <v>33.96355165792824</v>
+        <v>33.963551657928242</v>
       </c>
       <c r="AI2">
         <v>12</v>
       </c>
       <c r="AK2" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="AL2" t="s">
-        <v>434</v>
+        <v>318</v>
       </c>
       <c r="AM2">
-        <v>-1.836102719033233</v>
+        <v>-1.8361027190332331</v>
       </c>
       <c r="AN2">
-        <v>33.94432881798183</v>
+        <v>33.944328817981827</v>
       </c>
       <c r="AO2">
         <v>14</v>
@@ -5703,106 +5719,106 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C3">
-        <v>-0.2308898471187769</v>
+        <v>-0.23088984711877689</v>
       </c>
       <c r="D3">
-        <v>33.31681403292448</v>
+        <v>33.316814032924484</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="I3">
         <v>-1.081297709923664</v>
       </c>
       <c r="J3">
-        <v>33.76438790510961</v>
+        <v>33.764387905109608</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="N3" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="O3">
-        <v>-1.318233726684431</v>
+        <v>-1.3182337266844311</v>
       </c>
       <c r="P3">
-        <v>33.80946291618446</v>
+        <v>33.809462916184458</v>
       </c>
       <c r="Q3">
         <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="T3" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="U3">
         <v>-1.684409211023028</v>
       </c>
       <c r="V3">
-        <v>33.95073764062329</v>
+        <v>33.950737640623288</v>
       </c>
       <c r="W3">
         <v>8</v>
       </c>
       <c r="Y3" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="Z3" t="s">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="AA3">
-        <v>-1.921945701357466</v>
+        <v>-1.9219457013574659</v>
       </c>
       <c r="AB3">
-        <v>33.96995685396029</v>
+        <v>33.969956853960291</v>
       </c>
       <c r="AC3">
         <v>10</v>
       </c>
       <c r="AE3" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="AF3" t="s">
-        <v>419</v>
+        <v>329</v>
       </c>
       <c r="AG3">
-        <v>-2.090361445783132</v>
+        <v>-2.0903614457831319</v>
       </c>
       <c r="AH3">
-        <v>33.99556556988831</v>
+        <v>33.995565569888313</v>
       </c>
       <c r="AI3">
         <v>12</v>
       </c>
       <c r="AK3" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="AL3" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="AM3">
-        <v>-2.349284099472495</v>
+        <v>-2.3492840994724951</v>
       </c>
       <c r="AN3">
-        <v>33.98276362419998</v>
+        <v>33.982763624199983</v>
       </c>
       <c r="AO3">
         <v>14</v>
@@ -5810,106 +5826,106 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C4">
-        <v>-0.3797021943573667</v>
+        <v>-0.37970219435736668</v>
       </c>
       <c r="D4">
-        <v>33.32334354088192</v>
+        <v>33.323343540881922</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I4">
         <v>-1.004200076365025</v>
       </c>
       <c r="J4">
-        <v>33.75794370466823</v>
+        <v>33.757943704668229</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="N4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="O4">
-        <v>-1.169072948328267</v>
+        <v>-1.1690729483282669</v>
       </c>
       <c r="P4">
-        <v>33.84162259521057</v>
+        <v>33.841622595210573</v>
       </c>
       <c r="Q4">
         <v>6</v>
       </c>
       <c r="S4" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="T4" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="U4">
-        <v>-1.419123204837491</v>
+        <v>-1.4191232048374911</v>
       </c>
       <c r="V4">
-        <v>33.93150754129481</v>
+        <v>33.931507541294813</v>
       </c>
       <c r="W4">
         <v>8</v>
       </c>
       <c r="Y4" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="Z4" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="AA4">
-        <v>-1.63124295906872</v>
+        <v>-1.6312429590687201</v>
       </c>
       <c r="AB4">
-        <v>34.04033446502421</v>
+        <v>34.040334465024209</v>
       </c>
       <c r="AC4">
         <v>10</v>
       </c>
       <c r="AE4" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="AF4" t="s">
-        <v>420</v>
+        <v>339</v>
       </c>
       <c r="AG4">
-        <v>-1.891942771084337</v>
+        <v>-1.8919427710843371</v>
       </c>
       <c r="AH4">
-        <v>33.99556556988831</v>
+        <v>33.995565569888313</v>
       </c>
       <c r="AI4">
         <v>12</v>
       </c>
       <c r="AK4" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="AL4" t="s">
-        <v>436</v>
+        <v>340</v>
       </c>
       <c r="AM4">
         <v>-2.012048192771084</v>
       </c>
       <c r="AN4">
-        <v>33.99556556988831</v>
+        <v>33.995565569888313</v>
       </c>
       <c r="AO4">
         <v>14</v>
@@ -5917,106 +5933,106 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="C5">
-        <v>-0.4639780736100235</v>
+        <v>-0.46397807361002352</v>
       </c>
       <c r="D5">
-        <v>33.33639872004716</v>
+        <v>33.336398720047157</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="H5" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="I5">
-        <v>-0.896446312571647</v>
+        <v>-0.89644631257164697</v>
       </c>
       <c r="J5">
-        <v>33.74505161189153</v>
+        <v>33.745051611891533</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="N5" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="O5">
         <v>-1.005699088145896</v>
       </c>
       <c r="P5">
-        <v>33.84162259521057</v>
+        <v>33.841622595210573</v>
       </c>
       <c r="Q5">
         <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="T5" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="U5">
-        <v>-1.176693151721529</v>
+        <v>-1.1766931517215291</v>
       </c>
       <c r="V5">
-        <v>33.912266537456</v>
+        <v>33.912266537455999</v>
       </c>
       <c r="W5">
         <v>8</v>
       </c>
       <c r="Y5" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="Z5" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="AA5">
         <v>-1.108933283075763</v>
       </c>
       <c r="AB5">
-        <v>33.97636084248998</v>
+        <v>33.976360842489981</v>
       </c>
       <c r="AC5">
         <v>10</v>
       </c>
       <c r="AE5" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="AF5" t="s">
-        <v>421</v>
+        <v>350</v>
       </c>
       <c r="AG5">
-        <v>-1.192843691148776</v>
+        <v>-1.1928436911487761</v>
       </c>
       <c r="AH5">
-        <v>33.98916519977229</v>
+        <v>33.989165199772287</v>
       </c>
       <c r="AI5">
         <v>12</v>
       </c>
       <c r="AK5" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="AL5" t="s">
-        <v>437</v>
+        <v>351</v>
       </c>
       <c r="AM5">
-        <v>-1.257164404223228</v>
+        <v>-1.2571644042232279</v>
       </c>
       <c r="AN5">
-        <v>33.96995685396029</v>
+        <v>33.969956853960291</v>
       </c>
       <c r="AO5">
         <v>14</v>
@@ -6024,106 +6040,106 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="C6">
-        <v>-0.5225225225225225</v>
+        <v>-0.52252252252252251</v>
       </c>
       <c r="D6">
-        <v>33.32987176967232</v>
+        <v>33.329871769672323</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="H6" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="I6">
-        <v>-0.7936568589988536</v>
+        <v>-0.79365685899885363</v>
       </c>
       <c r="J6">
-        <v>33.74505161189153</v>
+        <v>33.745051611891533</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="N6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="O6">
-        <v>-0.8587742672249714</v>
+        <v>-0.85877426722497141</v>
       </c>
       <c r="P6">
-        <v>33.80946291618446</v>
+        <v>33.809462916184458</v>
       </c>
       <c r="Q6">
         <v>6</v>
       </c>
       <c r="S6" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="T6" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="U6">
-        <v>-0.9456398640996602</v>
+        <v>-0.94563986409966017</v>
       </c>
       <c r="V6">
-        <v>33.95073764062329</v>
+        <v>33.950737640623288</v>
       </c>
       <c r="W6">
         <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="Z6" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="AA6">
-        <v>-0.9623352165725049</v>
+        <v>-0.96233521657250487</v>
       </c>
       <c r="AB6">
-        <v>33.98916519977229</v>
+        <v>33.989165199772287</v>
       </c>
       <c r="AC6">
         <v>10</v>
       </c>
       <c r="AE6" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="AF6" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="AG6">
-        <v>-0.957847196085811</v>
+        <v>-0.95784719608581104</v>
       </c>
       <c r="AH6">
-        <v>34.00196473522873</v>
+        <v>34.001964735228732</v>
       </c>
       <c r="AI6">
         <v>12</v>
       </c>
       <c r="AK6" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="AL6" t="s">
-        <v>438</v>
+        <v>359</v>
       </c>
       <c r="AM6">
-        <v>-0.9263873159682899</v>
+        <v>-0.92638731596828994</v>
       </c>
       <c r="AN6">
-        <v>33.95073764062329</v>
+        <v>33.950737640623288</v>
       </c>
       <c r="AO6">
         <v>14</v>
@@ -6131,106 +6147,106 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="C7">
         <v>-0.5109717868338558</v>
       </c>
       <c r="D7">
-        <v>33.32334354088192</v>
+        <v>33.323343540881922</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="H7" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="I7">
-        <v>-0.6951871657754011</v>
+        <v>-0.69518716577540107</v>
       </c>
       <c r="J7">
-        <v>33.75149827383054</v>
+        <v>33.751498273830542</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="N7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="O7">
-        <v>-0.7471526195899773</v>
+        <v>-0.74715261958997725</v>
       </c>
       <c r="P7">
-        <v>33.85447791289938</v>
+        <v>33.854477912899377</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="T7" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="U7">
-        <v>-0.7633962264150944</v>
+        <v>-0.76339622641509441</v>
       </c>
       <c r="V7">
-        <v>33.95714525371056</v>
+        <v>33.957145253710557</v>
       </c>
       <c r="W7">
         <v>8</v>
       </c>
       <c r="Y7" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Z7" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="AA7">
-        <v>-0.770158251695554</v>
+        <v>-0.77015825169555396</v>
       </c>
       <c r="AB7">
-        <v>33.98276362419998</v>
+        <v>33.982763624199983</v>
       </c>
       <c r="AC7">
         <v>10</v>
       </c>
       <c r="AE7" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="AF7" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="AG7">
-        <v>-0.734762979683973</v>
+        <v>-0.73476297968397297</v>
       </c>
       <c r="AH7">
-        <v>34.00836269647365</v>
+        <v>34.008362696473647</v>
       </c>
       <c r="AI7">
         <v>12</v>
       </c>
       <c r="AK7" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="AL7" t="s">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="AM7">
-        <v>-0.6602636534839925</v>
+        <v>-0.66026365348399252</v>
       </c>
       <c r="AN7">
-        <v>33.98916519977229</v>
+        <v>33.989165199772287</v>
       </c>
       <c r="AO7">
         <v>14</v>
@@ -6238,106 +6254,106 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="C8">
-        <v>-0.4474097331240188</v>
+        <v>-0.44740973312401883</v>
       </c>
       <c r="D8">
-        <v>33.29721782652397</v>
+        <v>33.297217826523969</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="H8" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="I8">
-        <v>-0.6032171581769437</v>
+        <v>-0.60321715817694366</v>
       </c>
       <c r="J8">
-        <v>33.70634574756281</v>
+        <v>33.706345747562807</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="N8" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="O8">
-        <v>-0.6182163187855788</v>
+        <v>-0.61821631878557881</v>
       </c>
       <c r="P8">
-        <v>33.86090374154468</v>
+        <v>33.860903741544682</v>
       </c>
       <c r="Q8">
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="T8" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="U8">
-        <v>-0.6107965269913175</v>
+        <v>-0.61079652699131748</v>
       </c>
       <c r="V8">
-        <v>33.95073764062329</v>
+        <v>33.950737640623288</v>
       </c>
       <c r="W8">
         <v>8</v>
       </c>
       <c r="Y8" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z8" t="s">
         <v>376</v>
       </c>
-      <c r="Z8" t="s">
-        <v>407</v>
-      </c>
       <c r="AA8">
-        <v>-0.5809128630705395</v>
+        <v>-0.58091286307053946</v>
       </c>
       <c r="AB8">
-        <v>33.96355165792824</v>
+        <v>33.963551657928242</v>
       </c>
       <c r="AC8">
         <v>10</v>
       </c>
       <c r="AE8" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="AF8" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="AG8">
-        <v>-0.5162019593067069</v>
+        <v>-0.51620195930670687</v>
       </c>
       <c r="AH8">
-        <v>33.98276362419998</v>
+        <v>33.982763624199983</v>
       </c>
       <c r="AI8">
         <v>12</v>
       </c>
       <c r="AK8" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="AL8" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="AM8">
         <v>-0.4272795779954785</v>
       </c>
       <c r="AN8">
-        <v>33.98276362419998</v>
+        <v>33.982763624199983</v>
       </c>
       <c r="AO8">
         <v>14</v>
@@ -6345,106 +6361,106 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="C9">
-        <v>-0.3738244514106583</v>
+        <v>-0.37382445141065829</v>
       </c>
       <c r="D9">
-        <v>33.32334354088192</v>
+        <v>33.323343540881922</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="H9" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="I9">
-        <v>-0.4068833652007648</v>
+        <v>-0.40688336520076479</v>
       </c>
       <c r="J9">
-        <v>33.73215459188603</v>
+        <v>33.732154591886029</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="N9" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="O9">
-        <v>-0.4392843547773125</v>
+        <v>-0.43928435477731248</v>
       </c>
       <c r="P9">
-        <v>33.80946291618446</v>
+        <v>33.809462916184458</v>
       </c>
       <c r="Q9">
         <v>6</v>
       </c>
       <c r="S9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="T9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="U9">
-        <v>-0.4522100491122025</v>
+        <v>-0.45221004911220247</v>
       </c>
       <c r="V9">
-        <v>33.93791878510097</v>
+        <v>33.937918785100969</v>
       </c>
       <c r="W9">
         <v>8</v>
       </c>
       <c r="Y9" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="Z9" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="AA9">
-        <v>-0.4006035458317617</v>
+        <v>-0.40060354583176172</v>
       </c>
       <c r="AB9">
-        <v>33.96355165792824</v>
+        <v>33.963551657928242</v>
       </c>
       <c r="AC9">
         <v>10</v>
       </c>
       <c r="AE9" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AF9" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="AG9">
-        <v>-0.3056603773584906</v>
+        <v>-0.30566037735849061</v>
       </c>
       <c r="AH9">
-        <v>33.95714525371056</v>
+        <v>33.957145253710557</v>
       </c>
       <c r="AI9">
         <v>12</v>
       </c>
       <c r="AK9" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AL9" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="AM9">
-        <v>-0.2347169811320755</v>
+        <v>-0.23471698113207551</v>
       </c>
       <c r="AN9">
-        <v>33.95714525371056</v>
+        <v>33.957145253710557</v>
       </c>
       <c r="AO9">
         <v>14</v>
@@ -6452,106 +6468,106 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="C10">
-        <v>-0.2784313725490196</v>
+        <v>-0.27843137254901962</v>
       </c>
       <c r="D10">
-        <v>33.31028324504778</v>
+        <v>33.310283245047778</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H10" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="I10">
-        <v>-0.2286259541984733</v>
+        <v>-0.22862595419847331</v>
       </c>
       <c r="J10">
-        <v>33.76438790510961</v>
+        <v>33.764387905109608</v>
       </c>
       <c r="K10">
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="N10" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="O10">
-        <v>-0.2272900038008362</v>
+        <v>-0.22729000380083619</v>
       </c>
       <c r="P10">
-        <v>33.83519310477632</v>
+        <v>33.835193104776323</v>
       </c>
       <c r="Q10">
         <v>6</v>
       </c>
       <c r="S10" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="T10" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="U10">
-        <v>-0.1962264150943396</v>
+        <v>-0.19622641509433961</v>
       </c>
       <c r="V10">
-        <v>33.95714525371056</v>
+        <v>33.957145253710557</v>
       </c>
       <c r="W10">
         <v>8</v>
       </c>
       <c r="Y10" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="Z10" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="AA10">
         <v>-0.1142533936651584</v>
       </c>
       <c r="AB10">
-        <v>33.96995685396029</v>
+        <v>33.969956853960291</v>
       </c>
       <c r="AC10">
         <v>10</v>
       </c>
       <c r="AE10" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="AF10" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="AG10">
-        <v>-0.08544423440453687</v>
+        <v>-8.544423440453687E-2</v>
       </c>
       <c r="AH10">
-        <v>33.92509508587682</v>
+        <v>33.925095085876819</v>
       </c>
       <c r="AI10">
         <v>12</v>
       </c>
       <c r="AK10" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="AL10" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="AM10">
         <v>-0.1470588235294118</v>
       </c>
       <c r="AN10">
-        <v>33.96995685396029</v>
+        <v>33.969956853960291</v>
       </c>
       <c r="AO10">
         <v>14</v>
@@ -6559,13 +6575,13 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="C11">
-        <v>-0.02622309197651664</v>
+        <v>-2.6223091976516639E-2</v>
       </c>
       <c r="D11">
         <v>33.34292439275724</v>
@@ -6574,28 +6590,28 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="I11">
-        <v>0.002672775868652157</v>
+        <v>2.6727758686521572E-3</v>
       </c>
       <c r="J11">
-        <v>33.75794370466823</v>
+        <v>33.757943704668229</v>
       </c>
       <c r="K11">
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="N11" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="O11">
-        <v>0.01481200151917964</v>
+        <v>1.481200151917964E-2</v>
       </c>
       <c r="P11">
         <v>33.84805086435302</v>
@@ -6604,61 +6620,61 @@
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="T11" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="U11">
-        <v>0.03432666918144097</v>
+        <v>3.4326669181440971E-2</v>
       </c>
       <c r="V11">
-        <v>33.96355165792824</v>
+        <v>33.963551657928242</v>
       </c>
       <c r="W11">
         <v>8</v>
       </c>
       <c r="Y11" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="Z11" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AA11">
-        <v>-0.01095166163141994</v>
+        <v>-1.095166163141994E-2</v>
       </c>
       <c r="AB11">
-        <v>33.94432881798183</v>
+        <v>33.944328817981827</v>
       </c>
       <c r="AC11">
         <v>10</v>
       </c>
       <c r="AE11" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="AF11" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="AG11">
-        <v>-0.0704066265060241</v>
+        <v>-7.0406626506024098E-2</v>
       </c>
       <c r="AH11">
-        <v>33.99556556988831</v>
+        <v>33.995565569888313</v>
       </c>
       <c r="AI11">
         <v>12</v>
       </c>
       <c r="AK11" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AL11" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="AM11">
-        <v>-0.1548923309406876</v>
+        <v>-0.15489233094068761</v>
       </c>
       <c r="AN11">
-        <v>33.93791878510097</v>
+        <v>33.937918785100969</v>
       </c>
       <c r="AO11">
         <v>14</v>
@@ -6666,106 +6682,106 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>402</v>
       </c>
       <c r="C12">
-        <v>0.1277930223441787</v>
+        <v>0.12779302234417869</v>
       </c>
       <c r="D12">
-        <v>33.31681403292448</v>
+        <v>33.316814032924484</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>404</v>
       </c>
       <c r="I12">
-        <v>0.1743609309423884</v>
+        <v>0.17436093094238839</v>
       </c>
       <c r="J12">
-        <v>33.77083087585905</v>
+        <v>33.770830875859048</v>
       </c>
       <c r="K12">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="N12" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="O12">
-        <v>0.1825095057034221</v>
+        <v>0.18250950570342209</v>
       </c>
       <c r="P12">
-        <v>33.82876239235394</v>
+        <v>33.828762392353937</v>
       </c>
       <c r="Q12">
         <v>6</v>
       </c>
       <c r="S12" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="T12" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="U12">
         <v>0.1797583081570997</v>
       </c>
       <c r="V12">
-        <v>33.94432881798183</v>
+        <v>33.944328817981827</v>
       </c>
       <c r="W12">
         <v>8</v>
       </c>
       <c r="Y12" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Z12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AA12">
-        <v>0.1571213262999246</v>
+        <v>0.15712132629992459</v>
       </c>
       <c r="AB12">
-        <v>33.98276362419998</v>
+        <v>33.982763624199983</v>
       </c>
       <c r="AC12">
         <v>10</v>
       </c>
       <c r="AE12" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="AF12" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="AG12">
         <v>0.135114791117802</v>
       </c>
       <c r="AH12">
-        <v>34.00196473522873</v>
+        <v>34.001964735228732</v>
       </c>
       <c r="AI12">
         <v>12</v>
       </c>
       <c r="AK12" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AL12" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="AM12">
         <v>0.1026415094339623</v>
       </c>
       <c r="AN12">
-        <v>33.95714525371056</v>
+        <v>33.957145253710557</v>
       </c>
       <c r="AO12">
         <v>14</v>
@@ -6773,106 +6789,106 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>411</v>
       </c>
       <c r="C13">
         <v>0.119309262166405</v>
       </c>
       <c r="D13">
-        <v>33.29721782652397</v>
+        <v>33.297217826523969</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="I13">
         <v>0.1916602907421576</v>
       </c>
       <c r="J13">
-        <v>33.72570423240609</v>
+        <v>33.725704232406088</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="N13" t="s">
-        <v>341</v>
+        <v>413</v>
       </c>
       <c r="O13">
-        <v>0.2070668693009119</v>
+        <v>0.20706686930091189</v>
       </c>
       <c r="P13">
-        <v>33.84162259521057</v>
+        <v>33.841622595210573</v>
       </c>
       <c r="Q13">
         <v>6</v>
       </c>
       <c r="S13" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="T13" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="U13">
         <v>0.2194570135746606</v>
       </c>
       <c r="V13">
-        <v>33.96995685396029</v>
+        <v>33.969956853960291</v>
       </c>
       <c r="W13">
         <v>8</v>
       </c>
       <c r="Y13" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="Z13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AA13">
-        <v>0.2143396226415094</v>
+        <v>0.21433962264150941</v>
       </c>
       <c r="AB13">
-        <v>33.95714525371056</v>
+        <v>33.957145253710557</v>
       </c>
       <c r="AC13">
         <v>10</v>
       </c>
       <c r="AE13" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="AF13" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="AG13">
-        <v>0.2058823529411765</v>
+        <v>0.20588235294117649</v>
       </c>
       <c r="AH13">
-        <v>33.96995685396029</v>
+        <v>33.969956853960291</v>
       </c>
       <c r="AI13">
         <v>12</v>
       </c>
       <c r="AK13" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="AL13" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="AM13">
         <v>0.1917704794261986</v>
       </c>
       <c r="AN13">
-        <v>33.95073764062329</v>
+        <v>33.950737640623288</v>
       </c>
       <c r="AO13">
         <v>14</v>
@@ -6880,106 +6896,106 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>0.1028549080954243</v>
       </c>
       <c r="D14">
-        <v>33.35597190818236</v>
+        <v>33.355971908182362</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H14" t="s">
-        <v>341</v>
+        <v>413</v>
       </c>
       <c r="I14">
         <v>0.2080946926307751</v>
       </c>
       <c r="J14">
-        <v>33.75794370466823</v>
+        <v>33.757943704668229</v>
       </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="N14" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="O14">
-        <v>0.2306231003039514</v>
+        <v>0.23062310030395139</v>
       </c>
       <c r="P14">
-        <v>33.84162259521057</v>
+        <v>33.841622595210573</v>
       </c>
       <c r="Q14">
         <v>6</v>
       </c>
       <c r="S14" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="T14" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="U14">
-        <v>0.2570781426953568</v>
+        <v>0.25707814269535678</v>
       </c>
       <c r="V14">
-        <v>33.95073764062329</v>
+        <v>33.950737640623288</v>
       </c>
       <c r="W14">
         <v>8</v>
       </c>
       <c r="Y14" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="Z14" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AA14">
-        <v>0.2659133709981167</v>
+        <v>0.26591337099811668</v>
       </c>
       <c r="AB14">
-        <v>33.98916519977229</v>
+        <v>33.989165199772287</v>
       </c>
       <c r="AC14">
         <v>10</v>
       </c>
       <c r="AE14" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="AF14" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AG14">
-        <v>0.2676957831325301</v>
+        <v>0.26769578313253012</v>
       </c>
       <c r="AH14">
-        <v>33.99556556988831</v>
+        <v>33.995565569888313</v>
       </c>
       <c r="AI14">
         <v>12</v>
       </c>
       <c r="AK14" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="AL14" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="AM14">
-        <v>0.2684766214177979</v>
+        <v>0.26847662141779788</v>
       </c>
       <c r="AN14">
-        <v>33.96995685396029</v>
+        <v>33.969956853960291</v>
       </c>
       <c r="AO14">
         <v>14</v>
@@ -6987,43 +7003,43 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>423</v>
       </c>
       <c r="C15">
-        <v>0.07523510971786834</v>
+        <v>7.5235109717868343E-2</v>
       </c>
       <c r="D15">
-        <v>33.32334354088192</v>
+        <v>33.323343540881922</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>329</v>
+        <v>424</v>
       </c>
       <c r="H15" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="I15">
         <v>0.2303585049580473</v>
       </c>
       <c r="J15">
-        <v>33.77727261762023</v>
+        <v>33.777272617620227</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="N15" t="s">
-        <v>366</v>
+        <v>426</v>
       </c>
       <c r="O15">
-        <v>0.2628180782377516</v>
+        <v>0.26281807823775161</v>
       </c>
       <c r="P15">
         <v>33.84805086435302</v>
@@ -7032,61 +7048,61 @@
         <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="T15" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="U15">
         <v>0.3049056603773585</v>
       </c>
       <c r="V15">
-        <v>33.95714525371056</v>
+        <v>33.957145253710557</v>
       </c>
       <c r="W15">
         <v>8</v>
       </c>
       <c r="Y15" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="Z15" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="AA15">
-        <v>0.3265460030165913</v>
+        <v>0.32654600301659131</v>
       </c>
       <c r="AB15">
-        <v>33.96995685396029</v>
+        <v>33.969956853960291</v>
       </c>
       <c r="AC15">
         <v>10</v>
       </c>
       <c r="AE15" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AF15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AG15">
-        <v>0.3377358490566038</v>
+        <v>0.33773584905660381</v>
       </c>
       <c r="AH15">
-        <v>33.95714525371056</v>
+        <v>33.957145253710557</v>
       </c>
       <c r="AI15">
         <v>12</v>
       </c>
       <c r="AK15" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="AL15" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="AM15">
-        <v>0.3517890772128061</v>
+        <v>0.35178907721280611</v>
       </c>
       <c r="AN15">
-        <v>33.98916519977229</v>
+        <v>33.989165199772287</v>
       </c>
       <c r="AO15">
         <v>14</v>
@@ -7094,106 +7110,106 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="C16">
-        <v>0.04506269592476489</v>
+        <v>4.5062695924764889E-2</v>
       </c>
       <c r="D16">
-        <v>33.32334354088192</v>
+        <v>33.323343540881922</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H16" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
       <c r="I16">
-        <v>0.2461832061068702</v>
+        <v>0.24618320610687019</v>
       </c>
       <c r="J16">
-        <v>33.76438790510961</v>
+        <v>33.764387905109608</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="N16" t="s">
-        <v>367</v>
+        <v>432</v>
       </c>
       <c r="O16">
-        <v>0.2881548974943052</v>
+        <v>0.28815489749430517</v>
       </c>
       <c r="P16">
-        <v>33.85447791289938</v>
+        <v>33.854477912899377</v>
       </c>
       <c r="Q16">
         <v>6</v>
       </c>
       <c r="S16" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="T16" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="U16">
         <v>0.3430298451076691</v>
       </c>
       <c r="V16">
-        <v>33.93791878510097</v>
+        <v>33.937918785100969</v>
       </c>
       <c r="W16">
         <v>8</v>
       </c>
       <c r="Y16" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="Z16" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="AA16">
-        <v>0.3733031674208144</v>
+        <v>0.37330316742081437</v>
       </c>
       <c r="AB16">
-        <v>33.96995685396029</v>
+        <v>33.969956853960291</v>
       </c>
       <c r="AC16">
         <v>10</v>
       </c>
       <c r="AE16" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="AF16" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AG16">
-        <v>0.3902714932126696</v>
+        <v>0.39027149321266957</v>
       </c>
       <c r="AH16">
-        <v>33.96995685396029</v>
+        <v>33.969956853960291</v>
       </c>
       <c r="AI16">
         <v>12</v>
       </c>
       <c r="AK16" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="AL16" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="AM16">
-        <v>0.4116760828625236</v>
+        <v>0.41167608286252361</v>
       </c>
       <c r="AN16">
-        <v>33.98916519977229</v>
+        <v>33.989165199772287</v>
       </c>
       <c r="AO16">
         <v>14</v>
@@ -7201,106 +7217,106 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>307</v>
+        <v>437</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="C17">
-        <v>-0.01961553550411926</v>
+        <v>-1.961553550411926E-2</v>
       </c>
       <c r="D17">
-        <v>33.30375117649885</v>
+        <v>33.303751176498849</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="H17" t="s">
-        <v>344</v>
+        <v>438</v>
       </c>
       <c r="I17">
-        <v>0.2868632707774799</v>
+        <v>0.28686327077747992</v>
       </c>
       <c r="J17">
-        <v>33.70634574756281</v>
+        <v>33.706345747562807</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="N17" t="s">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="O17">
-        <v>0.3485366780691753</v>
+        <v>0.34853667806917532</v>
       </c>
       <c r="P17">
-        <v>33.83519310477632</v>
+        <v>33.835193104776323</v>
       </c>
       <c r="Q17">
         <v>6</v>
       </c>
       <c r="S17" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="T17" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="U17">
-        <v>0.4264650283553875</v>
+        <v>0.42646502835538752</v>
       </c>
       <c r="V17">
-        <v>33.92509508587682</v>
+        <v>33.925095085876819</v>
       </c>
       <c r="W17">
         <v>8</v>
       </c>
       <c r="Y17" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="Z17" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="AA17">
-        <v>0.4700113164843456</v>
+        <v>0.47001131648434558</v>
       </c>
       <c r="AB17">
-        <v>33.96355165792824</v>
+        <v>33.963551657928242</v>
       </c>
       <c r="AC17">
         <v>10</v>
       </c>
       <c r="AE17" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="AF17" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="AG17">
-        <v>0.4952919020715631</v>
+        <v>0.49529190207156309</v>
       </c>
       <c r="AH17">
-        <v>33.98916519977229</v>
+        <v>33.989165199772287</v>
       </c>
       <c r="AI17">
         <v>12</v>
       </c>
       <c r="AK17" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="AL17" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AM17">
-        <v>0.5258198266113834</v>
+        <v>0.52581982661138338</v>
       </c>
       <c r="AN17">
-        <v>33.97636084248998</v>
+        <v>33.976360842489981</v>
       </c>
       <c r="AO17">
         <v>14</v>
@@ -7308,91 +7324,91 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18">
-        <v>2.557</v>
+        <v>2.5569999999999999</v>
       </c>
       <c r="B18">
         <v>-0.193</v>
       </c>
       <c r="C18">
-        <v>-0.07547907704341025</v>
+        <v>-7.5479077043410253E-2</v>
       </c>
       <c r="D18">
-        <v>33.35597190818236</v>
+        <v>33.355971908182362</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.614</v>
+        <v>2.6139999999999999</v>
       </c>
       <c r="H18">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="I18">
-        <v>0.3626625860749809</v>
+        <v>0.36266258607498092</v>
       </c>
       <c r="J18">
-        <v>33.72570423240609</v>
+        <v>33.725704232406088</v>
       </c>
       <c r="K18">
         <v>4</v>
       </c>
       <c r="M18">
-        <v>2.626</v>
+        <v>2.6259999999999999</v>
       </c>
       <c r="N18">
         <v>1.117</v>
       </c>
       <c r="O18">
-        <v>0.4253617669459254</v>
+        <v>0.42536176694592542</v>
       </c>
       <c r="P18">
-        <v>33.8030273088327</v>
+        <v>33.803027308832696</v>
       </c>
       <c r="Q18">
         <v>6</v>
       </c>
       <c r="S18">
-        <v>2.644</v>
+        <v>2.6440000000000001</v>
       </c>
       <c r="T18">
         <v>1.337</v>
       </c>
       <c r="U18">
-        <v>0.5056732223903176</v>
+        <v>0.50567322239031764</v>
       </c>
       <c r="V18">
-        <v>33.91868141815983</v>
+        <v>33.918681418159828</v>
       </c>
       <c r="W18">
         <v>8</v>
       </c>
       <c r="Y18">
-        <v>2.655</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="Z18">
-        <v>1.451</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="AA18">
         <v>0.5465160075329567</v>
       </c>
       <c r="AB18">
-        <v>33.98916519977229</v>
+        <v>33.989165199772287</v>
       </c>
       <c r="AC18">
         <v>10</v>
       </c>
       <c r="AE18">
-        <v>2.654</v>
+        <v>2.6539999999999999</v>
       </c>
       <c r="AF18">
         <v>1.526</v>
       </c>
       <c r="AG18">
-        <v>0.5749811605124341</v>
+        <v>0.57498116051243409</v>
       </c>
       <c r="AH18">
-        <v>33.98276362419998</v>
+        <v>33.982763624199983</v>
       </c>
       <c r="AI18">
         <v>12</v>
@@ -7407,7 +7423,7 @@
         <v>0.5955522050508858</v>
       </c>
       <c r="AN18">
-        <v>33.97636084248998</v>
+        <v>33.976360842489981</v>
       </c>
       <c r="AO18">
         <v>14</v>
@@ -7415,106 +7431,106 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>444</v>
       </c>
       <c r="C19">
-        <v>-0.006664053312426499</v>
+        <v>-6.6640533124264992E-3</v>
       </c>
       <c r="D19">
-        <v>33.31681403292448</v>
+        <v>33.316814032924484</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="H19" t="s">
-        <v>345</v>
+        <v>445</v>
       </c>
       <c r="I19">
-        <v>0.4441053033193437</v>
+        <v>0.44410530331934372</v>
       </c>
       <c r="J19">
-        <v>33.77083087585905</v>
+        <v>33.770830875859048</v>
       </c>
       <c r="K19">
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="N19" t="s">
-        <v>369</v>
+        <v>446</v>
       </c>
       <c r="O19">
-        <v>0.5190114068441065</v>
+        <v>0.51901140684410652</v>
       </c>
       <c r="P19">
-        <v>33.82876239235394</v>
+        <v>33.828762392353937</v>
       </c>
       <c r="Q19">
         <v>6</v>
       </c>
       <c r="S19" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="T19" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="U19">
-        <v>0.6038592508513054</v>
+        <v>0.60385925085130543</v>
       </c>
       <c r="V19">
-        <v>33.912266537456</v>
+        <v>33.912266537455999</v>
       </c>
       <c r="W19">
         <v>8</v>
       </c>
       <c r="Y19" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Z19" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="AA19">
         <v>0.645440844009043</v>
       </c>
       <c r="AB19">
-        <v>33.98276362419998</v>
+        <v>33.982763624199983</v>
       </c>
       <c r="AC19">
         <v>10</v>
       </c>
       <c r="AE19" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="AF19" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="AG19">
-        <v>0.6631459826480574</v>
+        <v>0.66314598264805735</v>
       </c>
       <c r="AH19">
-        <v>33.96355165792824</v>
+        <v>33.963551657928242</v>
       </c>
       <c r="AI19">
         <v>12</v>
       </c>
       <c r="AK19" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="AL19" t="s">
         <v>450</v>
       </c>
       <c r="AM19">
-        <v>0.6792310591782887</v>
+        <v>0.67923105917828874</v>
       </c>
       <c r="AN19">
-        <v>33.97636084248998</v>
+        <v>33.976360842489981</v>
       </c>
       <c r="AO19">
         <v>14</v>

--- a/Lab1/Cp_Data.xlsx
+++ b/Lab1/Cp_Data.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_9261A2622138B145574FDEBD2D0A0911C9F61C88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="NACA0012" sheetId="1" r:id="rId1"/>
     <sheet name="NACA4412" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -41,1336 +35,1336 @@
     <t>2.505</t>
   </si>
   <si>
+    <t>2.510</t>
+  </si>
+  <si>
+    <t>2.509</t>
+  </si>
+  <si>
+    <t>2.507</t>
+  </si>
+  <si>
+    <t>2.506</t>
+  </si>
+  <si>
+    <t>2.512</t>
+  </si>
+  <si>
+    <t>2.511</t>
+  </si>
+  <si>
+    <t>2.508</t>
+  </si>
+  <si>
+    <t>2.504</t>
+  </si>
+  <si>
+    <t>2.502</t>
+  </si>
+  <si>
     <t>1.390</t>
   </si>
   <si>
+    <t>-1.056</t>
+  </si>
+  <si>
+    <t>-0.967</t>
+  </si>
+  <si>
+    <t>-0.878</t>
+  </si>
+  <si>
+    <t>-0.822</t>
+  </si>
+  <si>
+    <t>-0.771</t>
+  </si>
+  <si>
+    <t>-0.713</t>
+  </si>
+  <si>
+    <t>-0.638</t>
+  </si>
+  <si>
+    <t>-0.573</t>
+  </si>
+  <si>
+    <t>-0.510</t>
+  </si>
+  <si>
+    <t>-0.451</t>
+  </si>
+  <si>
+    <t>-0.401</t>
+  </si>
+  <si>
+    <t>-0.319</t>
+  </si>
+  <si>
+    <t>-0.203</t>
+  </si>
+  <si>
+    <t>-0.126</t>
+  </si>
+  <si>
+    <t>-0.065</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
     <t>2.567</t>
   </si>
   <si>
+    <t>2.570</t>
+  </si>
+  <si>
+    <t>2.564</t>
+  </si>
+  <si>
+    <t>2.566</t>
+  </si>
+  <si>
+    <t>2.562</t>
+  </si>
+  <si>
+    <t>2.565</t>
+  </si>
+  <si>
+    <t>2.560</t>
+  </si>
+  <si>
+    <t>2.569</t>
+  </si>
+  <si>
     <t>0.579</t>
   </si>
   <si>
+    <t>-1.825</t>
+  </si>
+  <si>
+    <t>-1.661</t>
+  </si>
+  <si>
+    <t>-0.981</t>
+  </si>
+  <si>
+    <t>-0.916</t>
+  </si>
+  <si>
+    <t>-0.867</t>
+  </si>
+  <si>
+    <t>-0.774</t>
+  </si>
+  <si>
+    <t>-0.673</t>
+  </si>
+  <si>
+    <t>-0.590</t>
+  </si>
+  <si>
+    <t>-0.502</t>
+  </si>
+  <si>
+    <t>-0.422</t>
+  </si>
+  <si>
+    <t>-0.352</t>
+  </si>
+  <si>
+    <t>-0.285</t>
+  </si>
+  <si>
+    <t>-0.214</t>
+  </si>
+  <si>
+    <t>-0.148</t>
+  </si>
+  <si>
+    <t>-0.086</t>
+  </si>
+  <si>
+    <t>-0.012</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
     <t>2.586</t>
   </si>
   <si>
+    <t>2.589</t>
+  </si>
+  <si>
+    <t>2.588</t>
+  </si>
+  <si>
+    <t>2.592</t>
+  </si>
+  <si>
+    <t>2.590</t>
+  </si>
+  <si>
+    <t>2.585</t>
+  </si>
+  <si>
+    <t>2.584</t>
+  </si>
+  <si>
+    <t>2.587</t>
+  </si>
+  <si>
     <t>0.104</t>
   </si>
   <si>
+    <t>-2.591</t>
+  </si>
+  <si>
+    <t>-1.377</t>
+  </si>
+  <si>
+    <t>-1.263</t>
+  </si>
+  <si>
+    <t>-1.106</t>
+  </si>
+  <si>
+    <t>-1.018</t>
+  </si>
+  <si>
+    <t>-0.890</t>
+  </si>
+  <si>
+    <t>-0.760</t>
+  </si>
+  <si>
+    <t>-0.656</t>
+  </si>
+  <si>
+    <t>-0.550</t>
+  </si>
+  <si>
+    <t>-0.457</t>
+  </si>
+  <si>
+    <t>-0.374</t>
+  </si>
+  <si>
+    <t>-0.295</t>
+  </si>
+  <si>
+    <t>-0.213</t>
+  </si>
+  <si>
+    <t>-0.136</t>
+  </si>
+  <si>
+    <t>-0.067</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
     <t>2.609</t>
   </si>
   <si>
+    <t>2.608</t>
+  </si>
+  <si>
+    <t>2.607</t>
+  </si>
+  <si>
+    <t>2.606</t>
+  </si>
+  <si>
+    <t>2.603</t>
+  </si>
+  <si>
+    <t>2.614</t>
+  </si>
+  <si>
+    <t>2.612</t>
+  </si>
+  <si>
+    <t>2.604</t>
+  </si>
+  <si>
+    <t>2.605</t>
+  </si>
+  <si>
     <t>-0.561</t>
   </si>
   <si>
-    <t>2.562</t>
+    <t>-3.401</t>
+  </si>
+  <si>
+    <t>-1.794</t>
+  </si>
+  <si>
+    <t>-1.473</t>
+  </si>
+  <si>
+    <t>-1.250</t>
+  </si>
+  <si>
+    <t>-1.133</t>
+  </si>
+  <si>
+    <t>-0.976</t>
+  </si>
+  <si>
+    <t>-0.827</t>
+  </si>
+  <si>
+    <t>-0.699</t>
+  </si>
+  <si>
+    <t>-0.578</t>
+  </si>
+  <si>
+    <t>-0.468</t>
+  </si>
+  <si>
+    <t>-0.373</t>
+  </si>
+  <si>
+    <t>-0.282</t>
+  </si>
+  <si>
+    <t>-0.195</t>
+  </si>
+  <si>
+    <t>-0.116</t>
+  </si>
+  <si>
+    <t>-0.047</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.080</t>
+  </si>
+  <si>
+    <t>2.553</t>
+  </si>
+  <si>
+    <t>2.563</t>
+  </si>
+  <si>
+    <t>2.559</t>
+  </si>
+  <si>
+    <t>2.561</t>
+  </si>
+  <si>
+    <t>2.557</t>
+  </si>
+  <si>
+    <t>2.558</t>
   </si>
   <si>
     <t>0.866</t>
   </si>
   <si>
-    <t>2.553</t>
+    <t>-0.993</t>
+  </si>
+  <si>
+    <t>-0.998</t>
+  </si>
+  <si>
+    <t>-1.066</t>
+  </si>
+  <si>
+    <t>-1.024</t>
+  </si>
+  <si>
+    <t>-1.004</t>
+  </si>
+  <si>
+    <t>-0.991</t>
+  </si>
+  <si>
+    <t>-0.956</t>
+  </si>
+  <si>
+    <t>-1.022</t>
+  </si>
+  <si>
+    <t>-0.961</t>
+  </si>
+  <si>
+    <t>-0.982</t>
+  </si>
+  <si>
+    <t>-0.928</t>
+  </si>
+  <si>
+    <t>-0.923</t>
+  </si>
+  <si>
+    <t>-0.862</t>
+  </si>
+  <si>
+    <t>-0.879</t>
+  </si>
+  <si>
+    <t>-0.817</t>
+  </si>
+  <si>
+    <t>2.547</t>
+  </si>
+  <si>
+    <t>2.555</t>
+  </si>
+  <si>
+    <t>2.552</t>
+  </si>
+  <si>
+    <t>2.554</t>
+  </si>
+  <si>
+    <t>2.546</t>
+  </si>
+  <si>
+    <t>2.550</t>
+  </si>
+  <si>
+    <t>2.551</t>
   </si>
   <si>
     <t>0.727</t>
   </si>
   <si>
+    <t>-0.688</t>
+  </si>
+  <si>
+    <t>-0.754</t>
+  </si>
+  <si>
+    <t>-0.792</t>
+  </si>
+  <si>
+    <t>-0.805</t>
+  </si>
+  <si>
+    <t>-0.803</t>
+  </si>
+  <si>
+    <t>-0.795</t>
+  </si>
+  <si>
+    <t>-0.796</t>
+  </si>
+  <si>
+    <t>-0.788</t>
+  </si>
+  <si>
+    <t>-0.791</t>
+  </si>
+  <si>
+    <t>-0.810</t>
+  </si>
+  <si>
+    <t>-0.818</t>
+  </si>
+  <si>
+    <t>-0.820</t>
+  </si>
+  <si>
+    <t>-0.839</t>
+  </si>
+  <si>
+    <t>-0.838</t>
+  </si>
+  <si>
     <t>2.545</t>
   </si>
   <si>
+    <t>2.548</t>
+  </si>
+  <si>
     <t>0.529</t>
   </si>
   <si>
+    <t>-0.669</t>
+  </si>
+  <si>
+    <t>-0.745</t>
+  </si>
+  <si>
+    <t>-0.770</t>
+  </si>
+  <si>
+    <t>-0.775</t>
+  </si>
+  <si>
+    <t>-0.798</t>
+  </si>
+  <si>
+    <t>-0.793</t>
+  </si>
+  <si>
+    <t>-0.808</t>
+  </si>
+  <si>
+    <t>-0.801</t>
+  </si>
+  <si>
+    <t>-0.814</t>
+  </si>
+  <si>
+    <t>-0.829</t>
+  </si>
+  <si>
+    <t>-0.836</t>
+  </si>
+  <si>
+    <t>-0.842</t>
+  </si>
+  <si>
+    <t>-0.869</t>
+  </si>
+  <si>
+    <t>-0.860</t>
+  </si>
+  <si>
     <t>2.451</t>
   </si>
   <si>
+    <t>2.454</t>
+  </si>
+  <si>
+    <t>2.448</t>
+  </si>
+  <si>
+    <t>2.452</t>
+  </si>
+  <si>
+    <t>2.450</t>
+  </si>
+  <si>
+    <t>2.453</t>
+  </si>
+  <si>
+    <t>2.456</t>
+  </si>
+  <si>
+    <t>2.459</t>
+  </si>
+  <si>
+    <t>2.455</t>
+  </si>
+  <si>
     <t>0.833</t>
   </si>
   <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>-0.125</t>
+  </si>
+  <si>
+    <t>-0.196</t>
+  </si>
+  <si>
+    <t>-0.248</t>
+  </si>
+  <si>
+    <t>-0.280</t>
+  </si>
+  <si>
+    <t>-0.269</t>
+  </si>
+  <si>
+    <t>-0.254</t>
+  </si>
+  <si>
+    <t>-0.228</t>
+  </si>
+  <si>
+    <t>-0.179</t>
+  </si>
+  <si>
+    <t>-0.153</t>
+  </si>
+  <si>
+    <t>-0.122</t>
+  </si>
+  <si>
+    <t>-0.092</t>
+  </si>
+  <si>
+    <t>-0.063</t>
+  </si>
+  <si>
+    <t>-0.033</t>
+  </si>
+  <si>
+    <t>-0.014</t>
+  </si>
+  <si>
     <t>2.417</t>
   </si>
   <si>
+    <t>2.422</t>
+  </si>
+  <si>
+    <t>2.419</t>
+  </si>
+  <si>
+    <t>2.418</t>
+  </si>
+  <si>
+    <t>2.421</t>
+  </si>
+  <si>
+    <t>2.424</t>
+  </si>
+  <si>
+    <t>2.415</t>
+  </si>
+  <si>
+    <t>2.420</t>
+  </si>
+  <si>
+    <t>2.414</t>
+  </si>
+  <si>
+    <t>2.416</t>
+  </si>
+  <si>
     <t>0.259</t>
   </si>
   <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>-0.062</t>
+  </si>
+  <si>
+    <t>-0.114</t>
+  </si>
+  <si>
+    <t>-0.146</t>
+  </si>
+  <si>
+    <t>-0.134</t>
+  </si>
+  <si>
+    <t>-0.123</t>
+  </si>
+  <si>
+    <t>-0.110</t>
+  </si>
+  <si>
+    <t>-0.094</t>
+  </si>
+  <si>
+    <t>-0.072</t>
+  </si>
+  <si>
+    <t>-0.049</t>
+  </si>
+  <si>
+    <t>-0.021</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
     <t>2.397</t>
   </si>
   <si>
+    <t>2.394</t>
+  </si>
+  <si>
+    <t>2.390</t>
+  </si>
+  <si>
+    <t>2.395</t>
+  </si>
+  <si>
+    <t>2.396</t>
+  </si>
+  <si>
+    <t>2.392</t>
+  </si>
+  <si>
+    <t>2.393</t>
+  </si>
+  <si>
+    <t>2.389</t>
+  </si>
+  <si>
     <t>-0.467</t>
   </si>
   <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.090</t>
+  </si>
+  <si>
+    <t>-0.051</t>
+  </si>
+  <si>
+    <t>-0.066</t>
+  </si>
+  <si>
+    <t>-0.070</t>
+  </si>
+  <si>
+    <t>-0.069</t>
+  </si>
+  <si>
+    <t>-0.064</t>
+  </si>
+  <si>
+    <t>-0.055</t>
+  </si>
+  <si>
+    <t>-0.045</t>
+  </si>
+  <si>
+    <t>-0.031</t>
+  </si>
+  <si>
+    <t>-0.010</t>
+  </si>
+  <si>
+    <t>0.020</t>
+  </si>
+  <si>
     <t>2.375</t>
   </si>
   <si>
+    <t>2.378</t>
+  </si>
+  <si>
+    <t>2.370</t>
+  </si>
+  <si>
+    <t>2.379</t>
+  </si>
+  <si>
+    <t>2.380</t>
+  </si>
+  <si>
+    <t>2.377</t>
+  </si>
+  <si>
+    <t>2.372</t>
+  </si>
+  <si>
+    <t>2.373</t>
+  </si>
+  <si>
+    <t>2.376</t>
+  </si>
+  <si>
+    <t>2.371</t>
+  </si>
+  <si>
     <t>-1.143</t>
   </si>
   <si>
-    <t>2.378</t>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.334</t>
+  </si>
+  <si>
+    <t>0.201</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>-0.003</t>
+  </si>
+  <si>
+    <t>-0.027</t>
+  </si>
+  <si>
+    <t>-0.037</t>
+  </si>
+  <si>
+    <t>-0.040</t>
+  </si>
+  <si>
+    <t>-0.036</t>
+  </si>
+  <si>
+    <t>-0.025</t>
+  </si>
+  <si>
+    <t>2.381</t>
+  </si>
+  <si>
+    <t>2.383</t>
+  </si>
+  <si>
+    <t>2.382</t>
   </si>
   <si>
     <t>-0.197</t>
   </si>
   <si>
-    <t>2.393</t>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>0.263</t>
+  </si>
+  <si>
+    <t>0.134</t>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t>-0.061</t>
+  </si>
+  <si>
+    <t>-0.129</t>
+  </si>
+  <si>
+    <t>-0.155</t>
+  </si>
+  <si>
+    <t>-0.178</t>
+  </si>
+  <si>
+    <t>-0.198</t>
+  </si>
+  <si>
+    <t>-0.227</t>
+  </si>
+  <si>
+    <t>-0.237</t>
+  </si>
+  <si>
+    <t>2.386</t>
+  </si>
+  <si>
+    <t>2.387</t>
+  </si>
+  <si>
+    <t>2.388</t>
+  </si>
+  <si>
+    <t>2.391</t>
+  </si>
+  <si>
+    <t>2.398</t>
   </si>
   <si>
     <t>-0.034</t>
   </si>
   <si>
-    <t>-1.056</t>
-  </si>
-  <si>
-    <t>2.570</t>
-  </si>
-  <si>
-    <t>-1.825</t>
-  </si>
-  <si>
-    <t>2.589</t>
-  </si>
-  <si>
-    <t>-2.591</t>
-  </si>
-  <si>
-    <t>-3.401</t>
-  </si>
-  <si>
-    <t>-0.867</t>
-  </si>
-  <si>
-    <t>2.547</t>
-  </si>
-  <si>
-    <t>-0.688</t>
-  </si>
-  <si>
-    <t>2.552</t>
-  </si>
-  <si>
-    <t>-0.669</t>
-  </si>
-  <si>
-    <t>2.454</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>2.422</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>2.394</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>2.386</t>
-  </si>
-  <si>
     <t>0.691</t>
   </si>
   <si>
-    <t>2.510</t>
-  </si>
-  <si>
-    <t>-0.967</t>
-  </si>
-  <si>
-    <t>2.564</t>
-  </si>
-  <si>
-    <t>-1.661</t>
-  </si>
-  <si>
-    <t>2.588</t>
-  </si>
-  <si>
-    <t>-1.377</t>
-  </si>
-  <si>
-    <t>2.608</t>
-  </si>
-  <si>
-    <t>-1.794</t>
-  </si>
-  <si>
-    <t>2.560</t>
-  </si>
-  <si>
-    <t>2.555</t>
-  </si>
-  <si>
-    <t>-0.754</t>
-  </si>
-  <si>
-    <t>-0.745</t>
-  </si>
-  <si>
-    <t>2.448</t>
-  </si>
-  <si>
-    <t>-0.125</t>
-  </si>
-  <si>
-    <t>0.143</t>
-  </si>
-  <si>
-    <t>2.390</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>2.370</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
     <t>0.422</t>
   </si>
   <si>
-    <t>2.509</t>
-  </si>
-  <si>
-    <t>-0.878</t>
-  </si>
-  <si>
-    <t>2.566</t>
-  </si>
-  <si>
-    <t>-0.981</t>
-  </si>
-  <si>
-    <t>2.592</t>
-  </si>
-  <si>
-    <t>-1.263</t>
-  </si>
-  <si>
-    <t>2.607</t>
-  </si>
-  <si>
-    <t>-1.473</t>
-  </si>
-  <si>
-    <t>-0.993</t>
-  </si>
-  <si>
-    <t>-0.792</t>
-  </si>
-  <si>
-    <t>2.557</t>
-  </si>
-  <si>
-    <t>-0.770</t>
-  </si>
-  <si>
-    <t>2.452</t>
-  </si>
-  <si>
-    <t>-0.196</t>
-  </si>
-  <si>
-    <t>2.419</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t>2.395</t>
-  </si>
-  <si>
-    <t>0.207</t>
-  </si>
-  <si>
-    <t>2.379</t>
-  </si>
-  <si>
-    <t>0.334</t>
-  </si>
-  <si>
-    <t>2.377</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>2.387</t>
-  </si>
-  <si>
     <t>0.253</t>
   </si>
   <si>
-    <t>2.507</t>
-  </si>
-  <si>
-    <t>-0.822</t>
-  </si>
-  <si>
-    <t>-0.916</t>
-  </si>
-  <si>
-    <t>2.590</t>
-  </si>
-  <si>
-    <t>-1.106</t>
-  </si>
-  <si>
-    <t>2.606</t>
-  </si>
-  <si>
-    <t>-1.250</t>
-  </si>
-  <si>
-    <t>2.563</t>
-  </si>
-  <si>
-    <t>-0.998</t>
-  </si>
-  <si>
-    <t>2.554</t>
-  </si>
-  <si>
-    <t>-0.775</t>
-  </si>
-  <si>
-    <t>2.450</t>
-  </si>
-  <si>
-    <t>-0.248</t>
-  </si>
-  <si>
-    <t>2.418</t>
-  </si>
-  <si>
-    <t>-0.062</t>
-  </si>
-  <si>
-    <t>0.090</t>
-  </si>
-  <si>
-    <t>0.201</t>
-  </si>
-  <si>
-    <t>0.134</t>
-  </si>
-  <si>
     <t>0.117</t>
   </si>
   <si>
-    <t>2.506</t>
-  </si>
-  <si>
-    <t>-0.771</t>
-  </si>
-  <si>
-    <t>-1.018</t>
-  </si>
-  <si>
-    <t>-1.133</t>
-  </si>
-  <si>
-    <t>-1.066</t>
-  </si>
-  <si>
-    <t>2.546</t>
-  </si>
-  <si>
-    <t>-0.805</t>
-  </si>
-  <si>
-    <t>2.551</t>
-  </si>
-  <si>
-    <t>-0.817</t>
-  </si>
-  <si>
-    <t>2.453</t>
-  </si>
-  <si>
-    <t>-0.280</t>
-  </si>
-  <si>
-    <t>-0.114</t>
-  </si>
-  <si>
-    <t>2.396</t>
-  </si>
-  <si>
-    <t>0.022</t>
-  </si>
-  <si>
-    <t>2.380</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>0.043</t>
-  </si>
-  <si>
-    <t>0.020</t>
-  </si>
-  <si>
-    <t>2.512</t>
-  </si>
-  <si>
-    <t>-0.713</t>
-  </si>
-  <si>
-    <t>-0.774</t>
-  </si>
-  <si>
-    <t>2.585</t>
-  </si>
-  <si>
-    <t>-0.890</t>
-  </si>
-  <si>
-    <t>2.603</t>
-  </si>
-  <si>
-    <t>-0.976</t>
-  </si>
-  <si>
-    <t>2.559</t>
-  </si>
-  <si>
-    <t>-1.024</t>
-  </si>
-  <si>
-    <t>-0.803</t>
-  </si>
-  <si>
-    <t>2.548</t>
-  </si>
-  <si>
-    <t>-0.798</t>
-  </si>
-  <si>
-    <t>2.456</t>
-  </si>
-  <si>
-    <t>-0.282</t>
-  </si>
-  <si>
-    <t>2.421</t>
-  </si>
-  <si>
-    <t>-0.136</t>
-  </si>
-  <si>
-    <t>2.392</t>
-  </si>
-  <si>
-    <t>-0.021</t>
-  </si>
-  <si>
-    <t>0.068</t>
-  </si>
-  <si>
-    <t>2.376</t>
-  </si>
-  <si>
-    <t>-0.009</t>
-  </si>
-  <si>
-    <t>2.388</t>
-  </si>
-  <si>
     <t>-0.050</t>
   </si>
   <si>
-    <t>2.511</t>
-  </si>
-  <si>
-    <t>-0.638</t>
-  </si>
-  <si>
-    <t>-0.673</t>
-  </si>
-  <si>
-    <t>-0.760</t>
-  </si>
-  <si>
-    <t>2.614</t>
-  </si>
-  <si>
-    <t>-0.827</t>
-  </si>
-  <si>
-    <t>-1.004</t>
-  </si>
-  <si>
-    <t>2.550</t>
-  </si>
-  <si>
-    <t>-0.795</t>
-  </si>
-  <si>
-    <t>-0.793</t>
-  </si>
-  <si>
-    <t>-0.269</t>
-  </si>
-  <si>
-    <t>2.424</t>
-  </si>
-  <si>
-    <t>-0.146</t>
-  </si>
-  <si>
-    <t>-0.051</t>
-  </si>
-  <si>
-    <t>2.372</t>
-  </si>
-  <si>
-    <t>-0.061</t>
-  </si>
-  <si>
-    <t>2.391</t>
-  </si>
-  <si>
-    <t>-0.110</t>
-  </si>
-  <si>
-    <t>-0.573</t>
-  </si>
-  <si>
-    <t>-0.590</t>
-  </si>
-  <si>
-    <t>2.584</t>
-  </si>
-  <si>
-    <t>-0.656</t>
-  </si>
-  <si>
-    <t>2.612</t>
-  </si>
-  <si>
-    <t>-0.699</t>
-  </si>
-  <si>
-    <t>2.561</t>
-  </si>
-  <si>
-    <t>-0.991</t>
-  </si>
-  <si>
-    <t>-0.796</t>
-  </si>
-  <si>
-    <t>-0.808</t>
-  </si>
-  <si>
-    <t>-0.254</t>
-  </si>
-  <si>
-    <t>-0.066</t>
-  </si>
-  <si>
-    <t>2.373</t>
-  </si>
-  <si>
-    <t>-0.003</t>
-  </si>
-  <si>
-    <t>-0.092</t>
-  </si>
-  <si>
     <t>-0.147</t>
   </si>
   <si>
-    <t>2.508</t>
-  </si>
-  <si>
-    <t>-0.510</t>
-  </si>
-  <si>
-    <t>-0.502</t>
-  </si>
-  <si>
-    <t>-0.550</t>
-  </si>
-  <si>
-    <t>2.604</t>
-  </si>
-  <si>
-    <t>-0.578</t>
-  </si>
-  <si>
-    <t>-0.956</t>
-  </si>
-  <si>
-    <t>-0.788</t>
-  </si>
-  <si>
-    <t>-0.801</t>
-  </si>
-  <si>
-    <t>-0.228</t>
-  </si>
-  <si>
-    <t>-0.134</t>
-  </si>
-  <si>
-    <t>-0.067</t>
-  </si>
-  <si>
-    <t>-0.014</t>
-  </si>
-  <si>
     <t>-0.177</t>
   </si>
   <si>
-    <t>-0.451</t>
-  </si>
-  <si>
-    <t>-0.422</t>
-  </si>
-  <si>
-    <t>-0.457</t>
-  </si>
-  <si>
-    <t>-0.468</t>
-  </si>
-  <si>
-    <t>-1.022</t>
-  </si>
-  <si>
-    <t>-0.791</t>
-  </si>
-  <si>
-    <t>-0.810</t>
-  </si>
-  <si>
-    <t>-0.203</t>
-  </si>
-  <si>
-    <t>2.415</t>
-  </si>
-  <si>
-    <t>-0.123</t>
-  </si>
-  <si>
-    <t>-0.070</t>
-  </si>
-  <si>
-    <t>-0.027</t>
-  </si>
-  <si>
-    <t>2.381</t>
-  </si>
-  <si>
-    <t>-0.129</t>
-  </si>
-  <si>
     <t>-0.207</t>
   </si>
   <si>
-    <t>2.504</t>
-  </si>
-  <si>
-    <t>-0.401</t>
-  </si>
-  <si>
-    <t>2.565</t>
-  </si>
-  <si>
-    <t>-0.352</t>
-  </si>
-  <si>
-    <t>2.587</t>
-  </si>
-  <si>
-    <t>-0.374</t>
-  </si>
-  <si>
-    <t>-0.373</t>
-  </si>
-  <si>
-    <t>-0.961</t>
-  </si>
-  <si>
-    <t>-0.814</t>
-  </si>
-  <si>
-    <t>2.459</t>
-  </si>
-  <si>
-    <t>-0.179</t>
-  </si>
-  <si>
-    <t>2.420</t>
-  </si>
-  <si>
-    <t>-0.069</t>
-  </si>
-  <si>
-    <t>-0.037</t>
-  </si>
-  <si>
-    <t>2.383</t>
-  </si>
-  <si>
-    <t>-0.155</t>
-  </si>
-  <si>
-    <t>2.398</t>
-  </si>
-  <si>
     <t>-0.240</t>
   </si>
   <si>
-    <t>-0.319</t>
-  </si>
-  <si>
-    <t>-0.285</t>
-  </si>
-  <si>
-    <t>-0.295</t>
-  </si>
-  <si>
-    <t>-0.982</t>
-  </si>
-  <si>
-    <t>2.558</t>
-  </si>
-  <si>
-    <t>-0.829</t>
-  </si>
-  <si>
-    <t>2.455</t>
-  </si>
-  <si>
-    <t>-0.153</t>
-  </si>
-  <si>
-    <t>2.414</t>
-  </si>
-  <si>
-    <t>-0.094</t>
-  </si>
-  <si>
-    <t>2.389</t>
-  </si>
-  <si>
-    <t>-0.064</t>
-  </si>
-  <si>
-    <t>-0.040</t>
-  </si>
-  <si>
-    <t>2.382</t>
-  </si>
-  <si>
     <t>-0.267</t>
   </si>
   <si>
-    <t>-0.214</t>
-  </si>
-  <si>
-    <t>-0.213</t>
-  </si>
-  <si>
-    <t>2.605</t>
-  </si>
-  <si>
-    <t>-0.195</t>
-  </si>
-  <si>
-    <t>-0.928</t>
-  </si>
-  <si>
-    <t>-0.818</t>
-  </si>
-  <si>
-    <t>-0.836</t>
-  </si>
-  <si>
-    <t>-0.122</t>
-  </si>
-  <si>
-    <t>-0.072</t>
-  </si>
-  <si>
-    <t>-0.055</t>
-  </si>
-  <si>
-    <t>-0.178</t>
-  </si>
-  <si>
     <t>-0.296</t>
   </si>
   <si>
-    <t>-0.126</t>
-  </si>
-  <si>
-    <t>-0.148</t>
-  </si>
-  <si>
-    <t>-0.116</t>
-  </si>
-  <si>
-    <t>-0.923</t>
-  </si>
-  <si>
-    <t>-0.820</t>
-  </si>
-  <si>
-    <t>-0.842</t>
-  </si>
-  <si>
-    <t>-0.049</t>
-  </si>
-  <si>
-    <t>-0.045</t>
-  </si>
-  <si>
-    <t>2.371</t>
-  </si>
-  <si>
-    <t>-0.198</t>
-  </si>
-  <si>
     <t>-0.329</t>
   </si>
   <si>
-    <t>2.502</t>
-  </si>
-  <si>
-    <t>-0.065</t>
-  </si>
-  <si>
-    <t>2.569</t>
-  </si>
-  <si>
-    <t>-0.086</t>
-  </si>
-  <si>
-    <t>-0.047</t>
-  </si>
-  <si>
-    <t>-0.862</t>
-  </si>
-  <si>
-    <t>-0.839</t>
-  </si>
-  <si>
-    <t>-0.869</t>
-  </si>
-  <si>
-    <t>-0.063</t>
-  </si>
-  <si>
-    <t>2.416</t>
-  </si>
-  <si>
-    <t>-0.031</t>
-  </si>
-  <si>
-    <t>-0.036</t>
-  </si>
-  <si>
     <t>-0.359</t>
   </si>
   <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>-0.012</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>-0.879</t>
-  </si>
-  <si>
-    <t>-0.838</t>
-  </si>
-  <si>
-    <t>-0.860</t>
-  </si>
-  <si>
-    <t>-0.033</t>
-  </si>
-  <si>
-    <t>0.014</t>
-  </si>
-  <si>
-    <t>-0.010</t>
-  </si>
-  <si>
-    <t>-0.025</t>
-  </si>
-  <si>
-    <t>-0.227</t>
-  </si>
-  <si>
     <t>-0.391</t>
   </si>
   <si>
-    <t>0.099</t>
-  </si>
-  <si>
-    <t>0.066</t>
-  </si>
-  <si>
-    <t>0.094</t>
-  </si>
-  <si>
-    <t>0.080</t>
-  </si>
-  <si>
-    <t>-0.237</t>
-  </si>
-  <si>
     <t>-0.418</t>
   </si>
   <si>
+    <t>2.549</t>
+  </si>
+  <si>
     <t>1.772</t>
   </si>
   <si>
+    <t>-0.589</t>
+  </si>
+  <si>
+    <t>-0.969</t>
+  </si>
+  <si>
+    <t>-1.185</t>
+  </si>
+  <si>
+    <t>-1.334</t>
+  </si>
+  <si>
+    <t>-1.304</t>
+  </si>
+  <si>
+    <t>-1.140</t>
+  </si>
+  <si>
+    <t>-0.954</t>
+  </si>
+  <si>
+    <t>-0.710</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>-0.017</t>
+  </si>
+  <si>
     <t>2.619</t>
   </si>
   <si>
+    <t>2.620</t>
+  </si>
+  <si>
+    <t>2.617</t>
+  </si>
+  <si>
+    <t>2.618</t>
+  </si>
+  <si>
+    <t>2.611</t>
+  </si>
+  <si>
+    <t>2.615</t>
+  </si>
+  <si>
+    <t>2.621</t>
+  </si>
+  <si>
+    <t>2.622</t>
+  </si>
+  <si>
     <t>0.407</t>
   </si>
   <si>
+    <t>-2.833</t>
+  </si>
+  <si>
+    <t>-2.630</t>
+  </si>
+  <si>
+    <t>-2.346</t>
+  </si>
+  <si>
+    <t>-2.077</t>
+  </si>
+  <si>
+    <t>-1.820</t>
+  </si>
+  <si>
+    <t>-1.575</t>
+  </si>
+  <si>
+    <t>-1.064</t>
+  </si>
+  <si>
+    <t>-0.599</t>
+  </si>
+  <si>
+    <t>0.457</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>1.164</t>
+  </si>
+  <si>
     <t>2.636</t>
   </si>
   <si>
+    <t>2.627</t>
+  </si>
+  <si>
+    <t>2.632</t>
+  </si>
+  <si>
+    <t>2.634</t>
+  </si>
+  <si>
+    <t>2.635</t>
+  </si>
+  <si>
+    <t>2.631</t>
+  </si>
+  <si>
+    <t>2.633</t>
+  </si>
+  <si>
+    <t>2.630</t>
+  </si>
+  <si>
     <t>-0.381</t>
   </si>
   <si>
+    <t>-3.463</t>
+  </si>
+  <si>
+    <t>-3.077</t>
+  </si>
+  <si>
+    <t>-2.647</t>
+  </si>
+  <si>
+    <t>-2.256</t>
+  </si>
+  <si>
+    <t>-1.968</t>
+  </si>
+  <si>
+    <t>-1.629</t>
+  </si>
+  <si>
+    <t>-1.154</t>
+  </si>
+  <si>
+    <t>-0.598</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.480</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>1.365</t>
+  </si>
+  <si>
     <t>2.648</t>
   </si>
   <si>
+    <t>2.649</t>
+  </si>
+  <si>
+    <t>2.646</t>
+  </si>
+  <si>
+    <t>2.643</t>
+  </si>
+  <si>
+    <t>2.650</t>
+  </si>
+  <si>
+    <t>2.647</t>
+  </si>
+  <si>
+    <t>2.651</t>
+  </si>
+  <si>
+    <t>2.652</t>
+  </si>
+  <si>
+    <t>2.645</t>
+  </si>
+  <si>
     <t>-1.828</t>
   </si>
   <si>
+    <t>-4.462</t>
+  </si>
+  <si>
+    <t>-3.755</t>
+  </si>
+  <si>
+    <t>-3.110</t>
+  </si>
+  <si>
+    <t>-2.505</t>
+  </si>
+  <si>
+    <t>-2.023</t>
+  </si>
+  <si>
+    <t>-1.618</t>
+  </si>
+  <si>
+    <t>-1.197</t>
+  </si>
+  <si>
+    <t>-0.520</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
+    <t>0.908</t>
+  </si>
+  <si>
+    <t>1.128</t>
+  </si>
+  <si>
+    <t>1.596</t>
+  </si>
+  <si>
     <t>2.658</t>
   </si>
   <si>
+    <t>2.663</t>
+  </si>
+  <si>
+    <t>2.653</t>
+  </si>
+  <si>
+    <t>2.655</t>
+  </si>
+  <si>
+    <t>2.654</t>
+  </si>
+  <si>
     <t>-2.978</t>
   </si>
   <si>
-    <t>2.651</t>
-  </si>
-  <si>
-    <t>-3.755</t>
+    <t>-5.097</t>
+  </si>
+  <si>
+    <t>-4.344</t>
+  </si>
+  <si>
+    <t>-2.942</t>
+  </si>
+  <si>
+    <t>-2.555</t>
+  </si>
+  <si>
+    <t>-2.044</t>
+  </si>
+  <si>
+    <t>-1.540</t>
+  </si>
+  <si>
+    <t>-1.062</t>
+  </si>
+  <si>
+    <t>-0.303</t>
+  </si>
+  <si>
+    <t>-0.029</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>1.246</t>
+  </si>
+  <si>
+    <t>1.713</t>
+  </si>
+  <si>
+    <t>2.656</t>
+  </si>
+  <si>
+    <t>2.657</t>
+  </si>
+  <si>
+    <t>-5.552</t>
+  </si>
+  <si>
+    <t>-5.025</t>
+  </si>
+  <si>
+    <t>-3.167</t>
+  </si>
+  <si>
+    <t>-2.545</t>
+  </si>
+  <si>
+    <t>-1.953</t>
+  </si>
+  <si>
+    <t>-1.370</t>
+  </si>
+  <si>
+    <t>-0.226</t>
+  </si>
+  <si>
+    <t>-0.187</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>0.546</t>
+  </si>
+  <si>
+    <t>0.711</t>
+  </si>
+  <si>
+    <t>0.895</t>
+  </si>
+  <si>
+    <t>1.035</t>
+  </si>
+  <si>
+    <t>1.315</t>
+  </si>
+  <si>
+    <t>1.758</t>
   </si>
   <si>
     <t>-4.862</t>
   </si>
   <si>
-    <t>-0.589</t>
-  </si>
-  <si>
-    <t>2.620</t>
-  </si>
-  <si>
-    <t>-2.833</t>
-  </si>
-  <si>
-    <t>2.627</t>
-  </si>
-  <si>
-    <t>-3.463</t>
-  </si>
-  <si>
-    <t>2.649</t>
-  </si>
-  <si>
-    <t>-4.462</t>
-  </si>
-  <si>
-    <t>2.652</t>
-  </si>
-  <si>
-    <t>-5.097</t>
-  </si>
-  <si>
-    <t>2.656</t>
-  </si>
-  <si>
-    <t>-5.552</t>
-  </si>
-  <si>
-    <t>2.654</t>
-  </si>
-  <si>
     <t>-6.235</t>
   </si>
   <si>
-    <t>-0.969</t>
-  </si>
-  <si>
-    <t>-2.630</t>
-  </si>
-  <si>
-    <t>2.632</t>
-  </si>
-  <si>
-    <t>-3.077</t>
-  </si>
-  <si>
-    <t>2.646</t>
-  </si>
-  <si>
-    <t>2.663</t>
-  </si>
-  <si>
-    <t>-4.344</t>
-  </si>
-  <si>
-    <t>-5.025</t>
-  </si>
-  <si>
     <t>-5.344</t>
   </si>
   <si>
-    <t>-1.185</t>
-  </si>
-  <si>
-    <t>2.617</t>
-  </si>
-  <si>
-    <t>-2.346</t>
-  </si>
-  <si>
-    <t>-2.647</t>
-  </si>
-  <si>
-    <t>2.643</t>
-  </si>
-  <si>
-    <t>-3.110</t>
-  </si>
-  <si>
-    <t>2.653</t>
-  </si>
-  <si>
-    <t>-2.942</t>
-  </si>
-  <si>
-    <t>2.655</t>
-  </si>
-  <si>
-    <t>-3.167</t>
-  </si>
-  <si>
     <t>-3.334</t>
   </si>
   <si>
-    <t>-1.334</t>
-  </si>
-  <si>
-    <t>-2.077</t>
-  </si>
-  <si>
-    <t>-2.256</t>
-  </si>
-  <si>
-    <t>-2.505</t>
-  </si>
-  <si>
-    <t>-2.555</t>
-  </si>
-  <si>
-    <t>2.657</t>
-  </si>
-  <si>
-    <t>-2.545</t>
-  </si>
-  <si>
     <t>-2.454</t>
   </si>
   <si>
-    <t>-1.304</t>
-  </si>
-  <si>
-    <t>2.618</t>
-  </si>
-  <si>
-    <t>-1.820</t>
-  </si>
-  <si>
-    <t>2.634</t>
-  </si>
-  <si>
-    <t>-1.968</t>
-  </si>
-  <si>
-    <t>2.650</t>
-  </si>
-  <si>
-    <t>-2.023</t>
-  </si>
-  <si>
-    <t>-2.044</t>
-  </si>
-  <si>
-    <t>-1.953</t>
-  </si>
-  <si>
     <t>-1.753</t>
   </si>
   <si>
-    <t>-1.140</t>
-  </si>
-  <si>
-    <t>2.611</t>
-  </si>
-  <si>
-    <t>-1.575</t>
-  </si>
-  <si>
-    <t>2.635</t>
-  </si>
-  <si>
-    <t>-1.629</t>
-  </si>
-  <si>
-    <t>-1.618</t>
-  </si>
-  <si>
-    <t>-1.540</t>
-  </si>
-  <si>
-    <t>-1.370</t>
-  </si>
-  <si>
     <t>-1.134</t>
   </si>
   <si>
-    <t>-0.954</t>
-  </si>
-  <si>
-    <t>2.615</t>
-  </si>
-  <si>
-    <t>-1.064</t>
-  </si>
-  <si>
-    <t>-1.154</t>
-  </si>
-  <si>
-    <t>2.647</t>
-  </si>
-  <si>
-    <t>-1.197</t>
-  </si>
-  <si>
-    <t>-1.062</t>
-  </si>
-  <si>
     <t>-0.622</t>
   </si>
   <si>
-    <t>-0.710</t>
-  </si>
-  <si>
-    <t>-0.599</t>
-  </si>
-  <si>
-    <t>2.631</t>
-  </si>
-  <si>
-    <t>-0.598</t>
-  </si>
-  <si>
-    <t>-0.520</t>
-  </si>
-  <si>
-    <t>-0.303</t>
-  </si>
-  <si>
-    <t>2.645</t>
-  </si>
-  <si>
-    <t>-0.226</t>
-  </si>
-  <si>
     <t>-0.390</t>
   </si>
   <si>
-    <t>2.633</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>0.091</t>
-  </si>
-  <si>
-    <t>-0.029</t>
-  </si>
-  <si>
-    <t>-0.187</t>
-  </si>
-  <si>
     <t>-0.410</t>
   </si>
   <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>2.621</t>
-  </si>
-  <si>
-    <t>0.457</t>
-  </si>
-  <si>
-    <t>2.630</t>
-  </si>
-  <si>
-    <t>0.480</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
     <t>0.272</t>
   </si>
   <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>0.582</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.546</t>
-  </si>
-  <si>
     <t>0.508</t>
   </si>
   <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.706</t>
-  </si>
-  <si>
-    <t>0.711</t>
-  </si>
-  <si>
     <t>0.712</t>
   </si>
   <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>2.622</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.808</t>
-  </si>
-  <si>
-    <t>0.895</t>
-  </si>
-  <si>
     <t>0.934</t>
   </si>
   <si>
-    <t>0.115</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.759</t>
-  </si>
-  <si>
-    <t>0.908</t>
-  </si>
-  <si>
-    <t>0.990</t>
-  </si>
-  <si>
-    <t>1.035</t>
-  </si>
-  <si>
     <t>1.093</t>
   </si>
   <si>
-    <t>2.549</t>
-  </si>
-  <si>
-    <t>0.749</t>
-  </si>
-  <si>
-    <t>0.917</t>
-  </si>
-  <si>
-    <t>1.128</t>
-  </si>
-  <si>
-    <t>1.246</t>
-  </si>
-  <si>
-    <t>1.315</t>
-  </si>
-  <si>
     <t>1.395</t>
-  </si>
-  <si>
-    <t>-0.017</t>
-  </si>
-  <si>
-    <t>1.164</t>
-  </si>
-  <si>
-    <t>1.365</t>
-  </si>
-  <si>
-    <t>1.596</t>
-  </si>
-  <si>
-    <t>1.713</t>
-  </si>
-  <si>
-    <t>1.758</t>
   </si>
   <si>
     <t>1.802</t>
@@ -1379,7 +1373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1443,21 +1437,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1495,7 +1481,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1529,7 +1515,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1564,10 +1549,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1740,7 +1724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1949,25 +1933,25 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.55489021956087825</v>
+        <v>0.5548902195608783</v>
       </c>
       <c r="D2">
-        <v>33.015060731474989</v>
+        <v>33.01506073147499</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I2">
-        <v>0.22555512271133621</v>
+        <v>0.2255551227113362</v>
       </c>
       <c r="J2">
         <v>33.42113307970093</v>
@@ -1976,163 +1960,163 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="O2">
-        <v>4.0216550657385927E-2</v>
+        <v>0.04021655065738593</v>
       </c>
       <c r="P2">
-        <v>33.544590587383453</v>
+        <v>33.54459058738345</v>
       </c>
       <c r="Q2">
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="T2" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="U2">
-        <v>-0.21502491376006139</v>
+        <v>-0.2150249137600614</v>
       </c>
       <c r="V2">
-        <v>33.693433911905153</v>
+        <v>33.69343391190515</v>
       </c>
       <c r="W2">
         <v>8</v>
       </c>
       <c r="Y2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="AA2">
         <v>0.3380171740827479</v>
       </c>
       <c r="AB2">
-        <v>33.388568390023337</v>
+        <v>33.38856839002334</v>
       </c>
       <c r="AC2">
         <v>10</v>
       </c>
       <c r="AE2" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="AF2" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="AG2">
         <v>0.2847630238934587</v>
       </c>
       <c r="AH2">
-        <v>33.329871769672323</v>
+        <v>33.32987176967232</v>
       </c>
       <c r="AI2">
         <v>12</v>
       </c>
       <c r="AK2" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="AL2" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="AM2">
         <v>0.2078585461689588</v>
       </c>
       <c r="AN2">
-        <v>33.277610080495514</v>
+        <v>33.27761008049551</v>
       </c>
       <c r="AO2">
         <v>14</v>
       </c>
       <c r="AQ2" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="AR2" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="AS2">
-        <v>0.33986128110975111</v>
+        <v>0.3398612811097511</v>
       </c>
       <c r="AT2">
-        <v>32.657271064621852</v>
+        <v>32.65727106462185</v>
       </c>
       <c r="AU2">
         <v>-4</v>
       </c>
       <c r="AW2" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="AX2" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="AY2">
-        <v>0.10715763342987179</v>
+        <v>0.1071576334298718</v>
       </c>
       <c r="AZ2">
-        <v>32.429971021520352</v>
+        <v>32.42997102152035</v>
       </c>
       <c r="BA2">
         <v>-6</v>
       </c>
       <c r="BC2" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="BD2" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="BE2">
-        <v>-0.19482686691697959</v>
+        <v>-0.1948268669169796</v>
       </c>
       <c r="BF2">
-        <v>32.295517826370151</v>
+        <v>32.29551782637015</v>
       </c>
       <c r="BG2">
         <v>-8</v>
       </c>
       <c r="BI2" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="BJ2" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="BK2">
-        <v>-0.48126315789473678</v>
+        <v>-0.4812631578947368</v>
       </c>
       <c r="BL2">
-        <v>32.146969810727249</v>
+        <v>32.14696981072725</v>
       </c>
       <c r="BM2">
         <v>-10</v>
       </c>
       <c r="BO2" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="BP2" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="BQ2">
-        <v>-8.2842724978973922E-2</v>
+        <v>-0.08284272497897392</v>
       </c>
       <c r="BR2">
-        <v>32.167266752543618</v>
+        <v>32.16726675254362</v>
       </c>
       <c r="BS2">
         <v>-12</v>
       </c>
       <c r="BU2" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="BV2" t="s">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="BW2">
-        <v>-1.4208106978687841E-2</v>
+        <v>-0.01420810697868784</v>
       </c>
       <c r="BX2">
         <v>32.26855996038158</v>
@@ -2146,193 +2130,193 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>-0.42155688622754489</v>
+        <v>-0.4215568862275449</v>
       </c>
       <c r="D3">
-        <v>33.015060731474989</v>
+        <v>33.01506073147499</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>-0.71011673151750976</v>
+        <v>-0.7101167315175098</v>
       </c>
       <c r="J3">
-        <v>33.440656671910141</v>
+        <v>33.44065667191014</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="O3">
         <v>-1.000772499034376</v>
       </c>
       <c r="P3">
-        <v>33.564042366685563</v>
+        <v>33.56404236668556</v>
       </c>
       <c r="Q3">
         <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="U3">
-        <v>-1.3035645841318511</v>
+        <v>-1.303564584131851</v>
       </c>
       <c r="V3">
-        <v>33.693433911905153</v>
+        <v>33.69343391190515</v>
       </c>
       <c r="W3">
         <v>8</v>
       </c>
       <c r="Y3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AA3">
-        <v>-0.33840749414519911</v>
+        <v>-0.3384074941451991</v>
       </c>
       <c r="AB3">
-        <v>33.388568390023337</v>
+        <v>33.38856839002334</v>
       </c>
       <c r="AC3">
         <v>10</v>
       </c>
       <c r="AE3" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="AF3" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="AG3">
-        <v>-0.27012171181782479</v>
+        <v>-0.2701217118178248</v>
       </c>
       <c r="AH3">
-        <v>33.290683194368697</v>
+        <v>33.2906831943687</v>
       </c>
       <c r="AI3">
         <v>12</v>
       </c>
       <c r="AK3" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AL3" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AM3">
-        <v>-0.26214733542319751</v>
+        <v>-0.2621473354231975</v>
       </c>
       <c r="AN3">
-        <v>33.323343540881922</v>
+        <v>33.32334354088192</v>
       </c>
       <c r="AO3">
         <v>14</v>
       </c>
       <c r="AQ3" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="AR3" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="AS3">
-        <v>2.1189894050529741E-2</v>
+        <v>0.02118989405052974</v>
       </c>
       <c r="AT3">
-        <v>32.677251042669972</v>
+        <v>32.67725104266997</v>
       </c>
       <c r="AU3">
         <v>-4</v>
       </c>
       <c r="AW3" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="AX3" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="AY3">
-        <v>0.16184971098265899</v>
+        <v>0.161849710982659</v>
       </c>
       <c r="AZ3">
-        <v>32.463497310863843</v>
+        <v>32.46349731086384</v>
       </c>
       <c r="BA3">
         <v>-6</v>
       </c>
       <c r="BC3" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="BD3" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="BE3">
-        <v>0.26399331662489561</v>
+        <v>0.2639933166248956</v>
       </c>
       <c r="BF3">
-        <v>32.275301537799827</v>
+        <v>32.27530153779983</v>
       </c>
       <c r="BG3">
         <v>-8</v>
       </c>
       <c r="BI3" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="BJ3" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="BK3">
         <v>0.3208578637510513</v>
       </c>
       <c r="BL3">
-        <v>32.167266752543618</v>
+        <v>32.16726675254362</v>
       </c>
       <c r="BM3">
         <v>-10</v>
       </c>
       <c r="BO3" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="BP3" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="BQ3">
-        <v>0.29305263157894729</v>
+        <v>0.2930526315789473</v>
       </c>
       <c r="BR3">
-        <v>32.146969810727249</v>
+        <v>32.14696981072725</v>
       </c>
       <c r="BS3">
         <v>-12</v>
       </c>
       <c r="BU3" t="s">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="BV3" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="BW3">
         <v>0.2896060352053646</v>
       </c>
       <c r="BX3">
-        <v>32.221329423886303</v>
+        <v>32.2213294238863</v>
       </c>
       <c r="BY3">
         <v>-14</v>
@@ -2340,13 +2324,13 @@
     </row>
     <row r="4" spans="1:77">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>-0.38525896414342631</v>
+        <v>-0.3852589641434263</v>
       </c>
       <c r="D4">
         <v>33.04799346857228</v>
@@ -2355,73 +2339,73 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I4">
-        <v>-0.64781591263650551</v>
+        <v>-0.6478159126365055</v>
       </c>
       <c r="J4">
-        <v>33.401598075744687</v>
+        <v>33.40159807574469</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="O4">
-        <v>-0.53207109737248837</v>
+        <v>-0.5320710973724884</v>
       </c>
       <c r="P4">
-        <v>33.557559693063197</v>
+        <v>33.5575596930632</v>
       </c>
       <c r="Q4">
         <v>6</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="U4">
-        <v>-0.68788343558282206</v>
+        <v>-0.6878834355828221</v>
       </c>
       <c r="V4">
-        <v>33.686976138216338</v>
+        <v>33.68697613821634</v>
       </c>
       <c r="W4">
         <v>8</v>
       </c>
       <c r="Y4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="AA4">
-        <v>-0.37773437500000001</v>
+        <v>-0.377734375</v>
       </c>
       <c r="AB4">
-        <v>33.375533617560933</v>
+        <v>33.37553361756093</v>
       </c>
       <c r="AC4">
         <v>10</v>
       </c>
       <c r="AE4" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="AF4" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="AG4">
-        <v>-0.29510763209393343</v>
+        <v>-0.2951076320939334</v>
       </c>
       <c r="AH4">
         <v>33.34292439275724</v>
@@ -2430,103 +2414,103 @@
         <v>12</v>
       </c>
       <c r="AK4" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AL4" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="AM4">
-        <v>-0.29192789968652039</v>
+        <v>-0.2919278996865204</v>
       </c>
       <c r="AN4">
-        <v>33.323343540881922</v>
+        <v>33.32334354088192</v>
       </c>
       <c r="AO4">
         <v>14</v>
       </c>
       <c r="AQ4" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="AR4" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="AS4">
-        <v>-5.1062091503267973E-2</v>
+        <v>-0.05106209150326797</v>
       </c>
       <c r="AT4">
-        <v>32.637278855178756</v>
+        <v>32.63727885517876</v>
       </c>
       <c r="AU4">
         <v>-4</v>
       </c>
       <c r="AW4" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="AX4" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="AY4">
-        <v>5.9042113955408752E-2</v>
+        <v>0.05904211395540875</v>
       </c>
       <c r="AZ4">
-        <v>32.463497310863843</v>
+        <v>32.46349731086384</v>
       </c>
       <c r="BA4">
         <v>-6</v>
       </c>
       <c r="BC4" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="BD4" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="BE4">
-        <v>0.14560669456066941</v>
+        <v>0.1456066945606694</v>
       </c>
       <c r="BF4">
-        <v>32.248326772086223</v>
+        <v>32.24832677208622</v>
       </c>
       <c r="BG4">
         <v>-8</v>
       </c>
       <c r="BI4" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="BJ4" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="BK4">
         <v>0.2029535864978903</v>
       </c>
       <c r="BL4">
-        <v>32.113113066409419</v>
+        <v>32.11311306640942</v>
       </c>
       <c r="BM4">
         <v>-10</v>
       </c>
       <c r="BO4" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="BP4" t="s">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="BQ4">
-        <v>0.17810526315789471</v>
+        <v>0.1781052631578947</v>
       </c>
       <c r="BR4">
-        <v>32.146969810727249</v>
+        <v>32.14696981072725</v>
       </c>
       <c r="BS4">
         <v>-12</v>
       </c>
       <c r="BU4" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="BV4" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="BW4">
-        <v>0.17634768073547849</v>
+        <v>0.1763476807354785</v>
       </c>
       <c r="BX4">
         <v>32.26855996038158</v>
@@ -2537,55 +2521,55 @@
     </row>
     <row r="5" spans="1:77">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>-0.34994021522518931</v>
+        <v>-0.3499402152251893</v>
       </c>
       <c r="D5">
-        <v>33.041409547106703</v>
+        <v>33.0414095471067</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="I5">
-        <v>-0.38230709275136399</v>
+        <v>-0.382307092751364</v>
       </c>
       <c r="J5">
-        <v>33.414622680675549</v>
+        <v>33.41462268067555</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O5">
-        <v>-0.48726851851851849</v>
+        <v>-0.4872685185185185</v>
       </c>
       <c r="P5">
-        <v>33.583482879388072</v>
+        <v>33.58348287938807</v>
       </c>
       <c r="Q5">
         <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="T5" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="U5">
         <v>-0.5650172612197929</v>
@@ -2597,88 +2581,88 @@
         <v>8</v>
       </c>
       <c r="Y5" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="Z5" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AA5">
-        <v>-0.38895417156286721</v>
+        <v>-0.3889541715628672</v>
       </c>
       <c r="AB5">
-        <v>33.329871769672323</v>
+        <v>33.32987176967232</v>
       </c>
       <c r="AC5">
         <v>10</v>
       </c>
       <c r="AE5" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AF5" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AG5">
-        <v>-0.31034482758620691</v>
+        <v>-0.3103448275862069</v>
       </c>
       <c r="AH5">
-        <v>33.323343540881922</v>
+        <v>33.32334354088192</v>
       </c>
       <c r="AI5">
         <v>12</v>
       </c>
       <c r="AK5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="AL5" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="AM5">
         <v>-0.3011341415721549</v>
       </c>
       <c r="AN5">
-        <v>33.355971908182362</v>
+        <v>33.35597190818236</v>
       </c>
       <c r="AO5">
         <v>14</v>
       </c>
       <c r="AQ5" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="AR5" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="AS5">
-        <v>-7.9934747145187612E-2</v>
+        <v>-0.07993474714518761</v>
       </c>
       <c r="AT5">
-        <v>32.663932415239749</v>
+        <v>32.66393241523975</v>
       </c>
       <c r="AU5">
         <v>-4</v>
       </c>
       <c r="AW5" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="AX5" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="AY5">
-        <v>1.1161637040099211E-2</v>
+        <v>0.01116163704009921</v>
       </c>
       <c r="AZ5">
-        <v>32.443385694698627</v>
+        <v>32.44338569469863</v>
       </c>
       <c r="BA5">
         <v>-6</v>
       </c>
       <c r="BC5" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="BD5" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="BE5">
-        <v>8.6430062630480156E-2</v>
+        <v>0.08643006263048016</v>
       </c>
       <c r="BF5">
         <v>32.28204170734972</v>
@@ -2687,46 +2671,46 @@
         <v>-8</v>
       </c>
       <c r="BI5" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="BJ5" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="BK5">
-        <v>0.14039512400168139</v>
+        <v>0.1403951240016814</v>
       </c>
       <c r="BL5">
-        <v>32.174029554416407</v>
+        <v>32.17402955441641</v>
       </c>
       <c r="BM5">
         <v>-10</v>
       </c>
       <c r="BO5" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="BP5" t="s">
-        <v>94</v>
+        <v>276</v>
       </c>
       <c r="BQ5">
         <v>0.1106436684896929</v>
       </c>
       <c r="BR5">
-        <v>32.160502528569651</v>
+        <v>32.16050252856965</v>
       </c>
       <c r="BS5">
         <v>-12</v>
       </c>
       <c r="BU5" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="BV5" t="s">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="BW5">
-        <v>0.10599078341013821</v>
+        <v>0.1059907834101382</v>
       </c>
       <c r="BX5">
-        <v>32.228080881147172</v>
+        <v>32.22808088114717</v>
       </c>
       <c r="BY5">
         <v>-14</v>
@@ -2734,13 +2718,13 @@
     </row>
     <row r="6" spans="1:77">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>-0.32788193059433579</v>
+        <v>-0.3278819305943358</v>
       </c>
       <c r="D6">
         <v>33.02823776681565</v>
@@ -2749,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="I6">
-        <v>-0.35683677444487732</v>
+        <v>-0.3568367744448773</v>
       </c>
       <c r="J6">
         <v>33.42113307970093</v>
@@ -2764,13 +2748,13 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="O6">
-        <v>-0.42702702702702711</v>
+        <v>-0.4270270270270271</v>
       </c>
       <c r="P6">
         <v>33.57052378846398</v>
@@ -2779,58 +2763,58 @@
         <v>6</v>
       </c>
       <c r="S6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="T6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U6">
         <v>-0.4796623177283193</v>
       </c>
       <c r="V6">
-        <v>33.674056875559742</v>
+        <v>33.67405687555974</v>
       </c>
       <c r="W6">
         <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AA6">
         <v>-0.389387436597737</v>
       </c>
       <c r="AB6">
-        <v>33.395083868354462</v>
+        <v>33.39508386835446</v>
       </c>
       <c r="AC6">
         <v>10</v>
       </c>
       <c r="AE6" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="AF6" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AG6">
-        <v>-0.31010180109631952</v>
+        <v>-0.3101018010963195</v>
       </c>
       <c r="AH6">
-        <v>33.336398720047157</v>
+        <v>33.33639872004716</v>
       </c>
       <c r="AI6">
         <v>12</v>
       </c>
       <c r="AK6" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="AL6" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="AM6">
-        <v>-0.30332681017612517</v>
+        <v>-0.3033268101761252</v>
       </c>
       <c r="AN6">
         <v>33.34292439275724</v>
@@ -2839,43 +2823,43 @@
         <v>14</v>
       </c>
       <c r="AQ6" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="AR6" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="AS6">
         <v>-0.1012244897959184</v>
       </c>
       <c r="AT6">
-        <v>32.650608354960617</v>
+        <v>32.65060835496062</v>
       </c>
       <c r="AU6">
         <v>-4</v>
       </c>
       <c r="AW6" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="AX6" t="s">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="AY6">
-        <v>-2.564102564102564E-2</v>
+        <v>-0.02564102564102564</v>
       </c>
       <c r="AZ6">
-        <v>32.436679051589309</v>
+        <v>32.43667905158931</v>
       </c>
       <c r="BA6">
         <v>-6</v>
       </c>
       <c r="BC6" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="BD6" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="BE6">
-        <v>3.7578288100208773E-2</v>
+        <v>0.03757828810020877</v>
       </c>
       <c r="BF6">
         <v>32.28204170734972</v>
@@ -2884,46 +2868,46 @@
         <v>-8</v>
       </c>
       <c r="BI6" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="BJ6" t="s">
-        <v>113</v>
+        <v>261</v>
       </c>
       <c r="BK6">
-        <v>8.452481076534904E-2</v>
+        <v>0.08452481076534904</v>
       </c>
       <c r="BL6">
-        <v>32.167266752543618</v>
+        <v>32.16726675254362</v>
       </c>
       <c r="BM6">
         <v>-10</v>
       </c>
       <c r="BO6" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="BP6" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="BQ6">
-        <v>5.6326187473728459E-2</v>
+        <v>0.05632618747372846</v>
       </c>
       <c r="BR6">
-        <v>32.174029554416407</v>
+        <v>32.17402955441641</v>
       </c>
       <c r="BS6">
         <v>-12</v>
       </c>
       <c r="BU6" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="BV6" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="BW6">
-        <v>4.901550062840386E-2</v>
+        <v>0.04901550062840386</v>
       </c>
       <c r="BX6">
-        <v>32.228080881147172</v>
+        <v>32.22808088114717</v>
       </c>
       <c r="BY6">
         <v>-14</v>
@@ -2931,70 +2915,70 @@
     </row>
     <row r="7" spans="1:77">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>-0.30766161213088589</v>
+        <v>-0.3076616121308859</v>
       </c>
       <c r="D7">
-        <v>33.021649906419647</v>
+        <v>33.02164990641965</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I7">
-        <v>-0.33840749414519911</v>
+        <v>-0.3384074941451991</v>
       </c>
       <c r="J7">
-        <v>33.388568390023337</v>
+        <v>33.38856839002334</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="O7">
-        <v>-0.39365815931941223</v>
+        <v>-0.3936581593194122</v>
       </c>
       <c r="P7">
-        <v>33.544590587383453</v>
+        <v>33.54459058738345</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="T7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="U7">
-        <v>-0.43443251533742328</v>
+        <v>-0.4344325153374233</v>
       </c>
       <c r="V7">
-        <v>33.686976138216338</v>
+        <v>33.68697613821634</v>
       </c>
       <c r="W7">
         <v>8</v>
       </c>
       <c r="Y7" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Z7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA7">
         <v>-0.4152707440592131</v>
@@ -3006,13 +2990,13 @@
         <v>10</v>
       </c>
       <c r="AE7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AF7" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="AG7">
-        <v>-0.31618224666142969</v>
+        <v>-0.3161822466614297</v>
       </c>
       <c r="AH7">
         <v>33.28414727927786</v>
@@ -3021,106 +3005,106 @@
         <v>12</v>
       </c>
       <c r="AK7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AL7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AM7">
-        <v>-0.32026656213249699</v>
+        <v>-0.320266562132497</v>
       </c>
       <c r="AN7">
-        <v>33.316814032924484</v>
+        <v>33.31681403292448</v>
       </c>
       <c r="AO7">
         <v>14</v>
       </c>
       <c r="AQ7" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="AR7" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="AS7">
         <v>-0.1141459437423563</v>
       </c>
       <c r="AT7">
-        <v>32.670592407645643</v>
+        <v>32.67059240764564</v>
       </c>
       <c r="AU7">
         <v>-4</v>
       </c>
       <c r="AW7" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="AX7" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="AY7">
-        <v>-4.7068538398018167E-2</v>
+        <v>-0.04706853839801817</v>
       </c>
       <c r="AZ7">
-        <v>32.463497310863843</v>
+        <v>32.46349731086384</v>
       </c>
       <c r="BA7">
         <v>-6</v>
       </c>
       <c r="BC7" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="BD7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="BE7">
-        <v>9.1819699499165273E-3</v>
+        <v>0.009181969949916527</v>
       </c>
       <c r="BF7">
-        <v>32.288780469912908</v>
+        <v>32.28878046991291</v>
       </c>
       <c r="BG7">
         <v>-8</v>
       </c>
       <c r="BI7" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="BJ7" t="s">
-        <v>131</v>
+        <v>262</v>
       </c>
       <c r="BK7">
-        <v>5.1680672268907567E-2</v>
+        <v>0.05168067226890757</v>
       </c>
       <c r="BL7">
-        <v>32.180790935084609</v>
+        <v>32.18079093508461</v>
       </c>
       <c r="BM7">
         <v>-10</v>
       </c>
       <c r="BO7" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="BP7" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="BQ7">
-        <v>1.8074821353509879E-2</v>
+        <v>0.01807482135350988</v>
       </c>
       <c r="BR7">
-        <v>32.174029554416407</v>
+        <v>32.17402955441641</v>
       </c>
       <c r="BS7">
         <v>-12</v>
       </c>
       <c r="BU7" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="BV7" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="BW7">
-        <v>8.368200836820083E-3</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="BX7">
-        <v>32.248326772086223</v>
+        <v>32.24832677208622</v>
       </c>
       <c r="BY7">
         <v>-14</v>
@@ -3128,58 +3112,58 @@
     </row>
     <row r="8" spans="1:77">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>-0.2838375796178344</v>
       </c>
       <c r="D8">
-        <v>33.061157378064102</v>
+        <v>33.0611573780641</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="I8">
-        <v>-0.30187207488299528</v>
+        <v>-0.3018720748829953</v>
       </c>
       <c r="J8">
-        <v>33.401598075744687</v>
+        <v>33.40159807574469</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="O8">
-        <v>-0.34429400386847198</v>
+        <v>-0.344294003868472</v>
       </c>
       <c r="P8">
-        <v>33.538104153872673</v>
+        <v>33.53810415387267</v>
       </c>
       <c r="Q8">
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="T8" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="U8">
-        <v>-0.37495197848636191</v>
+        <v>-0.3749519784863619</v>
       </c>
       <c r="V8">
         <v>33.65466868267972</v>
@@ -3188,88 +3172,88 @@
         <v>8</v>
       </c>
       <c r="Y8" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="Z8" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="AA8">
         <v>-0.4001563110590074</v>
       </c>
       <c r="AB8">
-        <v>33.369014321939098</v>
+        <v>33.3690143219391</v>
       </c>
       <c r="AC8">
         <v>10</v>
       </c>
       <c r="AE8" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="AF8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG8">
-        <v>-0.31527287004318799</v>
+        <v>-0.315272870043188</v>
       </c>
       <c r="AH8">
-        <v>33.290683194368697</v>
+        <v>33.2906831943687</v>
       </c>
       <c r="AI8">
         <v>12</v>
       </c>
       <c r="AK8" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AL8" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="AM8">
-        <v>-0.31318681318681318</v>
+        <v>-0.3131868131868132</v>
       </c>
       <c r="AN8">
-        <v>33.297217826523969</v>
+        <v>33.29721782652397</v>
       </c>
       <c r="AO8">
         <v>14</v>
       </c>
       <c r="AQ8" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="AR8" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="AS8">
         <v>-0.1148208469055375</v>
       </c>
       <c r="AT8">
-        <v>32.690564243891558</v>
+        <v>32.69056424389156</v>
       </c>
       <c r="AU8">
         <v>-4</v>
       </c>
       <c r="AW8" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="AX8" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="AY8">
-        <v>-5.6175134242048751E-2</v>
+        <v>-0.05617513424204875</v>
       </c>
       <c r="AZ8">
-        <v>32.456794823477267</v>
+        <v>32.45679482347727</v>
       </c>
       <c r="BA8">
         <v>-6</v>
       </c>
       <c r="BC8" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="BD8" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="BE8">
-        <v>-8.7792642140468238E-3</v>
+        <v>-0.008779264214046824</v>
       </c>
       <c r="BF8">
         <v>32.26181697421238</v>
@@ -3278,28 +3262,28 @@
         <v>-8</v>
       </c>
       <c r="BI8" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="BJ8" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="BK8">
-        <v>2.8607488430795129E-2</v>
+        <v>0.02860748843079513</v>
       </c>
       <c r="BL8">
-        <v>32.160502528569651</v>
+        <v>32.16050252856965</v>
       </c>
       <c r="BM8">
         <v>-10</v>
       </c>
       <c r="BO8" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="BP8" t="s">
-        <v>154</v>
+        <v>278</v>
       </c>
       <c r="BQ8">
-        <v>-3.787878787878788E-3</v>
+        <v>-0.003787878787878788</v>
       </c>
       <c r="BR8">
         <v>32.15373688159702</v>
@@ -3308,16 +3292,16 @@
         <v>-12</v>
       </c>
       <c r="BU8" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="BV8" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="BW8">
-        <v>-2.093802345058627E-2</v>
+        <v>-0.02093802345058627</v>
       </c>
       <c r="BX8">
-        <v>32.234830924342177</v>
+        <v>32.23483092434218</v>
       </c>
       <c r="BY8">
         <v>-14</v>
@@ -3325,43 +3309,43 @@
     </row>
     <row r="9" spans="1:77">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>-0.25408203902827559</v>
+        <v>-0.2540820390282756</v>
       </c>
       <c r="D9">
-        <v>33.054576078630312</v>
+        <v>33.05457607863031</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="I9">
-        <v>-0.26227591582229148</v>
+        <v>-0.2622759158222915</v>
       </c>
       <c r="J9">
-        <v>33.414622680675549</v>
+        <v>33.41462268067555</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="O9">
-        <v>-0.29343629343629352</v>
+        <v>-0.2934362934362935</v>
       </c>
       <c r="P9">
         <v>33.57052378846398</v>
@@ -3370,103 +3354,103 @@
         <v>6</v>
       </c>
       <c r="S9" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="T9" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="U9">
-        <v>-0.31637337413925021</v>
+        <v>-0.3163733741392502</v>
       </c>
       <c r="V9">
-        <v>33.725704232406088</v>
+        <v>33.72570423240609</v>
       </c>
       <c r="W9">
         <v>8</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Z9" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="AA9">
-        <v>-0.39172844323058909</v>
+        <v>-0.3917284432305891</v>
       </c>
       <c r="AB9">
-        <v>33.395083868354462</v>
+        <v>33.39508386835446</v>
       </c>
       <c r="AC9">
         <v>10</v>
       </c>
       <c r="AE9" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="AG9">
         <v>-0.311764705882353</v>
       </c>
       <c r="AH9">
-        <v>33.310283245047778</v>
+        <v>33.31028324504778</v>
       </c>
       <c r="AI9">
         <v>12</v>
       </c>
       <c r="AK9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL9" t="s">
         <v>164</v>
       </c>
-      <c r="AL9" t="s">
-        <v>166</v>
-      </c>
       <c r="AM9">
-        <v>-0.31098039215686279</v>
+        <v>-0.3109803921568628</v>
       </c>
       <c r="AN9">
-        <v>33.310283245047778</v>
+        <v>33.31028324504778</v>
       </c>
       <c r="AO9">
         <v>14</v>
       </c>
       <c r="AQ9" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="AR9" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="AS9">
         <v>-0.1096616388096209</v>
       </c>
       <c r="AT9">
-        <v>32.670592407645643</v>
+        <v>32.67059240764564</v>
       </c>
       <c r="AU9">
         <v>-4</v>
       </c>
       <c r="AW9" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="AX9" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="AY9">
-        <v>-6.0231023102310231E-2</v>
+        <v>-0.06023102310231023</v>
       </c>
       <c r="AZ9">
-        <v>32.476898135917928</v>
+        <v>32.47689813591793</v>
       </c>
       <c r="BA9">
         <v>-6</v>
       </c>
       <c r="BC9" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="BD9" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="BE9">
-        <v>-2.1294363256784968E-2</v>
+        <v>-0.02129436325678497</v>
       </c>
       <c r="BF9">
         <v>32.28204170734972</v>
@@ -3475,46 +3459,46 @@
         <v>-8</v>
       </c>
       <c r="BI9" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="BJ9" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="BK9">
-        <v>9.2748735244519397E-3</v>
+        <v>0.00927487352445194</v>
       </c>
       <c r="BL9">
-        <v>32.126660045736479</v>
+        <v>32.12666004573648</v>
       </c>
       <c r="BM9">
         <v>-10</v>
       </c>
       <c r="BO9" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="BP9" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="BQ9">
-        <v>-2.5684210526315789E-2</v>
+        <v>-0.02568421052631579</v>
       </c>
       <c r="BR9">
-        <v>32.146969810727249</v>
+        <v>32.14696981072725</v>
       </c>
       <c r="BS9">
         <v>-12</v>
       </c>
       <c r="BU9" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="BV9" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="BW9">
-        <v>-4.6005855290673359E-2</v>
+        <v>-0.04600585529067336</v>
       </c>
       <c r="BX9">
-        <v>32.255072578408743</v>
+        <v>32.25507257840874</v>
       </c>
       <c r="BY9">
         <v>-14</v>
@@ -3522,148 +3506,148 @@
     </row>
     <row r="10" spans="1:77">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>-0.22837783977680351</v>
+        <v>-0.2283778397768035</v>
       </c>
       <c r="D10">
-        <v>33.041409547106703</v>
+        <v>33.0414095471067</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="I10">
         <v>-0.2299298519095869</v>
       </c>
       <c r="J10">
-        <v>33.414622680675549</v>
+        <v>33.41462268067555</v>
       </c>
       <c r="K10">
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="O10">
-        <v>-0.25386996904024772</v>
+        <v>-0.2538699690402477</v>
       </c>
       <c r="P10">
-        <v>33.531616465611208</v>
+        <v>33.53161646561121</v>
       </c>
       <c r="Q10">
         <v>6</v>
       </c>
       <c r="S10" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="T10" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="U10">
-        <v>-0.26761102603369058</v>
+        <v>-0.2676110260336906</v>
       </c>
       <c r="V10">
-        <v>33.712799810953243</v>
+        <v>33.71279981095324</v>
       </c>
       <c r="W10">
         <v>8</v>
       </c>
       <c r="Y10" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="Z10" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="AA10">
-        <v>-0.38695821944552911</v>
+        <v>-0.3869582194455291</v>
       </c>
       <c r="AB10">
-        <v>33.382051640007127</v>
+        <v>33.38205164000713</v>
       </c>
       <c r="AC10">
         <v>10</v>
       </c>
       <c r="AE10" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="AG10">
-        <v>-0.31215686274509807</v>
+        <v>-0.3121568627450981</v>
       </c>
       <c r="AH10">
-        <v>33.310283245047778</v>
+        <v>33.31028324504778</v>
       </c>
       <c r="AI10">
         <v>12</v>
       </c>
       <c r="AK10" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AM10">
-        <v>-0.31649040344692519</v>
+        <v>-0.3164904034469252</v>
       </c>
       <c r="AN10">
-        <v>33.329871769672323</v>
+        <v>33.32987176967232</v>
       </c>
       <c r="AO10">
         <v>14</v>
       </c>
       <c r="AQ10" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="AR10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AS10">
         <v>-0.1035889070146819</v>
       </c>
       <c r="AT10">
-        <v>32.663932415239749</v>
+        <v>32.66393241523975</v>
       </c>
       <c r="AU10">
         <v>-4</v>
       </c>
       <c r="AW10" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="AX10" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="AY10">
-        <v>-6.0355518809425378E-2</v>
+        <v>-0.06035551880942538</v>
       </c>
       <c r="AZ10">
-        <v>32.443385694698627</v>
+        <v>32.44338569469863</v>
       </c>
       <c r="BA10">
         <v>-6</v>
       </c>
       <c r="BC10" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="BD10" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="BE10">
-        <v>-2.7557411273486428E-2</v>
+        <v>-0.02755741127348643</v>
       </c>
       <c r="BF10">
         <v>32.28204170734972</v>
@@ -3672,43 +3656,43 @@
         <v>-8</v>
       </c>
       <c r="BI10" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="BJ10" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="BK10">
-        <v>-1.2642225031605559E-3</v>
+        <v>-0.001264222503160556</v>
       </c>
       <c r="BL10">
-        <v>32.133431393697798</v>
+        <v>32.1334313936978</v>
       </c>
       <c r="BM10">
         <v>-10</v>
       </c>
       <c r="BO10" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="BP10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="BQ10">
-        <v>-3.8687973086627407E-2</v>
+        <v>-0.03868797308662741</v>
       </c>
       <c r="BR10">
-        <v>32.167266752543618</v>
+        <v>32.16726675254362</v>
       </c>
       <c r="BS10">
         <v>-12</v>
       </c>
       <c r="BU10" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="BV10" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="BW10">
-        <v>-6.1429168407856248E-2</v>
+        <v>-0.06142916840785625</v>
       </c>
       <c r="BX10">
         <v>32.26855996038158</v>
@@ -3719,148 +3703,148 @@
     </row>
     <row r="11" spans="1:77">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>-0.2033492822966507</v>
       </c>
       <c r="D11">
-        <v>33.034824313449448</v>
+        <v>33.03482431344945</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.19563522992985191</v>
+        <v>-0.1956352299298519</v>
       </c>
       <c r="J11">
-        <v>33.414622680675549</v>
+        <v>33.41462268067555</v>
       </c>
       <c r="K11">
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="O11">
-        <v>-0.21284829721362231</v>
+        <v>-0.2128482972136223</v>
       </c>
       <c r="P11">
-        <v>33.531616465611208</v>
+        <v>33.53161646561121</v>
       </c>
       <c r="Q11">
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="T11" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="U11">
-        <v>-0.22196620583717361</v>
+        <v>-0.2219662058371736</v>
       </c>
       <c r="V11">
-        <v>33.661132654444437</v>
+        <v>33.66113265444444</v>
       </c>
       <c r="W11">
         <v>8</v>
       </c>
       <c r="Y11" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="AA11">
-        <v>-0.37343749999999998</v>
+        <v>-0.3734375</v>
       </c>
       <c r="AB11">
-        <v>33.375533617560933</v>
+        <v>33.37553361756093</v>
       </c>
       <c r="AC11">
         <v>10</v>
       </c>
       <c r="AE11" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="AF11" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="AG11">
-        <v>-0.30793278624462678</v>
+        <v>-0.3079327862446268</v>
       </c>
       <c r="AH11">
-        <v>33.369014321939098</v>
+        <v>33.3690143219391</v>
       </c>
       <c r="AI11">
         <v>12</v>
       </c>
       <c r="AK11" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="AL11" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="AM11">
-        <v>-0.31411764705882361</v>
+        <v>-0.3141176470588236</v>
       </c>
       <c r="AN11">
-        <v>33.310283245047778</v>
+        <v>33.31028324504778</v>
       </c>
       <c r="AO11">
         <v>14</v>
       </c>
       <c r="AQ11" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="AR11" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AS11">
-        <v>-9.3023255813953487E-2</v>
+        <v>-0.09302325581395349</v>
       </c>
       <c r="AT11">
-        <v>32.657271064621852</v>
+        <v>32.65727106462185</v>
       </c>
       <c r="AU11">
         <v>-4</v>
       </c>
       <c r="AW11" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="AX11" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="AY11">
-        <v>-5.5417700578990897E-2</v>
+        <v>-0.0554177005789909</v>
       </c>
       <c r="AZ11">
-        <v>32.436679051589309</v>
+        <v>32.43667905158931</v>
       </c>
       <c r="BA11">
         <v>-6</v>
       </c>
       <c r="BC11" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="BD11" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="BE11">
-        <v>-2.799832845800251E-2</v>
+        <v>-0.02799832845800251</v>
       </c>
       <c r="BF11">
         <v>32.26855996038158</v>
@@ -3869,13 +3853,13 @@
         <v>-8</v>
       </c>
       <c r="BI11" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="BJ11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="BK11">
-        <v>-5.8922558922558923E-3</v>
+        <v>-0.005892255892255892</v>
       </c>
       <c r="BL11">
         <v>32.15373688159702</v>
@@ -3884,31 +3868,31 @@
         <v>-10</v>
       </c>
       <c r="BO11" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="BP11" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="BQ11">
-        <v>-4.789915966386555E-2</v>
+        <v>-0.04789915966386555</v>
       </c>
       <c r="BR11">
-        <v>32.180790935084609</v>
+        <v>32.18079093508461</v>
       </c>
       <c r="BS11">
         <v>-12</v>
       </c>
       <c r="BU11" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="BV11" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="BW11">
-        <v>-7.3934837092731825E-2</v>
+        <v>-0.07393483709273183</v>
       </c>
       <c r="BX11">
-        <v>32.275301537799827</v>
+        <v>32.27530153779983</v>
       </c>
       <c r="BY11">
         <v>-14</v>
@@ -3916,103 +3900,103 @@
     </row>
     <row r="12" spans="1:77">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>-0.1798245614035088</v>
       </c>
       <c r="D12">
-        <v>33.034824313449448</v>
+        <v>33.03482431344945</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="I12">
-        <v>-0.16458658346333849</v>
+        <v>-0.1645865834633385</v>
       </c>
       <c r="J12">
-        <v>33.401598075744687</v>
+        <v>33.40159807574469</v>
       </c>
       <c r="K12">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N12" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="O12">
         <v>-0.1765842349304482</v>
       </c>
       <c r="P12">
-        <v>33.557559693063197</v>
+        <v>33.5575596930632</v>
       </c>
       <c r="Q12">
         <v>6</v>
       </c>
       <c r="S12" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="U12">
-        <v>-0.17937907244154849</v>
+        <v>-0.1793790724415485</v>
       </c>
       <c r="V12">
-        <v>33.693433911905153</v>
+        <v>33.69343391190515</v>
       </c>
       <c r="W12">
         <v>8</v>
       </c>
       <c r="Y12" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="AA12">
-        <v>-0.39828526890101329</v>
+        <v>-0.3982852689010133</v>
       </c>
       <c r="AB12">
-        <v>33.414622680675549</v>
+        <v>33.41462268067555</v>
       </c>
       <c r="AC12">
         <v>10</v>
       </c>
       <c r="AE12" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="AG12">
-        <v>-0.31007448059584469</v>
+        <v>-0.3100744805958447</v>
       </c>
       <c r="AH12">
-        <v>33.316814032924484</v>
+        <v>33.31681403292448</v>
       </c>
       <c r="AI12">
         <v>12</v>
       </c>
       <c r="AK12" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="AL12" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="AM12">
-        <v>-0.31702544031311147</v>
+        <v>-0.3170254403131115</v>
       </c>
       <c r="AN12">
         <v>33.34292439275724</v>
@@ -4021,43 +4005,43 @@
         <v>14</v>
       </c>
       <c r="AQ12" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="AR12" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="AS12">
-        <v>-8.2755809213208326E-2</v>
+        <v>-0.08275580921320833</v>
       </c>
       <c r="AT12">
-        <v>32.670592407645643</v>
+        <v>32.67059240764564</v>
       </c>
       <c r="AU12">
         <v>-4</v>
       </c>
       <c r="AW12" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AX12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AY12">
-        <v>-5.0931677018633541E-2</v>
+        <v>-0.05093167701863354</v>
       </c>
       <c r="AZ12">
-        <v>32.416550797059273</v>
+        <v>32.41655079705927</v>
       </c>
       <c r="BA12">
         <v>-6</v>
       </c>
       <c r="BC12" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="BD12" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="BE12">
-        <v>-2.9227557411273489E-2</v>
+        <v>-0.02922755741127349</v>
       </c>
       <c r="BF12">
         <v>32.28204170734972</v>
@@ -4066,43 +4050,43 @@
         <v>-8</v>
       </c>
       <c r="BI12" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="BJ12" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="BK12">
-        <v>-1.136842105263158E-2</v>
+        <v>-0.01136842105263158</v>
       </c>
       <c r="BL12">
-        <v>32.146969810727249</v>
+        <v>32.14696981072725</v>
       </c>
       <c r="BM12">
         <v>-10</v>
       </c>
       <c r="BO12" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="BP12" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="BQ12">
-        <v>-5.4178916421671573E-2</v>
+        <v>-0.05417891642167157</v>
       </c>
       <c r="BR12">
-        <v>32.187550895443827</v>
+        <v>32.18755089544383</v>
       </c>
       <c r="BS12">
         <v>-12</v>
       </c>
       <c r="BU12" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="BV12" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="BW12">
-        <v>-8.6430062630480156E-2</v>
+        <v>-0.08643006263048016</v>
       </c>
       <c r="BX12">
         <v>32.28204170734972</v>
@@ -4113,55 +4097,55 @@
     </row>
     <row r="13" spans="1:77">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>-0.1601437699680511</v>
       </c>
       <c r="D13">
-        <v>33.008470241194438</v>
+        <v>33.00847024119444</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="I13">
-        <v>-0.13723196881091621</v>
+        <v>-0.1372319688109162</v>
       </c>
       <c r="J13">
-        <v>33.408111012937468</v>
+        <v>33.40811101293747</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="O13">
-        <v>-0.14456899884035559</v>
+        <v>-0.1445689988403556</v>
       </c>
       <c r="P13">
-        <v>33.551075766871278</v>
+        <v>33.55107576687128</v>
       </c>
       <c r="Q13">
         <v>6</v>
       </c>
       <c r="S13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="T13" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="U13">
         <v>-0.1430763329497507</v>
@@ -4173,136 +4157,136 @@
         <v>8</v>
       </c>
       <c r="Y13" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="Z13" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="AA13">
-        <v>-0.37583105201407901</v>
+        <v>-0.375831052014079</v>
       </c>
       <c r="AB13">
-        <v>33.355971908182362</v>
+        <v>33.35597190818236</v>
       </c>
       <c r="AC13">
         <v>10</v>
       </c>
       <c r="AE13" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AF13" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="AG13">
-        <v>-0.31556252450019601</v>
+        <v>-0.315562524500196</v>
       </c>
       <c r="AH13">
-        <v>33.316814032924484</v>
+        <v>33.31681403292448</v>
       </c>
       <c r="AI13">
         <v>12</v>
       </c>
       <c r="AK13" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="AL13" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="AM13">
         <v>-0.3192156862745098</v>
       </c>
       <c r="AN13">
-        <v>33.310283245047778</v>
+        <v>33.31028324504778</v>
       </c>
       <c r="AO13">
         <v>14</v>
       </c>
       <c r="AQ13" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="AR13" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="AS13">
-        <v>-7.2793818625457501E-2</v>
+        <v>-0.0727938186254575</v>
       </c>
       <c r="AT13">
-        <v>32.710523886075109</v>
+        <v>32.71052388607511</v>
       </c>
       <c r="AU13">
         <v>-4</v>
       </c>
       <c r="AW13" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="AX13" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="AY13">
-        <v>-4.5454545454545463E-2</v>
+        <v>-0.04545454545454546</v>
       </c>
       <c r="AZ13">
-        <v>32.450090951708262</v>
+        <v>32.45009095170826</v>
       </c>
       <c r="BA13">
         <v>-6</v>
       </c>
       <c r="BC13" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="BD13" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="BE13">
-        <v>-2.8797996661101839E-2</v>
+        <v>-0.02879799666110184</v>
       </c>
       <c r="BF13">
-        <v>32.288780469912908</v>
+        <v>32.28878046991291</v>
       </c>
       <c r="BG13">
         <v>-8</v>
       </c>
       <c r="BI13" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="BJ13" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="BK13">
-        <v>-1.555929352396972E-2</v>
+        <v>-0.01555929352396972</v>
       </c>
       <c r="BL13">
-        <v>32.167266752543618</v>
+        <v>32.16726675254362</v>
       </c>
       <c r="BM13">
         <v>-10</v>
       </c>
       <c r="BO13" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="BP13" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="BQ13">
-        <v>-6.5044062106588335E-2</v>
+        <v>-0.06504406210658834</v>
       </c>
       <c r="BR13">
-        <v>32.201066558813118</v>
+        <v>32.20106655881312</v>
       </c>
       <c r="BS13">
         <v>-12</v>
       </c>
       <c r="BU13" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="BV13" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="BW13">
         <v>-0.1000834028356964</v>
       </c>
       <c r="BX13">
-        <v>32.302253777601273</v>
+        <v>32.30225377760127</v>
       </c>
       <c r="BY13">
         <v>-14</v>
@@ -4310,10 +4294,10 @@
     </row>
     <row r="14" spans="1:77">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>-0.1270916334661355</v>
@@ -4325,43 +4309,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="I14">
-        <v>-0.11106780982073269</v>
+        <v>-0.1110678098207327</v>
       </c>
       <c r="J14">
-        <v>33.414622680675549</v>
+        <v>33.41462268067555</v>
       </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="O14">
         <v>-0.1139436075704905</v>
       </c>
       <c r="P14">
-        <v>33.564042366685563</v>
+        <v>33.56404236668556</v>
       </c>
       <c r="Q14">
         <v>6</v>
       </c>
       <c r="S14" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="T14" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="U14">
-        <v>-0.10833653476757581</v>
+        <v>-0.1083365347675758</v>
       </c>
       <c r="V14">
         <v>33.65466868267972</v>
@@ -4370,136 +4354,136 @@
         <v>8</v>
       </c>
       <c r="Y14" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="Z14" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="AA14">
-        <v>-0.38404380132968319</v>
+        <v>-0.3840438013296832</v>
       </c>
       <c r="AB14">
-        <v>33.355971908182362</v>
+        <v>33.35597190818236</v>
       </c>
       <c r="AC14">
         <v>10</v>
       </c>
       <c r="AE14" t="s">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="AG14">
-        <v>-0.31665363565285382</v>
+        <v>-0.3166536356528538</v>
       </c>
       <c r="AH14">
-        <v>33.362493752395281</v>
+        <v>33.36249375239528</v>
       </c>
       <c r="AI14">
         <v>12</v>
       </c>
       <c r="AK14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AL14" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="AM14">
-        <v>-0.32535321821036112</v>
+        <v>-0.3253532182103611</v>
       </c>
       <c r="AN14">
-        <v>33.297217826523969</v>
+        <v>33.29721782652397</v>
       </c>
       <c r="AO14">
         <v>14</v>
       </c>
       <c r="AQ14" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="AR14" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="AS14">
-        <v>-6.2321792260692462E-2</v>
+        <v>-0.06232179226069246</v>
       </c>
       <c r="AT14">
-        <v>32.683908321142361</v>
+        <v>32.68390832114236</v>
       </c>
       <c r="AU14">
         <v>-4</v>
       </c>
       <c r="AW14" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="AX14" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="AY14">
-        <v>-3.893951946975973E-2</v>
+        <v>-0.03893951946975973</v>
       </c>
       <c r="AZ14">
-        <v>32.409838600942791</v>
+        <v>32.40983860094279</v>
       </c>
       <c r="BA14">
         <v>-6</v>
       </c>
       <c r="BC14" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="BD14" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="BE14">
-        <v>-2.678945165341147E-2</v>
+        <v>-0.02678945165341147</v>
       </c>
       <c r="BF14">
-        <v>32.241579554359447</v>
+        <v>32.24157955435945</v>
       </c>
       <c r="BG14">
         <v>-8</v>
       </c>
       <c r="BI14" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="BJ14" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="BK14">
-        <v>-1.6813787305590581E-2</v>
+        <v>-0.01681378730559058</v>
       </c>
       <c r="BL14">
-        <v>32.174029554416407</v>
+        <v>32.17402955441641</v>
       </c>
       <c r="BM14">
         <v>-10</v>
       </c>
       <c r="BO14" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="BP14" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="BQ14">
-        <v>-7.5146935348446672E-2</v>
+        <v>-0.07514693534844667</v>
       </c>
       <c r="BR14">
-        <v>32.194309436388743</v>
+        <v>32.19430943638874</v>
       </c>
       <c r="BS14">
         <v>-12</v>
       </c>
       <c r="BU14" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="BV14" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="BW14">
         <v>-0.1116687578419072</v>
       </c>
       <c r="BX14">
-        <v>32.255072578408743</v>
+        <v>32.25507257840874</v>
       </c>
       <c r="BY14">
         <v>-14</v>
@@ -4507,13 +4491,13 @@
     </row>
     <row r="15" spans="1:77">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>-8.0876494023904399E-2</v>
+        <v>-0.0808764940239044</v>
       </c>
       <c r="D15">
         <v>33.04799346857228</v>
@@ -4522,163 +4506,163 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="I15">
-        <v>-8.3528493364558948E-2</v>
+        <v>-0.08352849336455895</v>
       </c>
       <c r="J15">
-        <v>33.388568390023337</v>
+        <v>33.38856839002334</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="O15">
-        <v>-8.2334750676459206E-2</v>
+        <v>-0.08233475067645921</v>
       </c>
       <c r="P15">
-        <v>33.551075766871278</v>
+        <v>33.55107576687128</v>
       </c>
       <c r="Q15">
         <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>255</v>
+        <v>93</v>
       </c>
       <c r="T15" t="s">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c r="U15">
-        <v>-7.4856046065259127E-2</v>
+        <v>-0.07485604606525913</v>
       </c>
       <c r="V15">
-        <v>33.667595385166273</v>
+        <v>33.66759538516627</v>
       </c>
       <c r="W15">
         <v>8</v>
       </c>
       <c r="Y15" t="s">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="AA15">
-        <v>-0.36179337231968811</v>
+        <v>-0.3617933723196881</v>
       </c>
       <c r="AB15">
-        <v>33.408111012937468</v>
+        <v>33.40811101293747</v>
       </c>
       <c r="AC15">
         <v>10</v>
       </c>
       <c r="AE15" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="AG15">
-        <v>-0.32028191072826939</v>
+        <v>-0.3202819107282694</v>
       </c>
       <c r="AH15">
-        <v>33.336398720047157</v>
+        <v>33.33639872004716</v>
       </c>
       <c r="AI15">
         <v>12</v>
       </c>
       <c r="AK15" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="AM15">
-        <v>-0.32771462171697369</v>
+        <v>-0.3277146217169737</v>
       </c>
       <c r="AN15">
-        <v>33.316814032924484</v>
+        <v>33.31681403292448</v>
       </c>
       <c r="AO15">
         <v>14</v>
       </c>
       <c r="AQ15" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="AR15" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="AS15">
-        <v>-4.9735018344883808E-2</v>
+        <v>-0.04973501834488381</v>
       </c>
       <c r="AT15">
-        <v>32.670592407645643</v>
+        <v>32.67059240764564</v>
       </c>
       <c r="AU15">
         <v>-4</v>
       </c>
       <c r="AW15" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AX15" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="AY15">
-        <v>-2.9813664596273291E-2</v>
+        <v>-0.02981366459627329</v>
       </c>
       <c r="AZ15">
-        <v>32.416550797059273</v>
+        <v>32.41655079705927</v>
       </c>
       <c r="BA15">
         <v>-6</v>
       </c>
       <c r="BC15" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="BD15" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="BE15">
-        <v>-2.2974101921470341E-2</v>
+        <v>-0.02297410192147034</v>
       </c>
       <c r="BF15">
-        <v>32.275301537799827</v>
+        <v>32.27530153779983</v>
       </c>
       <c r="BG15">
         <v>-8</v>
       </c>
       <c r="BI15" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="BJ15" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="BK15">
-        <v>-1.682793437105596E-2</v>
+        <v>-0.01682793437105596</v>
       </c>
       <c r="BL15">
-        <v>32.160502528569651</v>
+        <v>32.16050252856965</v>
       </c>
       <c r="BM15">
         <v>-10</v>
       </c>
       <c r="BO15" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="BP15" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="BQ15">
-        <v>-7.4915824915824922E-2</v>
+        <v>-0.07491582491582492</v>
       </c>
       <c r="BR15">
         <v>32.15373688159702</v>
@@ -4687,10 +4671,10 @@
         <v>-12</v>
       </c>
       <c r="BU15" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="BV15" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="BW15">
         <v>-0.1237458193979933</v>
@@ -4704,196 +4688,196 @@
     </row>
     <row r="16" spans="1:77">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>-5.02192108409725E-2</v>
+        <v>-0.0502192108409725</v>
       </c>
       <c r="D16">
-        <v>33.041409547106703</v>
+        <v>33.0414095471067</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>55</v>
       </c>
       <c r="I16">
-        <v>-5.7812500000000003E-2</v>
+        <v>-0.0578125</v>
       </c>
       <c r="J16">
-        <v>33.375533617560933</v>
+        <v>33.37553361756093</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="O16">
-        <v>-5.2550231839258117E-2</v>
+        <v>-0.05255023183925812</v>
       </c>
       <c r="P16">
-        <v>33.557559693063197</v>
+        <v>33.5575596930632</v>
       </c>
       <c r="Q16">
         <v>6</v>
       </c>
       <c r="S16" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="T16" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="U16">
-        <v>-4.44104134762634E-2</v>
+        <v>-0.0444104134762634</v>
       </c>
       <c r="V16">
-        <v>33.712799810953243</v>
+        <v>33.71279981095324</v>
       </c>
       <c r="W16">
         <v>8</v>
       </c>
       <c r="Y16" t="s">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="Z16" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="AA16">
-        <v>-0.36082877247849893</v>
+        <v>-0.3608287724784989</v>
       </c>
       <c r="AB16">
-        <v>33.362493752395281</v>
+        <v>33.36249375239528</v>
       </c>
       <c r="AC16">
         <v>10</v>
       </c>
       <c r="AE16" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="AG16">
-        <v>-0.32131661442006271</v>
+        <v>-0.3213166144200627</v>
       </c>
       <c r="AH16">
-        <v>33.323343540881922</v>
+        <v>33.32334354088192</v>
       </c>
       <c r="AI16">
         <v>12</v>
       </c>
       <c r="AK16" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AL16" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="AM16">
-        <v>-0.32993730407523508</v>
+        <v>-0.3299373040752351</v>
       </c>
       <c r="AN16">
-        <v>33.323343540881922</v>
+        <v>33.32334354088192</v>
       </c>
       <c r="AO16">
         <v>14</v>
       </c>
       <c r="AQ16" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="AR16" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AS16">
-        <v>-3.7535699714402293E-2</v>
+        <v>-0.03753569971440229</v>
       </c>
       <c r="AT16">
-        <v>32.657271064621852</v>
+        <v>32.65727106462185</v>
       </c>
       <c r="AU16">
         <v>-4</v>
       </c>
       <c r="AW16" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="AX16" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="AY16">
-        <v>-2.026468155500414E-2</v>
+        <v>-0.02026468155500414</v>
       </c>
       <c r="AZ16">
-        <v>32.436679051589309</v>
+        <v>32.43667905158931</v>
       </c>
       <c r="BA16">
         <v>-6</v>
       </c>
       <c r="BC16" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="BD16" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="BE16">
-        <v>-1.879699248120301E-2</v>
+        <v>-0.01879699248120301</v>
       </c>
       <c r="BF16">
-        <v>32.275301537799827</v>
+        <v>32.27530153779983</v>
       </c>
       <c r="BG16">
         <v>-8</v>
       </c>
       <c r="BI16" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="BJ16" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="BK16">
-        <v>-1.6870518768452129E-2</v>
+        <v>-0.01687051876845213</v>
       </c>
       <c r="BL16">
-        <v>32.119887270274752</v>
+        <v>32.11988727027475</v>
       </c>
       <c r="BM16">
         <v>-10</v>
       </c>
       <c r="BO16" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="BP16" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="BQ16">
-        <v>-8.3228247162673394E-2</v>
+        <v>-0.08322824716267339</v>
       </c>
       <c r="BR16">
-        <v>32.174029554416407</v>
+        <v>32.17402955441641</v>
       </c>
       <c r="BS16">
         <v>-12</v>
       </c>
       <c r="BU16" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="BV16" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="BW16">
         <v>-0.1376569037656904</v>
       </c>
       <c r="BX16">
-        <v>32.248326772086223</v>
+        <v>32.24832677208622</v>
       </c>
       <c r="BY16">
         <v>-14</v>
@@ -4901,58 +4885,58 @@
     </row>
     <row r="17" spans="1:77">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>-2.597921662669864E-2</v>
+        <v>-0.02597921662669864</v>
       </c>
       <c r="D17">
-        <v>32.995285311472813</v>
+        <v>32.99528531147281</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>279</v>
+        <v>56</v>
       </c>
       <c r="I17">
-        <v>-3.3476060724017133E-2</v>
+        <v>-0.03347606072401713</v>
       </c>
       <c r="J17">
-        <v>33.434150074578021</v>
+        <v>33.43415007457802</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="N17" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="O17">
-        <v>-2.591876208897486E-2</v>
+        <v>-0.02591876208897486</v>
       </c>
       <c r="P17">
-        <v>33.538104153872673</v>
+        <v>33.53810415387267</v>
       </c>
       <c r="Q17">
         <v>6</v>
       </c>
       <c r="S17" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="T17" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="U17">
-        <v>-1.805608912792931E-2</v>
+        <v>-0.01805608912792931</v>
       </c>
       <c r="V17">
         <v>33.65466868267972</v>
@@ -4961,10 +4945,10 @@
         <v>8</v>
       </c>
       <c r="Y17" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Z17" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="AA17">
         <v>-0.3358005453837164</v>
@@ -4976,13 +4960,13 @@
         <v>10</v>
       </c>
       <c r="AE17" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="AF17" t="s">
-        <v>282</v>
+        <v>154</v>
       </c>
       <c r="AG17">
-        <v>-0.32837573385518593</v>
+        <v>-0.3283757338551859</v>
       </c>
       <c r="AH17">
         <v>33.34292439275724</v>
@@ -4991,88 +4975,88 @@
         <v>12</v>
       </c>
       <c r="AK17" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="AL17" t="s">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="AM17">
-        <v>-0.34038386212299249</v>
+        <v>-0.3403838621229925</v>
       </c>
       <c r="AN17">
-        <v>33.329871769672323</v>
+        <v>33.32987176967232</v>
       </c>
       <c r="AO17">
         <v>14</v>
       </c>
       <c r="AQ17" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="AR17" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="AS17">
-        <v>-2.569331158238173E-2</v>
+        <v>-0.02569331158238173</v>
       </c>
       <c r="AT17">
-        <v>32.663932415239749</v>
+        <v>32.66393241523975</v>
       </c>
       <c r="AU17">
         <v>-4</v>
       </c>
       <c r="AW17" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="AX17" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="AY17">
-        <v>-8.6920529801324514E-3</v>
+        <v>-0.008692052980132451</v>
       </c>
       <c r="AZ17">
-        <v>32.423261603630912</v>
+        <v>32.42326160363091</v>
       </c>
       <c r="BA17">
         <v>-6</v>
       </c>
       <c r="BC17" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="BD17" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="BE17">
-        <v>-1.2938230383973289E-2</v>
+        <v>-0.01293823038397329</v>
       </c>
       <c r="BF17">
-        <v>32.288780469912908</v>
+        <v>32.28878046991291</v>
       </c>
       <c r="BG17">
         <v>-8</v>
       </c>
       <c r="BI17" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="BJ17" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="BK17">
-        <v>-1.5157894736842099E-2</v>
+        <v>-0.0151578947368421</v>
       </c>
       <c r="BL17">
-        <v>32.146969810727249</v>
+        <v>32.14696981072725</v>
       </c>
       <c r="BM17">
         <v>-10</v>
       </c>
       <c r="BO17" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="BP17" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="BQ17">
-        <v>-8.9646464646464655E-2</v>
+        <v>-0.08964646464646465</v>
       </c>
       <c r="BR17">
         <v>32.15373688159702</v>
@@ -5081,10 +5065,10 @@
         <v>-12</v>
       </c>
       <c r="BU17" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="BV17" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="BW17">
         <v>-0.1500208942749687</v>
@@ -5098,28 +5082,28 @@
     </row>
     <row r="18" spans="1:77">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>2.7877339705296689E-3</v>
+        <v>0.002787733970529669</v>
       </c>
       <c r="D18">
-        <v>33.054576078630312</v>
+        <v>33.05457607863031</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>290</v>
+        <v>57</v>
       </c>
       <c r="I18">
-        <v>-4.6747175691468634E-3</v>
+        <v>-0.004674717569146863</v>
       </c>
       <c r="J18">
         <v>33.42113307970093</v>
@@ -5128,118 +5112,118 @@
         <v>4</v>
       </c>
       <c r="M18" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="N18" t="s">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="O18">
-        <v>5.8027079303675051E-3</v>
+        <v>0.005802707930367505</v>
       </c>
       <c r="P18">
-        <v>33.538104153872673</v>
+        <v>33.53810415387267</v>
       </c>
       <c r="Q18">
         <v>6</v>
       </c>
       <c r="S18" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="T18" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="U18">
-        <v>8.4226646248085745E-3</v>
+        <v>0.008422664624808575</v>
       </c>
       <c r="V18">
-        <v>33.712799810953243</v>
+        <v>33.71279981095324</v>
       </c>
       <c r="W18">
         <v>8</v>
       </c>
       <c r="Y18" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Z18" t="s">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="AA18">
-        <v>-0.34309133489461358</v>
+        <v>-0.3430913348946136</v>
       </c>
       <c r="AB18">
-        <v>33.388568390023337</v>
+        <v>33.38856839002334</v>
       </c>
       <c r="AC18">
         <v>10</v>
       </c>
       <c r="AE18" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="AF18" t="s">
-        <v>293</v>
+        <v>155</v>
       </c>
       <c r="AG18">
-        <v>-0.32862745098039209</v>
+        <v>-0.3286274509803921</v>
       </c>
       <c r="AH18">
-        <v>33.310283245047778</v>
+        <v>33.31028324504778</v>
       </c>
       <c r="AI18">
         <v>12</v>
       </c>
       <c r="AK18" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="AL18" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="AM18">
-        <v>-0.33725490196078428</v>
+        <v>-0.3372549019607843</v>
       </c>
       <c r="AN18">
-        <v>33.310283245047778</v>
+        <v>33.31028324504778</v>
       </c>
       <c r="AO18">
         <v>14</v>
       </c>
       <c r="AQ18" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="AR18" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="AS18">
-        <v>-1.346389228886169E-2</v>
+        <v>-0.01346389228886169</v>
       </c>
       <c r="AT18">
-        <v>32.657271064621852</v>
+        <v>32.65727106462185</v>
       </c>
       <c r="AU18">
         <v>-4</v>
       </c>
       <c r="AW18" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="AX18" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="AY18">
-        <v>5.7899090157154673E-3</v>
+        <v>0.005789909015715467</v>
       </c>
       <c r="AZ18">
-        <v>32.436679051589309</v>
+        <v>32.43667905158931</v>
       </c>
       <c r="BA18">
         <v>-6</v>
       </c>
       <c r="BC18" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="BD18" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="BE18">
-        <v>-4.1788549937317176E-3</v>
+        <v>-0.004178854993731718</v>
       </c>
       <c r="BF18">
         <v>32.26855996038158</v>
@@ -5248,13 +5232,13 @@
         <v>-8</v>
       </c>
       <c r="BI18" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="BJ18" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="BK18">
-        <v>-1.0521885521885521E-2</v>
+        <v>-0.01052188552188552</v>
       </c>
       <c r="BL18">
         <v>32.15373688159702</v>
@@ -5263,31 +5247,31 @@
         <v>-10</v>
       </c>
       <c r="BO18" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="BP18" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="BQ18">
-        <v>-9.5418242959226574E-2</v>
+        <v>-0.09541824295922657</v>
       </c>
       <c r="BR18">
-        <v>32.174029554416407</v>
+        <v>32.17402955441641</v>
       </c>
       <c r="BS18">
         <v>-12</v>
       </c>
       <c r="BU18" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="BV18" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="BW18">
         <v>-0.1635299038059389</v>
       </c>
       <c r="BX18">
-        <v>32.255072578408743</v>
+        <v>32.25507257840874</v>
       </c>
       <c r="BY18">
         <v>-14</v>
@@ -5295,43 +5279,43 @@
     </row>
     <row r="19" spans="1:77">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>3.9473684210526321E-2</v>
+        <v>0.03947368421052632</v>
       </c>
       <c r="D19">
-        <v>33.034824313449448</v>
+        <v>33.03482431344945</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>302</v>
+        <v>58</v>
       </c>
       <c r="I19">
-        <v>2.5720966484801249E-2</v>
+        <v>0.02572096648480125</v>
       </c>
       <c r="J19">
-        <v>33.414622680675549</v>
+        <v>33.41462268067555</v>
       </c>
       <c r="K19">
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="N19" t="s">
-        <v>303</v>
+        <v>84</v>
       </c>
       <c r="O19">
-        <v>3.6293436293436288E-2</v>
+        <v>0.03629343629343629</v>
       </c>
       <c r="P19">
         <v>33.57052378846398</v>
@@ -5340,103 +5324,103 @@
         <v>6</v>
       </c>
       <c r="S19" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="T19" t="s">
-        <v>304</v>
+        <v>111</v>
       </c>
       <c r="U19">
-        <v>3.0627871362940279E-2</v>
+        <v>0.03062787136294028</v>
       </c>
       <c r="V19">
-        <v>33.712799810953243</v>
+        <v>33.71279981095324</v>
       </c>
       <c r="W19">
         <v>8</v>
       </c>
       <c r="Y19" t="s">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="Z19" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AA19">
-        <v>-0.31939014855355752</v>
+        <v>-0.3193901485535575</v>
       </c>
       <c r="AB19">
-        <v>33.362493752395281</v>
+        <v>33.36249375239528</v>
       </c>
       <c r="AC19">
         <v>10</v>
       </c>
       <c r="AE19" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s">
-        <v>293</v>
+        <v>155</v>
       </c>
       <c r="AG19">
-        <v>-0.32862745098039209</v>
+        <v>-0.3286274509803921</v>
       </c>
       <c r="AH19">
-        <v>33.310283245047778</v>
+        <v>33.31028324504778</v>
       </c>
       <c r="AI19">
         <v>12</v>
       </c>
       <c r="AK19" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AL19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AM19">
-        <v>-0.33973354231974923</v>
+        <v>-0.3397335423197492</v>
       </c>
       <c r="AN19">
-        <v>33.323343540881922</v>
+        <v>33.32334354088192</v>
       </c>
       <c r="AO19">
         <v>14</v>
       </c>
       <c r="AQ19" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="AR19" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AS19">
-        <v>-5.7119543043655649E-3</v>
+        <v>-0.005711954304365565</v>
       </c>
       <c r="AT19">
-        <v>32.657271064621852</v>
+        <v>32.65727106462185</v>
       </c>
       <c r="AU19">
         <v>-4</v>
       </c>
       <c r="AW19" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="AX19" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="AY19">
-        <v>1.7753922378199831E-2</v>
+        <v>0.01775392237819983</v>
       </c>
       <c r="AZ19">
-        <v>32.463497310863843</v>
+        <v>32.46349731086384</v>
       </c>
       <c r="BA19">
         <v>-6</v>
       </c>
       <c r="BC19" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="BD19" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="BE19">
-        <v>8.3612040133779278E-3</v>
+        <v>0.008361204013377928</v>
       </c>
       <c r="BF19">
         <v>32.26181697421238</v>
@@ -5445,43 +5429,43 @@
         <v>-8</v>
       </c>
       <c r="BI19" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="BJ19" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="BK19">
-        <v>-1.2615643397813289E-3</v>
+        <v>-0.001261564339781329</v>
       </c>
       <c r="BL19">
-        <v>32.167266752543618</v>
+        <v>32.16726675254362</v>
       </c>
       <c r="BM19">
         <v>-10</v>
       </c>
       <c r="BO19" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="BP19" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="BQ19">
-        <v>-9.9663582842724974E-2</v>
+        <v>-0.09966358284272497</v>
       </c>
       <c r="BR19">
-        <v>32.167266752543618</v>
+        <v>32.16726675254362</v>
       </c>
       <c r="BS19">
         <v>-12</v>
       </c>
       <c r="BU19" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="BV19" t="s">
         <v>306</v>
       </c>
       <c r="BW19">
-        <v>-0.17474916387959871</v>
+        <v>-0.1747491638795987</v>
       </c>
       <c r="BX19">
         <v>32.26181697421238</v>
@@ -5496,7 +5480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5612,106 +5596,106 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C2">
-        <v>0.69218749999999996</v>
+        <v>0.6921875</v>
       </c>
       <c r="D2">
-        <v>33.375533617560933</v>
+        <v>33.37553361756093</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="I2">
         <v>0.1554028255059183</v>
       </c>
       <c r="J2">
-        <v>33.757943704668229</v>
+        <v>33.75794370466823</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="N2" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="O2">
         <v>-0.1445371775417299</v>
       </c>
       <c r="P2">
-        <v>33.867328350983307</v>
+        <v>33.86732835098331</v>
       </c>
       <c r="Q2">
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="T2" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="U2">
-        <v>-0.69033232628398788</v>
+        <v>-0.6903323262839879</v>
       </c>
       <c r="V2">
-        <v>33.944328817981827</v>
+        <v>33.94432881798183</v>
       </c>
       <c r="W2">
         <v>8</v>
       </c>
       <c r="Y2" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="Z2" t="s">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="AA2">
-        <v>-1.1203912716328071</v>
+        <v>-1.120391271632807</v>
       </c>
       <c r="AB2">
-        <v>34.008362696473647</v>
+        <v>34.00836269647365</v>
       </c>
       <c r="AC2">
         <v>10</v>
       </c>
       <c r="AE2" t="s">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="AF2" t="s">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="AG2">
         <v>-1.416446623915504</v>
       </c>
       <c r="AH2">
-        <v>33.963551657928242</v>
+        <v>33.96355165792824</v>
       </c>
       <c r="AI2">
         <v>12</v>
       </c>
       <c r="AK2" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="AL2" t="s">
-        <v>318</v>
+        <v>434</v>
       </c>
       <c r="AM2">
-        <v>-1.8361027190332331</v>
+        <v>-1.836102719033233</v>
       </c>
       <c r="AN2">
-        <v>33.944328817981827</v>
+        <v>33.94432881798183</v>
       </c>
       <c r="AO2">
         <v>14</v>
@@ -5719,106 +5703,106 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C3">
-        <v>-0.23088984711877689</v>
+        <v>-0.2308898471187769</v>
       </c>
       <c r="D3">
-        <v>33.316814032924484</v>
+        <v>33.31681403292448</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="I3">
         <v>-1.081297709923664</v>
       </c>
       <c r="J3">
-        <v>33.764387905109608</v>
+        <v>33.76438790510961</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="N3" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="O3">
-        <v>-1.3182337266844311</v>
+        <v>-1.318233726684431</v>
       </c>
       <c r="P3">
-        <v>33.809462916184458</v>
+        <v>33.80946291618446</v>
       </c>
       <c r="Q3">
         <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="T3" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="U3">
         <v>-1.684409211023028</v>
       </c>
       <c r="V3">
-        <v>33.950737640623288</v>
+        <v>33.95073764062329</v>
       </c>
       <c r="W3">
         <v>8</v>
       </c>
       <c r="Y3" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="Z3" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="AA3">
-        <v>-1.9219457013574659</v>
+        <v>-1.921945701357466</v>
       </c>
       <c r="AB3">
-        <v>33.969956853960291</v>
+        <v>33.96995685396029</v>
       </c>
       <c r="AC3">
         <v>10</v>
       </c>
       <c r="AE3" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AF3" t="s">
-        <v>329</v>
+        <v>419</v>
       </c>
       <c r="AG3">
-        <v>-2.0903614457831319</v>
+        <v>-2.090361445783132</v>
       </c>
       <c r="AH3">
-        <v>33.995565569888313</v>
+        <v>33.99556556988831</v>
       </c>
       <c r="AI3">
         <v>12</v>
       </c>
       <c r="AK3" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="AL3" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="AM3">
-        <v>-2.3492840994724951</v>
+        <v>-2.349284099472495</v>
       </c>
       <c r="AN3">
-        <v>33.982763624199983</v>
+        <v>33.98276362419998</v>
       </c>
       <c r="AO3">
         <v>14</v>
@@ -5826,106 +5810,106 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C4">
-        <v>-0.37970219435736668</v>
+        <v>-0.3797021943573667</v>
       </c>
       <c r="D4">
-        <v>33.323343540881922</v>
+        <v>33.32334354088192</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="H4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I4">
         <v>-1.004200076365025</v>
       </c>
       <c r="J4">
-        <v>33.757943704668229</v>
+        <v>33.75794370466823</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="N4" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="O4">
-        <v>-1.1690729483282669</v>
+        <v>-1.169072948328267</v>
       </c>
       <c r="P4">
-        <v>33.841622595210573</v>
+        <v>33.84162259521057</v>
       </c>
       <c r="Q4">
         <v>6</v>
       </c>
       <c r="S4" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="T4" t="s">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="U4">
-        <v>-1.4191232048374911</v>
+        <v>-1.419123204837491</v>
       </c>
       <c r="V4">
-        <v>33.931507541294813</v>
+        <v>33.93150754129481</v>
       </c>
       <c r="W4">
         <v>8</v>
       </c>
       <c r="Y4" t="s">
-        <v>337</v>
+        <v>397</v>
       </c>
       <c r="Z4" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="AA4">
-        <v>-1.6312429590687201</v>
+        <v>-1.63124295906872</v>
       </c>
       <c r="AB4">
-        <v>34.040334465024209</v>
+        <v>34.04033446502421</v>
       </c>
       <c r="AC4">
         <v>10</v>
       </c>
       <c r="AE4" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AF4" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="AG4">
-        <v>-1.8919427710843371</v>
+        <v>-1.891942771084337</v>
       </c>
       <c r="AH4">
-        <v>33.995565569888313</v>
+        <v>33.99556556988831</v>
       </c>
       <c r="AI4">
         <v>12</v>
       </c>
       <c r="AK4" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AL4" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="AM4">
         <v>-2.012048192771084</v>
       </c>
       <c r="AN4">
-        <v>33.995565569888313</v>
+        <v>33.99556556988831</v>
       </c>
       <c r="AO4">
         <v>14</v>
@@ -5933,106 +5917,106 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="C5">
-        <v>-0.46397807361002352</v>
+        <v>-0.4639780736100235</v>
       </c>
       <c r="D5">
-        <v>33.336398720047157</v>
+        <v>33.33639872004716</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="H5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I5">
-        <v>-0.89644631257164697</v>
+        <v>-0.896446312571647</v>
       </c>
       <c r="J5">
-        <v>33.745051611891533</v>
+        <v>33.74505161189153</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="N5" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="O5">
         <v>-1.005699088145896</v>
       </c>
       <c r="P5">
-        <v>33.841622595210573</v>
+        <v>33.84162259521057</v>
       </c>
       <c r="Q5">
         <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="T5" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="U5">
-        <v>-1.1766931517215291</v>
+        <v>-1.176693151721529</v>
       </c>
       <c r="V5">
-        <v>33.912266537455999</v>
+        <v>33.912266537456</v>
       </c>
       <c r="W5">
         <v>8</v>
       </c>
       <c r="Y5" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="Z5" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="AA5">
         <v>-1.108933283075763</v>
       </c>
       <c r="AB5">
-        <v>33.976360842489981</v>
+        <v>33.97636084248998</v>
       </c>
       <c r="AC5">
         <v>10</v>
       </c>
       <c r="AE5" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="AF5" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="AG5">
-        <v>-1.1928436911487761</v>
+        <v>-1.192843691148776</v>
       </c>
       <c r="AH5">
-        <v>33.989165199772287</v>
+        <v>33.98916519977229</v>
       </c>
       <c r="AI5">
         <v>12</v>
       </c>
       <c r="AK5" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="AL5" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="AM5">
-        <v>-1.2571644042232279</v>
+        <v>-1.257164404223228</v>
       </c>
       <c r="AN5">
-        <v>33.969956853960291</v>
+        <v>33.96995685396029</v>
       </c>
       <c r="AO5">
         <v>14</v>
@@ -6040,106 +6024,106 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="C6">
-        <v>-0.52252252252252251</v>
+        <v>-0.5225225225225225</v>
       </c>
       <c r="D6">
-        <v>33.329871769672323</v>
+        <v>33.32987176967232</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="H6" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="I6">
-        <v>-0.79365685899885363</v>
+        <v>-0.7936568589988536</v>
       </c>
       <c r="J6">
-        <v>33.745051611891533</v>
+        <v>33.74505161189153</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="N6" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="O6">
-        <v>-0.85877426722497141</v>
+        <v>-0.8587742672249714</v>
       </c>
       <c r="P6">
-        <v>33.809462916184458</v>
+        <v>33.80946291618446</v>
       </c>
       <c r="Q6">
         <v>6</v>
       </c>
       <c r="S6" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="T6" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="U6">
-        <v>-0.94563986409966017</v>
+        <v>-0.9456398640996602</v>
       </c>
       <c r="V6">
-        <v>33.950737640623288</v>
+        <v>33.95073764062329</v>
       </c>
       <c r="W6">
         <v>8</v>
       </c>
       <c r="Y6" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="Z6" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="AA6">
-        <v>-0.96233521657250487</v>
+        <v>-0.9623352165725049</v>
       </c>
       <c r="AB6">
-        <v>33.989165199772287</v>
+        <v>33.98916519977229</v>
       </c>
       <c r="AC6">
         <v>10</v>
       </c>
       <c r="AE6" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="AF6" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="AG6">
-        <v>-0.95784719608581104</v>
+        <v>-0.957847196085811</v>
       </c>
       <c r="AH6">
-        <v>34.001964735228732</v>
+        <v>34.00196473522873</v>
       </c>
       <c r="AI6">
         <v>12</v>
       </c>
       <c r="AK6" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="AL6" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="AM6">
-        <v>-0.92638731596828994</v>
+        <v>-0.9263873159682899</v>
       </c>
       <c r="AN6">
-        <v>33.950737640623288</v>
+        <v>33.95073764062329</v>
       </c>
       <c r="AO6">
         <v>14</v>
@@ -6147,106 +6131,106 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="C7">
         <v>-0.5109717868338558</v>
       </c>
       <c r="D7">
-        <v>33.323343540881922</v>
+        <v>33.32334354088192</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="H7" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="I7">
-        <v>-0.69518716577540107</v>
+        <v>-0.6951871657754011</v>
       </c>
       <c r="J7">
-        <v>33.751498273830542</v>
+        <v>33.75149827383054</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="N7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="O7">
-        <v>-0.74715261958997725</v>
+        <v>-0.7471526195899773</v>
       </c>
       <c r="P7">
-        <v>33.854477912899377</v>
+        <v>33.85447791289938</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="T7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="U7">
-        <v>-0.76339622641509441</v>
+        <v>-0.7633962264150944</v>
       </c>
       <c r="V7">
-        <v>33.957145253710557</v>
+        <v>33.95714525371056</v>
       </c>
       <c r="W7">
         <v>8</v>
       </c>
       <c r="Y7" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="Z7" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="AA7">
-        <v>-0.77015825169555396</v>
+        <v>-0.770158251695554</v>
       </c>
       <c r="AB7">
-        <v>33.982763624199983</v>
+        <v>33.98276362419998</v>
       </c>
       <c r="AC7">
         <v>10</v>
       </c>
       <c r="AE7" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="AF7" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="AG7">
-        <v>-0.73476297968397297</v>
+        <v>-0.734762979683973</v>
       </c>
       <c r="AH7">
-        <v>34.008362696473647</v>
+        <v>34.00836269647365</v>
       </c>
       <c r="AI7">
         <v>12</v>
       </c>
       <c r="AK7" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="AL7" t="s">
-        <v>369</v>
+        <v>439</v>
       </c>
       <c r="AM7">
-        <v>-0.66026365348399252</v>
+        <v>-0.6602636534839925</v>
       </c>
       <c r="AN7">
-        <v>33.989165199772287</v>
+        <v>33.98916519977229</v>
       </c>
       <c r="AO7">
         <v>14</v>
@@ -6254,106 +6238,106 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="C8">
-        <v>-0.44740973312401883</v>
+        <v>-0.4474097331240188</v>
       </c>
       <c r="D8">
-        <v>33.297217826523969</v>
+        <v>33.29721782652397</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="H8" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="I8">
-        <v>-0.60321715817694366</v>
+        <v>-0.6032171581769437</v>
       </c>
       <c r="J8">
-        <v>33.706345747562807</v>
+        <v>33.70634574756281</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="N8" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="O8">
-        <v>-0.61821631878557881</v>
+        <v>-0.6182163187855788</v>
       </c>
       <c r="P8">
-        <v>33.860903741544682</v>
+        <v>33.86090374154468</v>
       </c>
       <c r="Q8">
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="T8" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="U8">
-        <v>-0.61079652699131748</v>
+        <v>-0.6107965269913175</v>
       </c>
       <c r="V8">
-        <v>33.950737640623288</v>
+        <v>33.95073764062329</v>
       </c>
       <c r="W8">
         <v>8</v>
       </c>
       <c r="Y8" t="s">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="Z8" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="AA8">
-        <v>-0.58091286307053946</v>
+        <v>-0.5809128630705395</v>
       </c>
       <c r="AB8">
-        <v>33.963551657928242</v>
+        <v>33.96355165792824</v>
       </c>
       <c r="AC8">
         <v>10</v>
       </c>
       <c r="AE8" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="AF8" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="AG8">
-        <v>-0.51620195930670687</v>
+        <v>-0.5162019593067069</v>
       </c>
       <c r="AH8">
-        <v>33.982763624199983</v>
+        <v>33.98276362419998</v>
       </c>
       <c r="AI8">
         <v>12</v>
       </c>
       <c r="AK8" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="AL8" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="AM8">
         <v>-0.4272795779954785</v>
       </c>
       <c r="AN8">
-        <v>33.982763624199983</v>
+        <v>33.98276362419998</v>
       </c>
       <c r="AO8">
         <v>14</v>
@@ -6361,106 +6345,106 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="C9">
-        <v>-0.37382445141065829</v>
+        <v>-0.3738244514106583</v>
       </c>
       <c r="D9">
-        <v>33.323343540881922</v>
+        <v>33.32334354088192</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="H9" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="I9">
-        <v>-0.40688336520076479</v>
+        <v>-0.4068833652007648</v>
       </c>
       <c r="J9">
-        <v>33.732154591886029</v>
+        <v>33.73215459188603</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="N9" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="O9">
-        <v>-0.43928435477731248</v>
+        <v>-0.4392843547773125</v>
       </c>
       <c r="P9">
-        <v>33.809462916184458</v>
+        <v>33.80946291618446</v>
       </c>
       <c r="Q9">
         <v>6</v>
       </c>
       <c r="S9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="T9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="U9">
-        <v>-0.45221004911220247</v>
+        <v>-0.4522100491122025</v>
       </c>
       <c r="V9">
-        <v>33.937918785100969</v>
+        <v>33.93791878510097</v>
       </c>
       <c r="W9">
         <v>8</v>
       </c>
       <c r="Y9" t="s">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="Z9" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="AA9">
-        <v>-0.40060354583176172</v>
+        <v>-0.4006035458317617</v>
       </c>
       <c r="AB9">
-        <v>33.963551657928242</v>
+        <v>33.96355165792824</v>
       </c>
       <c r="AC9">
         <v>10</v>
       </c>
       <c r="AE9" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AF9" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="AG9">
-        <v>-0.30566037735849061</v>
+        <v>-0.3056603773584906</v>
       </c>
       <c r="AH9">
-        <v>33.957145253710557</v>
+        <v>33.95714525371056</v>
       </c>
       <c r="AI9">
         <v>12</v>
       </c>
       <c r="AK9" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AL9" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="AM9">
-        <v>-0.23471698113207551</v>
+        <v>-0.2347169811320755</v>
       </c>
       <c r="AN9">
-        <v>33.957145253710557</v>
+        <v>33.95714525371056</v>
       </c>
       <c r="AO9">
         <v>14</v>
@@ -6468,106 +6452,106 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="C10">
-        <v>-0.27843137254901962</v>
+        <v>-0.2784313725490196</v>
       </c>
       <c r="D10">
-        <v>33.310283245047778</v>
+        <v>33.31028324504778</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H10" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="I10">
-        <v>-0.22862595419847331</v>
+        <v>-0.2286259541984733</v>
       </c>
       <c r="J10">
-        <v>33.764387905109608</v>
+        <v>33.76438790510961</v>
       </c>
       <c r="K10">
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="N10" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="O10">
-        <v>-0.22729000380083619</v>
+        <v>-0.2272900038008362</v>
       </c>
       <c r="P10">
-        <v>33.835193104776323</v>
+        <v>33.83519310477632</v>
       </c>
       <c r="Q10">
         <v>6</v>
       </c>
       <c r="S10" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="T10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="U10">
-        <v>-0.19622641509433961</v>
+        <v>-0.1962264150943396</v>
       </c>
       <c r="V10">
-        <v>33.957145253710557</v>
+        <v>33.95714525371056</v>
       </c>
       <c r="W10">
         <v>8</v>
       </c>
       <c r="Y10" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="Z10" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="AA10">
         <v>-0.1142533936651584</v>
       </c>
       <c r="AB10">
-        <v>33.969956853960291</v>
+        <v>33.96995685396029</v>
       </c>
       <c r="AC10">
         <v>10</v>
       </c>
       <c r="AE10" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AF10" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="AG10">
-        <v>-8.544423440453687E-2</v>
+        <v>-0.08544423440453687</v>
       </c>
       <c r="AH10">
-        <v>33.925095085876819</v>
+        <v>33.92509508587682</v>
       </c>
       <c r="AI10">
         <v>12</v>
       </c>
       <c r="AK10" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="AL10" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="AM10">
         <v>-0.1470588235294118</v>
       </c>
       <c r="AN10">
-        <v>33.969956853960291</v>
+        <v>33.96995685396029</v>
       </c>
       <c r="AO10">
         <v>14</v>
@@ -6575,13 +6559,13 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="C11">
-        <v>-2.6223091976516639E-2</v>
+        <v>-0.02622309197651664</v>
       </c>
       <c r="D11">
         <v>33.34292439275724</v>
@@ -6590,28 +6574,28 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="H11" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="I11">
-        <v>2.6727758686521572E-3</v>
+        <v>0.002672775868652157</v>
       </c>
       <c r="J11">
-        <v>33.757943704668229</v>
+        <v>33.75794370466823</v>
       </c>
       <c r="K11">
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="N11" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="O11">
-        <v>1.481200151917964E-2</v>
+        <v>0.01481200151917964</v>
       </c>
       <c r="P11">
         <v>33.84805086435302</v>
@@ -6620,61 +6604,61 @@
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="T11" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="U11">
-        <v>3.4326669181440971E-2</v>
+        <v>0.03432666918144097</v>
       </c>
       <c r="V11">
-        <v>33.963551657928242</v>
+        <v>33.96355165792824</v>
       </c>
       <c r="W11">
         <v>8</v>
       </c>
       <c r="Y11" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="Z11" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="AA11">
-        <v>-1.095166163141994E-2</v>
+        <v>-0.01095166163141994</v>
       </c>
       <c r="AB11">
-        <v>33.944328817981827</v>
+        <v>33.94432881798183</v>
       </c>
       <c r="AC11">
         <v>10</v>
       </c>
       <c r="AE11" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AF11" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="AG11">
-        <v>-7.0406626506024098E-2</v>
+        <v>-0.0704066265060241</v>
       </c>
       <c r="AH11">
-        <v>33.995565569888313</v>
+        <v>33.99556556988831</v>
       </c>
       <c r="AI11">
         <v>12</v>
       </c>
       <c r="AK11" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AL11" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="AM11">
-        <v>-0.15489233094068761</v>
+        <v>-0.1548923309406876</v>
       </c>
       <c r="AN11">
-        <v>33.937918785100969</v>
+        <v>33.93791878510097</v>
       </c>
       <c r="AO11">
         <v>14</v>
@@ -6682,106 +6666,106 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>402</v>
+        <v>317</v>
       </c>
       <c r="C12">
-        <v>0.12779302234417869</v>
+        <v>0.1277930223441787</v>
       </c>
       <c r="D12">
-        <v>33.316814032924484</v>
+        <v>33.31681403292448</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="H12" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="I12">
-        <v>0.17436093094238839</v>
+        <v>0.1743609309423884</v>
       </c>
       <c r="J12">
-        <v>33.770830875859048</v>
+        <v>33.77083087585905</v>
       </c>
       <c r="K12">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="N12" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="O12">
-        <v>0.18250950570342209</v>
+        <v>0.1825095057034221</v>
       </c>
       <c r="P12">
-        <v>33.828762392353937</v>
+        <v>33.82876239235394</v>
       </c>
       <c r="Q12">
         <v>6</v>
       </c>
       <c r="S12" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="T12" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="U12">
         <v>0.1797583081570997</v>
       </c>
       <c r="V12">
-        <v>33.944328817981827</v>
+        <v>33.94432881798183</v>
       </c>
       <c r="W12">
         <v>8</v>
       </c>
       <c r="Y12" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="Z12" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AA12">
-        <v>0.15712132629992459</v>
+        <v>0.1571213262999246</v>
       </c>
       <c r="AB12">
-        <v>33.982763624199983</v>
+        <v>33.98276362419998</v>
       </c>
       <c r="AC12">
         <v>10</v>
       </c>
       <c r="AE12" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="AF12" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="AG12">
         <v>0.135114791117802</v>
       </c>
       <c r="AH12">
-        <v>34.001964735228732</v>
+        <v>34.00196473522873</v>
       </c>
       <c r="AI12">
         <v>12</v>
       </c>
       <c r="AK12" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AL12" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="AM12">
         <v>0.1026415094339623</v>
       </c>
       <c r="AN12">
-        <v>33.957145253710557</v>
+        <v>33.95714525371056</v>
       </c>
       <c r="AO12">
         <v>14</v>
@@ -6789,106 +6773,106 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="C13">
         <v>0.119309262166405</v>
       </c>
       <c r="D13">
-        <v>33.297217826523969</v>
+        <v>33.29721782652397</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>412</v>
+        <v>340</v>
       </c>
       <c r="I13">
         <v>0.1916602907421576</v>
       </c>
       <c r="J13">
-        <v>33.725704232406088</v>
+        <v>33.72570423240609</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="N13" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="O13">
-        <v>0.20706686930091189</v>
+        <v>0.2070668693009119</v>
       </c>
       <c r="P13">
-        <v>33.841622595210573</v>
+        <v>33.84162259521057</v>
       </c>
       <c r="Q13">
         <v>6</v>
       </c>
       <c r="S13" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="T13" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="U13">
         <v>0.2194570135746606</v>
       </c>
       <c r="V13">
-        <v>33.969956853960291</v>
+        <v>33.96995685396029</v>
       </c>
       <c r="W13">
         <v>8</v>
       </c>
       <c r="Y13" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Z13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AA13">
-        <v>0.21433962264150941</v>
+        <v>0.2143396226415094</v>
       </c>
       <c r="AB13">
-        <v>33.957145253710557</v>
+        <v>33.95714525371056</v>
       </c>
       <c r="AC13">
         <v>10</v>
       </c>
       <c r="AE13" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="AF13" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="AG13">
-        <v>0.20588235294117649</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="AH13">
-        <v>33.969956853960291</v>
+        <v>33.96995685396029</v>
       </c>
       <c r="AI13">
         <v>12</v>
       </c>
       <c r="AK13" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="AL13" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="AM13">
         <v>0.1917704794261986</v>
       </c>
       <c r="AN13">
-        <v>33.950737640623288</v>
+        <v>33.95073764062329</v>
       </c>
       <c r="AO13">
         <v>14</v>
@@ -6896,106 +6880,106 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>276</v>
       </c>
       <c r="C14">
         <v>0.1028549080954243</v>
       </c>
       <c r="D14">
-        <v>33.355971908182362</v>
+        <v>33.35597190818236</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="H14" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="I14">
         <v>0.2080946926307751</v>
       </c>
       <c r="J14">
-        <v>33.757943704668229</v>
+        <v>33.75794370466823</v>
       </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="N14" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="O14">
-        <v>0.23062310030395139</v>
+        <v>0.2306231003039514</v>
       </c>
       <c r="P14">
-        <v>33.841622595210573</v>
+        <v>33.84162259521057</v>
       </c>
       <c r="Q14">
         <v>6</v>
       </c>
       <c r="S14" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="T14" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="U14">
-        <v>0.25707814269535678</v>
+        <v>0.2570781426953568</v>
       </c>
       <c r="V14">
-        <v>33.950737640623288</v>
+        <v>33.95073764062329</v>
       </c>
       <c r="W14">
         <v>8</v>
       </c>
       <c r="Y14" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="Z14" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AA14">
-        <v>0.26591337099811668</v>
+        <v>0.2659133709981167</v>
       </c>
       <c r="AB14">
-        <v>33.989165199772287</v>
+        <v>33.98916519977229</v>
       </c>
       <c r="AC14">
         <v>10</v>
       </c>
       <c r="AE14" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AF14" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AG14">
-        <v>0.26769578313253012</v>
+        <v>0.2676957831325301</v>
       </c>
       <c r="AH14">
-        <v>33.995565569888313</v>
+        <v>33.99556556988831</v>
       </c>
       <c r="AI14">
         <v>12</v>
       </c>
       <c r="AK14" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="AL14" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="AM14">
-        <v>0.26847662141779788</v>
+        <v>0.2684766214177979</v>
       </c>
       <c r="AN14">
-        <v>33.969956853960291</v>
+        <v>33.96995685396029</v>
       </c>
       <c r="AO14">
         <v>14</v>
@@ -7003,43 +6987,43 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>319</v>
       </c>
       <c r="C15">
-        <v>7.5235109717868343E-2</v>
+        <v>0.07523510971786834</v>
       </c>
       <c r="D15">
-        <v>33.323343540881922</v>
+        <v>33.32334354088192</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>424</v>
+        <v>329</v>
       </c>
       <c r="H15" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="I15">
         <v>0.2303585049580473</v>
       </c>
       <c r="J15">
-        <v>33.777272617620227</v>
+        <v>33.77727261762023</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="N15" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
       <c r="O15">
-        <v>0.26281807823775161</v>
+        <v>0.2628180782377516</v>
       </c>
       <c r="P15">
         <v>33.84805086435302</v>
@@ -7048,61 +7032,61 @@
         <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="T15" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="U15">
         <v>0.3049056603773585</v>
       </c>
       <c r="V15">
-        <v>33.957145253710557</v>
+        <v>33.95714525371056</v>
       </c>
       <c r="W15">
         <v>8</v>
       </c>
       <c r="Y15" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="Z15" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="AA15">
-        <v>0.32654600301659131</v>
+        <v>0.3265460030165913</v>
       </c>
       <c r="AB15">
-        <v>33.969956853960291</v>
+        <v>33.96995685396029</v>
       </c>
       <c r="AC15">
         <v>10</v>
       </c>
       <c r="AE15" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AF15" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG15">
-        <v>0.33773584905660381</v>
+        <v>0.3377358490566038</v>
       </c>
       <c r="AH15">
-        <v>33.957145253710557</v>
+        <v>33.95714525371056</v>
       </c>
       <c r="AI15">
         <v>12</v>
       </c>
       <c r="AK15" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="AL15" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="AM15">
-        <v>0.35178907721280611</v>
+        <v>0.3517890772128061</v>
       </c>
       <c r="AN15">
-        <v>33.989165199772287</v>
+        <v>33.98916519977229</v>
       </c>
       <c r="AO15">
         <v>14</v>
@@ -7110,106 +7094,106 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="C16">
-        <v>4.5062695924764889E-2</v>
+        <v>0.04506269592476489</v>
       </c>
       <c r="D16">
-        <v>33.323343540881922</v>
+        <v>33.32334354088192</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H16" t="s">
-        <v>431</v>
+        <v>343</v>
       </c>
       <c r="I16">
-        <v>0.24618320610687019</v>
+        <v>0.2461832061068702</v>
       </c>
       <c r="J16">
-        <v>33.764387905109608</v>
+        <v>33.76438790510961</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="N16" t="s">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="O16">
-        <v>0.28815489749430517</v>
+        <v>0.2881548974943052</v>
       </c>
       <c r="P16">
-        <v>33.854477912899377</v>
+        <v>33.85447791289938</v>
       </c>
       <c r="Q16">
         <v>6</v>
       </c>
       <c r="S16" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="T16" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="U16">
         <v>0.3430298451076691</v>
       </c>
       <c r="V16">
-        <v>33.937918785100969</v>
+        <v>33.93791878510097</v>
       </c>
       <c r="W16">
         <v>8</v>
       </c>
       <c r="Y16" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="Z16" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="AA16">
-        <v>0.37330316742081437</v>
+        <v>0.3733031674208144</v>
       </c>
       <c r="AB16">
-        <v>33.969956853960291</v>
+        <v>33.96995685396029</v>
       </c>
       <c r="AC16">
         <v>10</v>
       </c>
       <c r="AE16" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="AF16" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AG16">
-        <v>0.39027149321266957</v>
+        <v>0.3902714932126696</v>
       </c>
       <c r="AH16">
-        <v>33.969956853960291</v>
+        <v>33.96995685396029</v>
       </c>
       <c r="AI16">
         <v>12</v>
       </c>
       <c r="AK16" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="AL16" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="AM16">
-        <v>0.41167608286252361</v>
+        <v>0.4116760828625236</v>
       </c>
       <c r="AN16">
-        <v>33.989165199772287</v>
+        <v>33.98916519977229</v>
       </c>
       <c r="AO16">
         <v>14</v>
@@ -7217,106 +7201,106 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="C17">
-        <v>-1.961553550411926E-2</v>
+        <v>-0.01961553550411926</v>
       </c>
       <c r="D17">
-        <v>33.303751176498849</v>
+        <v>33.30375117649885</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="H17" t="s">
-        <v>438</v>
+        <v>344</v>
       </c>
       <c r="I17">
-        <v>0.28686327077747992</v>
+        <v>0.2868632707774799</v>
       </c>
       <c r="J17">
-        <v>33.706345747562807</v>
+        <v>33.70634574756281</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="N17" t="s">
-        <v>439</v>
+        <v>368</v>
       </c>
       <c r="O17">
-        <v>0.34853667806917532</v>
+        <v>0.3485366780691753</v>
       </c>
       <c r="P17">
-        <v>33.835193104776323</v>
+        <v>33.83519310477632</v>
       </c>
       <c r="Q17">
         <v>6</v>
       </c>
       <c r="S17" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="T17" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="U17">
-        <v>0.42646502835538752</v>
+        <v>0.4264650283553875</v>
       </c>
       <c r="V17">
-        <v>33.925095085876819</v>
+        <v>33.92509508587682</v>
       </c>
       <c r="W17">
         <v>8</v>
       </c>
       <c r="Y17" t="s">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="Z17" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="AA17">
-        <v>0.47001131648434558</v>
+        <v>0.4700113164843456</v>
       </c>
       <c r="AB17">
-        <v>33.963551657928242</v>
+        <v>33.96355165792824</v>
       </c>
       <c r="AC17">
         <v>10</v>
       </c>
       <c r="AE17" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="AF17" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="AG17">
-        <v>0.49529190207156309</v>
+        <v>0.4952919020715631</v>
       </c>
       <c r="AH17">
-        <v>33.989165199772287</v>
+        <v>33.98916519977229</v>
       </c>
       <c r="AI17">
         <v>12</v>
       </c>
       <c r="AK17" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="AL17" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM17">
-        <v>0.52581982661138338</v>
+        <v>0.5258198266113834</v>
       </c>
       <c r="AN17">
-        <v>33.976360842489981</v>
+        <v>33.97636084248998</v>
       </c>
       <c r="AO17">
         <v>14</v>
@@ -7324,91 +7308,91 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18">
-        <v>2.5569999999999999</v>
+        <v>2.557</v>
       </c>
       <c r="B18">
         <v>-0.193</v>
       </c>
       <c r="C18">
-        <v>-7.5479077043410253E-2</v>
+        <v>-0.07547907704341025</v>
       </c>
       <c r="D18">
-        <v>33.355971908182362</v>
+        <v>33.35597190818236</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.6139999999999999</v>
+        <v>2.614</v>
       </c>
       <c r="H18">
-        <v>0.94799999999999995</v>
+        <v>0.948</v>
       </c>
       <c r="I18">
-        <v>0.36266258607498092</v>
+        <v>0.3626625860749809</v>
       </c>
       <c r="J18">
-        <v>33.725704232406088</v>
+        <v>33.72570423240609</v>
       </c>
       <c r="K18">
         <v>4</v>
       </c>
       <c r="M18">
-        <v>2.6259999999999999</v>
+        <v>2.626</v>
       </c>
       <c r="N18">
         <v>1.117</v>
       </c>
       <c r="O18">
-        <v>0.42536176694592542</v>
+        <v>0.4253617669459254</v>
       </c>
       <c r="P18">
-        <v>33.803027308832696</v>
+        <v>33.8030273088327</v>
       </c>
       <c r="Q18">
         <v>6</v>
       </c>
       <c r="S18">
-        <v>2.6440000000000001</v>
+        <v>2.644</v>
       </c>
       <c r="T18">
         <v>1.337</v>
       </c>
       <c r="U18">
-        <v>0.50567322239031764</v>
+        <v>0.5056732223903176</v>
       </c>
       <c r="V18">
-        <v>33.918681418159828</v>
+        <v>33.91868141815983</v>
       </c>
       <c r="W18">
         <v>8</v>
       </c>
       <c r="Y18">
-        <v>2.6549999999999998</v>
+        <v>2.655</v>
       </c>
       <c r="Z18">
-        <v>1.4510000000000001</v>
+        <v>1.451</v>
       </c>
       <c r="AA18">
         <v>0.5465160075329567</v>
       </c>
       <c r="AB18">
-        <v>33.989165199772287</v>
+        <v>33.98916519977229</v>
       </c>
       <c r="AC18">
         <v>10</v>
       </c>
       <c r="AE18">
-        <v>2.6539999999999999</v>
+        <v>2.654</v>
       </c>
       <c r="AF18">
         <v>1.526</v>
       </c>
       <c r="AG18">
-        <v>0.57498116051243409</v>
+        <v>0.5749811605124341</v>
       </c>
       <c r="AH18">
-        <v>33.982763624199983</v>
+        <v>33.98276362419998</v>
       </c>
       <c r="AI18">
         <v>12</v>
@@ -7423,7 +7407,7 @@
         <v>0.5955522050508858</v>
       </c>
       <c r="AN18">
-        <v>33.976360842489981</v>
+        <v>33.97636084248998</v>
       </c>
       <c r="AO18">
         <v>14</v>
@@ -7431,106 +7415,106 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>444</v>
+        <v>321</v>
       </c>
       <c r="C19">
-        <v>-6.6640533124264992E-3</v>
+        <v>-0.006664053312426499</v>
       </c>
       <c r="D19">
-        <v>33.316814032924484</v>
+        <v>33.31681403292448</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="H19" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="I19">
-        <v>0.44410530331934372</v>
+        <v>0.4441053033193437</v>
       </c>
       <c r="J19">
-        <v>33.770830875859048</v>
+        <v>33.77083087585905</v>
       </c>
       <c r="K19">
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="N19" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="O19">
-        <v>0.51901140684410652</v>
+        <v>0.5190114068441065</v>
       </c>
       <c r="P19">
-        <v>33.828762392353937</v>
+        <v>33.82876239235394</v>
       </c>
       <c r="Q19">
         <v>6</v>
       </c>
       <c r="S19" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="T19" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="U19">
-        <v>0.60385925085130543</v>
+        <v>0.6038592508513054</v>
       </c>
       <c r="V19">
-        <v>33.912266537455999</v>
+        <v>33.912266537456</v>
       </c>
       <c r="W19">
         <v>8</v>
       </c>
       <c r="Y19" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="Z19" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="AA19">
         <v>0.645440844009043</v>
       </c>
       <c r="AB19">
-        <v>33.982763624199983</v>
+        <v>33.98276362419998</v>
       </c>
       <c r="AC19">
         <v>10</v>
       </c>
       <c r="AE19" t="s">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="AF19" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="AG19">
-        <v>0.66314598264805735</v>
+        <v>0.6631459826480574</v>
       </c>
       <c r="AH19">
-        <v>33.963551657928242</v>
+        <v>33.96355165792824</v>
       </c>
       <c r="AI19">
         <v>12</v>
       </c>
       <c r="AK19" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="AL19" t="s">
         <v>450</v>
       </c>
       <c r="AM19">
-        <v>0.67923105917828874</v>
+        <v>0.6792310591782887</v>
       </c>
       <c r="AN19">
-        <v>33.976360842489981</v>
+        <v>33.97636084248998</v>
       </c>
       <c r="AO19">
         <v>14</v>
